--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -2125,7 +2125,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2133,22 +2133,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>무역회사와판매업체</t>
+          <t>출판</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4.48</v>
+        <v>7.75</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2156,22 +2156,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>조선</t>
+          <t>상업서비스와공급품</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3.07</v>
+        <v>7.53</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>건강관리기술</t>
+          <t>무역회사와판매업체</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2.56</v>
+        <v>4.49</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2202,22 +2202,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>상업서비스와공급품</t>
+          <t>방송과엔터테인먼트</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2.51</v>
+        <v>4.16</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2225,22 +2225,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>방송과엔터테인먼트</t>
+          <t>인터넷과카탈로그소매</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2.49</v>
+        <v>3.35</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2248,22 +2248,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>IT서비스</t>
+          <t>가정용품</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2.29</v>
+        <v>3.3</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2271,22 +2271,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>소프트웨어</t>
+          <t>화장품</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1.88</v>
+        <v>3.2</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2294,22 +2294,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>화장품</t>
+          <t>광고</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1.86</v>
+        <v>2.86</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2317,22 +2317,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>해운사</t>
+          <t>IT서비스</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1.63</v>
+        <v>2.82</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2340,22 +2340,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>종이와목재</t>
+          <t>섬유,의류,신발,호화품</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1.55</v>
+        <v>2.79</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>인터넷과카탈로그소매</t>
+          <t>손해보험</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1.54</v>
+        <v>2.69</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2386,22 +2386,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>우주항공과국방</t>
+          <t>가구</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>1.47</v>
+        <v>2.64</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2409,22 +2409,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>가정용품</t>
+          <t>항공화물운송과물류</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1.22</v>
+        <v>2.11</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2432,22 +2432,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>레저용장비와제품</t>
+          <t>소프트웨어</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.21</v>
+        <v>1.96</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2455,22 +2455,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>디스플레이패널</t>
+          <t>백화점과일반상점</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.21</v>
+        <v>1.72</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2478,22 +2478,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>에너지장비및서비스</t>
+          <t>호텔,레스토랑,레저</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.99</v>
+        <v>1.65</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2501,22 +2501,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>항공화물운송과물류</t>
+          <t>건강관리기술</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.96</v>
+        <v>1.64</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2524,22 +2524,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>다각화된통신서비스</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.37</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2547,22 +2547,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>섬유,의류,신발,호화품</t>
+          <t>조선</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.79</v>
+        <v>1.33</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2570,22 +2570,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>출판</t>
+          <t>카드</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.76</v>
+        <v>1.22</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.71</v>
+        <v>1.22</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2616,22 +2616,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>호텔,레스토랑,레저</t>
+          <t>가스유틸리티</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.7</v>
+        <v>1.22</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2639,22 +2639,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>카드</t>
+          <t>담배</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.52</v>
+        <v>1.19</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2662,22 +2662,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>건강관리장비와용품</t>
+          <t>증권</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2685,22 +2685,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>광고</t>
+          <t>은행</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.43</v>
+        <v>1.12</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2708,22 +2708,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>자동차</t>
+          <t>기계</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.41</v>
+        <v>1.1</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2731,22 +2731,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>판매업체</t>
+          <t>도로와철도운송</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.39</v>
+        <v>1.08</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2754,22 +2754,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>증권</t>
+          <t>건축제품</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.36</v>
+        <v>1.07</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2777,22 +2777,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>기계</t>
+          <t>생명보험</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.34</v>
+        <v>1.05</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2800,22 +2800,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>생명보험</t>
+          <t>식품과기본식료품소매</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.32</v>
+        <v>0.98</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2823,22 +2823,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>가스유틸리티</t>
+          <t>건강관리장비와용품</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.31</v>
+        <v>0.97</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2846,22 +2846,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>은행</t>
+          <t>해운사</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.29</v>
+        <v>0.87</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2869,22 +2869,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>창업투자</t>
+          <t>우주항공과국방</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.27</v>
+        <v>0.85</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2892,22 +2892,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>양방향미디어와서비스</t>
+          <t>교육서비스</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.26</v>
+        <v>0.79</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2915,22 +2915,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>반도체와반도체장비</t>
+          <t>기타금융</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.22</v>
+        <v>0.75</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2938,22 +2938,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>석유와가스</t>
+          <t>디스플레이패널</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.22</v>
+        <v>0.63</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2961,22 +2961,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>전기유틸리티</t>
+          <t>무선통신서비스</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.2</v>
+        <v>0.58</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2984,22 +2984,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>건축제품</t>
+          <t>자동차</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3007,22 +3007,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>식품과기본식료품소매</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.16</v>
+        <v>0.48</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3030,22 +3030,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>문구류</t>
+          <t>항공사</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.12</v>
+        <v>0.44</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3053,22 +3053,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>게임엔터테인먼트</t>
+          <t>종이와목재</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.11</v>
+        <v>0.43</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3076,22 +3076,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>교육서비스</t>
+          <t>레저용장비와제품</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.11</v>
+        <v>0.4</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3099,22 +3099,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>기타금융</t>
+          <t>음료</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.11</v>
+        <v>0.34</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3122,22 +3122,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>운송인프라</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3145,22 +3145,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>도로와철도운송</t>
+          <t>포장재</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3168,22 +3168,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>전자제품</t>
+          <t>창업투자</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.05</v>
+        <v>0.28</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3191,22 +3191,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>철강</t>
+          <t>기타</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3214,22 +3214,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>포장재</t>
+          <t>디스플레이장비및부품</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3237,22 +3237,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>화학</t>
+          <t>전기유틸리티</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3275,7 +3275,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3283,22 +3283,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>손해보험</t>
+          <t>석유와가스</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3306,22 +3306,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>부동산</t>
+          <t>자동차부품</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>-0.15</v>
+        <v>0</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3329,22 +3329,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>디스플레이장비및부품</t>
+          <t>철강</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.17</v>
+        <v>-0.03</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3352,22 +3352,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>무선통신서비스</t>
+          <t>건축자재</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.17</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3375,22 +3375,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>통신장비</t>
+          <t>에너지장비및서비스</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-0.22</v>
+        <v>-0.18</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3398,22 +3398,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>다각화된통신서비스</t>
+          <t>건설</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>-0.24</v>
+        <v>-0.18</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3421,22 +3421,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>전자제품</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3444,22 +3444,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>자동차부품</t>
+          <t>통신장비</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-0.25</v>
+        <v>-0.28</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3467,22 +3467,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>건축자재</t>
+          <t>판매업체</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>-0.26</v>
+        <v>-0.36</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3490,22 +3490,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>전자장비와기기</t>
+          <t>다각화된소비자서비스</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-0.27</v>
+        <v>-0.37</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3513,22 +3513,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>건설</t>
+          <t>부동산</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-0.28</v>
+        <v>-0.38</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3536,22 +3536,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>운송인프라</t>
+          <t>복합기업</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-0.28</v>
+        <v>-0.45</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3559,22 +3559,22 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>제약</t>
+          <t>전문소매</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>-0.31</v>
+        <v>-0.5</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3582,22 +3582,22 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>백화점과일반상점</t>
+          <t>문구류</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>-0.32</v>
+        <v>-0.5</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3605,22 +3605,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>생물공학</t>
+          <t>게임엔터테인먼트</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.34</v>
+        <v>-0.58</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3628,22 +3628,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>다각화된소비자서비스</t>
+          <t>생물공학</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-0.37</v>
+        <v>-0.61</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3651,22 +3651,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>복합기업</t>
+          <t>화학</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.4</v>
+        <v>-0.61</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3674,22 +3674,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>음료</t>
+          <t>제약</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>-0.41</v>
+        <v>-0.67</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -3697,22 +3697,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>전기제품</t>
+          <t>반도체와반도체장비</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.43</v>
+        <v>-0.7</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3720,22 +3720,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>담배</t>
+          <t>핸드셋</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.48</v>
+        <v>-0.83</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -3743,22 +3743,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>핸드셋</t>
+          <t>양방향미디어와서비스</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.83</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -3766,22 +3766,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>전문소매</t>
+          <t>가정용기기와용품</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.59</v>
+        <v>-0.86</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -3789,22 +3789,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>건강관리업체및서비스</t>
+          <t>전기제품</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-0.71</v>
+        <v>-0.92</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-0.75</v>
+        <v>-1.06</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3827,7 +3827,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -3835,22 +3835,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>전기장비</t>
+          <t>건강관리업체및서비스</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-0.79</v>
+        <v>-1.28</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -3858,22 +3858,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>항공사</t>
+          <t>전기장비</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-0.8</v>
+        <v>-1.45</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -3881,22 +3881,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>가정용기기와용품</t>
+          <t>생명과학도구및서비스</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-1.08</v>
+        <v>-1.48</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -3904,22 +3904,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>비철금속</t>
+          <t>전자장비와기기</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-1.3</v>
+        <v>-1.66</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20230804</t>
+          <t>20230802</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -3927,15 +3927,15 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>생명과학도구및서비스</t>
+          <t>비철금속</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>-1.44</v>
+        <v>-1.7</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -2125,7 +2125,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -2133,22 +2133,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>출판</t>
+          <t>상업서비스와공급품</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>7.75</v>
+        <v>7.6</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -2156,22 +2156,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>상업서비스와공급품</t>
+          <t>출판</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7.53</v>
+        <v>7.55</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -2179,22 +2179,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>무역회사와판매업체</t>
+          <t>방송과엔터테인먼트</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4.49</v>
+        <v>4.67</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -2202,22 +2202,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>방송과엔터테인먼트</t>
+          <t>무역회사와판매업체</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>4.16</v>
+        <v>4.03</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>3.35</v>
+        <v>3.81</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>3.3</v>
+        <v>3.66</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2263,7 +2263,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -2286,7 +2286,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2.82</v>
+        <v>2.85</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2332,7 +2332,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -2340,22 +2340,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>섬유,의류,신발,호화품</t>
+          <t>가구</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -2363,22 +2363,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>손해보험</t>
+          <t>섬유,의류,신발,호화품</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2.69</v>
+        <v>2.65</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -2386,22 +2386,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>가구</t>
+          <t>손해보험</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2.64</v>
+        <v>2.62</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -2409,22 +2409,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>항공화물운송과물류</t>
+          <t>소프트웨어</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2.11</v>
+        <v>2.47</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -2432,22 +2432,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>소프트웨어</t>
+          <t>항공화물운송과물류</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1.96</v>
+        <v>2.29</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -2455,22 +2455,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>백화점과일반상점</t>
+          <t>호텔,레스토랑,레저</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -2478,22 +2478,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>호텔,레스토랑,레저</t>
+          <t>백화점과일반상점</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -2501,22 +2501,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>건강관리기술</t>
+          <t>다각화된통신서비스</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1.64</v>
+        <v>1.69</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -2524,22 +2524,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>다각화된통신서비스</t>
+          <t>카드</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -2547,22 +2547,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>조선</t>
+          <t>기계</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -2570,22 +2570,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>카드</t>
+          <t>건강관리기술</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -2597,7 +2597,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1.22</v>
+        <v>1.46</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -2639,22 +2639,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>담배</t>
+          <t>식품과기본식료품소매</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1.19</v>
+        <v>1.28</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -2662,22 +2662,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>증권</t>
+          <t>담배</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -2685,22 +2685,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>은행</t>
+          <t>건강관리장비와용품</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -2708,22 +2708,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>기계</t>
+          <t>조선</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -2731,22 +2731,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>도로와철도운송</t>
+          <t>생명보험</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>1.08</v>
+        <v>1.16</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -2754,22 +2754,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>건축제품</t>
+          <t>은행</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -2777,22 +2777,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>생명보험</t>
+          <t>증권</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -2800,22 +2800,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>식품과기본식료품소매</t>
+          <t>교육서비스</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -2823,22 +2823,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>건강관리장비와용품</t>
+          <t>건축제품</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -2850,7 +2850,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -2869,22 +2869,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>우주항공과국방</t>
+          <t>도로와철도운송</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -2892,22 +2892,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>교육서비스</t>
+          <t>디스플레이패널</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -2915,22 +2915,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>기타금융</t>
+          <t>무선통신서비스</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -2938,22 +2938,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>디스플레이패널</t>
+          <t>기타금융</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -2961,22 +2961,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>무선통신서비스</t>
+          <t>항공사</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.58</v>
+        <v>0.67</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -2984,22 +2984,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>자동차</t>
+          <t>우주항공과국방</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.5</v>
+        <v>0.66</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -3007,22 +3007,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>식품</t>
+          <t>레저용장비와제품</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.48</v>
+        <v>0.6</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -3030,22 +3030,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>항공사</t>
+          <t>식품</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.44</v>
+        <v>0.52</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -3053,22 +3053,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>종이와목재</t>
+          <t>음료</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.43</v>
+        <v>0.49</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -3076,7 +3076,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>레저용장비와제품</t>
+          <t>자동차</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -3084,14 +3084,14 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -3099,22 +3099,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>음료</t>
+          <t>운송인프라</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.34</v>
+        <v>0.38</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -3122,22 +3122,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>운송인프라</t>
+          <t>창업투자</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -3149,7 +3149,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.31</v>
+        <v>0.36</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -3168,22 +3168,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>창업투자</t>
+          <t>종이와목재</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.28</v>
+        <v>0.27</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.17</v>
+        <v>0.24</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -3237,22 +3237,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>전기유틸리티</t>
+          <t>철강</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -3260,22 +3260,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>복합유틸리티</t>
+          <t>전기유틸리티</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -3283,7 +3283,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>석유와가스</t>
+          <t>복합유틸리티</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -3291,14 +3291,14 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -3329,22 +3329,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>철강</t>
+          <t>건축자재</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>-0.03</v>
+        <v>-0.08</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -3352,22 +3352,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>건축자재</t>
+          <t>에너지장비및서비스</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -3375,22 +3375,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>에너지장비및서비스</t>
+          <t>판매업체</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>-0.18</v>
+        <v>-0.11</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>건설</t>
+          <t>석유와가스</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -3406,14 +3406,14 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -3421,22 +3421,22 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>전자제품</t>
+          <t>건설</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>-0.24</v>
+        <v>-0.23</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -3444,22 +3444,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>통신장비</t>
+          <t>부동산</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>-0.28</v>
+        <v>-0.25</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>판매업체</t>
+          <t>통신장비</t>
         </is>
       </c>
       <c r="D139" t="n">
@@ -3475,14 +3475,14 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -3490,22 +3490,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>다각화된소비자서비스</t>
+          <t>전문소매</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>-0.37</v>
+        <v>-0.41</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -3513,22 +3513,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>부동산</t>
+          <t>반도체와반도체장비</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>-0.38</v>
+        <v>-0.41</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -3536,22 +3536,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>복합기업</t>
+          <t>양방향미디어와서비스</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>-0.45</v>
+        <v>-0.42</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>전문소매</t>
+          <t>게임엔터테인먼트</t>
         </is>
       </c>
       <c r="D143" t="n">
@@ -3567,14 +3567,14 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>문구류</t>
+          <t>복합기업</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -3590,14 +3590,14 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -3605,22 +3605,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>게임엔터테인먼트</t>
+          <t>전자제품</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>-0.58</v>
+        <v>-0.55</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -3628,22 +3628,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>생물공학</t>
+          <t>문구류</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -3651,22 +3651,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>화학</t>
+          <t>제약</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>-0.61</v>
+        <v>-0.62</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -3674,7 +3674,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>제약</t>
+          <t>생물공학</t>
         </is>
       </c>
       <c r="D148" t="n">
@@ -3682,14 +3682,14 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -3697,22 +3697,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>반도체와반도체장비</t>
+          <t>화학</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>-0.7</v>
+        <v>-0.74</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -3720,22 +3720,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>핸드셋</t>
+          <t>전기제품</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>-0.83</v>
+        <v>-0.88</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -3743,22 +3743,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>양방향미디어와서비스</t>
+          <t>가정용기기와용품</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>-0.83</v>
+        <v>-0.88</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -3766,22 +3766,22 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>가정용기기와용품</t>
+          <t>핸드셋</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>-0.86</v>
+        <v>-0.89</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -3789,22 +3789,22 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>전기제품</t>
+          <t>사무용전자제품</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>-0.92</v>
+        <v>-1.06</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -3812,22 +3812,22 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>사무용전자제품</t>
+          <t>건강관리업체및서비스</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>-1.06</v>
+        <v>-1.09</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -3835,22 +3835,22 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>건강관리업체및서비스</t>
+          <t>다각화된소비자서비스</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>-1.28</v>
+        <v>-1.11</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -3858,22 +3858,22 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>전기장비</t>
+          <t>전자장비와기기</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>-1.45</v>
+        <v>-1.48</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -3881,22 +3881,22 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>생명과학도구및서비스</t>
+          <t>비철금속</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>-1.48</v>
+        <v>-1.79</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -3904,22 +3904,22 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>전자장비와기기</t>
+          <t>생명과학도구및서비스</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>-1.66</v>
+        <v>-1.81</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>20230802</t>
+          <t>20230804</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -3927,15 +3927,15 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>비철금속</t>
+          <t>전기장비</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>-1.7</v>
+        <v>-1.89</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -2123,10 +2123,8 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A81" t="n">
+        <v>20230804</v>
       </c>
       <c r="B81" t="n">
         <v>1</v>
@@ -2146,10 +2144,8 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A82" t="n">
+        <v>20230804</v>
       </c>
       <c r="B82" t="n">
         <v>2</v>
@@ -2169,10 +2165,8 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A83" t="n">
+        <v>20230804</v>
       </c>
       <c r="B83" t="n">
         <v>3</v>
@@ -2192,10 +2186,8 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A84" t="n">
+        <v>20230804</v>
       </c>
       <c r="B84" t="n">
         <v>4</v>
@@ -2215,10 +2207,8 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A85" t="n">
+        <v>20230804</v>
       </c>
       <c r="B85" t="n">
         <v>5</v>
@@ -2238,10 +2228,8 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A86" t="n">
+        <v>20230804</v>
       </c>
       <c r="B86" t="n">
         <v>6</v>
@@ -2261,10 +2249,8 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A87" t="n">
+        <v>20230804</v>
       </c>
       <c r="B87" t="n">
         <v>7</v>
@@ -2284,10 +2270,8 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A88" t="n">
+        <v>20230804</v>
       </c>
       <c r="B88" t="n">
         <v>8</v>
@@ -2307,10 +2291,8 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A89" t="n">
+        <v>20230804</v>
       </c>
       <c r="B89" t="n">
         <v>9</v>
@@ -2330,10 +2312,8 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A90" t="n">
+        <v>20230804</v>
       </c>
       <c r="B90" t="n">
         <v>10</v>
@@ -2353,10 +2333,8 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A91" t="n">
+        <v>20230804</v>
       </c>
       <c r="B91" t="n">
         <v>11</v>
@@ -2376,10 +2354,8 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A92" t="n">
+        <v>20230804</v>
       </c>
       <c r="B92" t="n">
         <v>12</v>
@@ -2399,10 +2375,8 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A93" t="n">
+        <v>20230804</v>
       </c>
       <c r="B93" t="n">
         <v>13</v>
@@ -2422,10 +2396,8 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A94" t="n">
+        <v>20230804</v>
       </c>
       <c r="B94" t="n">
         <v>14</v>
@@ -2445,10 +2417,8 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A95" t="n">
+        <v>20230804</v>
       </c>
       <c r="B95" t="n">
         <v>15</v>
@@ -2468,10 +2438,8 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A96" t="n">
+        <v>20230804</v>
       </c>
       <c r="B96" t="n">
         <v>16</v>
@@ -2491,10 +2459,8 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A97" t="n">
+        <v>20230804</v>
       </c>
       <c r="B97" t="n">
         <v>17</v>
@@ -2514,10 +2480,8 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A98" t="n">
+        <v>20230804</v>
       </c>
       <c r="B98" t="n">
         <v>18</v>
@@ -2537,10 +2501,8 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A99" t="n">
+        <v>20230804</v>
       </c>
       <c r="B99" t="n">
         <v>19</v>
@@ -2560,10 +2522,8 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A100" t="n">
+        <v>20230804</v>
       </c>
       <c r="B100" t="n">
         <v>20</v>
@@ -2583,10 +2543,8 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A101" t="n">
+        <v>20230804</v>
       </c>
       <c r="B101" t="n">
         <v>21</v>
@@ -2606,10 +2564,8 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A102" t="n">
+        <v>20230804</v>
       </c>
       <c r="B102" t="n">
         <v>22</v>
@@ -2629,10 +2585,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A103" t="n">
+        <v>20230804</v>
       </c>
       <c r="B103" t="n">
         <v>23</v>
@@ -2652,10 +2606,8 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A104" t="n">
+        <v>20230804</v>
       </c>
       <c r="B104" t="n">
         <v>24</v>
@@ -2675,10 +2627,8 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A105" t="n">
+        <v>20230804</v>
       </c>
       <c r="B105" t="n">
         <v>25</v>
@@ -2698,10 +2648,8 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A106" t="n">
+        <v>20230804</v>
       </c>
       <c r="B106" t="n">
         <v>26</v>
@@ -2721,10 +2669,8 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A107" t="n">
+        <v>20230804</v>
       </c>
       <c r="B107" t="n">
         <v>27</v>
@@ -2744,10 +2690,8 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A108" t="n">
+        <v>20230804</v>
       </c>
       <c r="B108" t="n">
         <v>28</v>
@@ -2767,10 +2711,8 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A109" t="n">
+        <v>20230804</v>
       </c>
       <c r="B109" t="n">
         <v>29</v>
@@ -2790,10 +2732,8 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A110" t="n">
+        <v>20230804</v>
       </c>
       <c r="B110" t="n">
         <v>30</v>
@@ -2813,10 +2753,8 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A111" t="n">
+        <v>20230804</v>
       </c>
       <c r="B111" t="n">
         <v>31</v>
@@ -2836,10 +2774,8 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A112" t="n">
+        <v>20230804</v>
       </c>
       <c r="B112" t="n">
         <v>32</v>
@@ -2859,10 +2795,8 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A113" t="n">
+        <v>20230804</v>
       </c>
       <c r="B113" t="n">
         <v>33</v>
@@ -2882,10 +2816,8 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A114" t="n">
+        <v>20230804</v>
       </c>
       <c r="B114" t="n">
         <v>34</v>
@@ -2905,10 +2837,8 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A115" t="n">
+        <v>20230804</v>
       </c>
       <c r="B115" t="n">
         <v>35</v>
@@ -2928,10 +2858,8 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A116" t="n">
+        <v>20230804</v>
       </c>
       <c r="B116" t="n">
         <v>36</v>
@@ -2951,10 +2879,8 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A117" t="n">
+        <v>20230804</v>
       </c>
       <c r="B117" t="n">
         <v>37</v>
@@ -2974,10 +2900,8 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A118" t="n">
+        <v>20230804</v>
       </c>
       <c r="B118" t="n">
         <v>38</v>
@@ -2997,10 +2921,8 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A119" t="n">
+        <v>20230804</v>
       </c>
       <c r="B119" t="n">
         <v>39</v>
@@ -3020,10 +2942,8 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A120" t="n">
+        <v>20230804</v>
       </c>
       <c r="B120" t="n">
         <v>40</v>
@@ -3043,10 +2963,8 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A121" t="n">
+        <v>20230804</v>
       </c>
       <c r="B121" t="n">
         <v>41</v>
@@ -3066,10 +2984,8 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A122" t="n">
+        <v>20230804</v>
       </c>
       <c r="B122" t="n">
         <v>42</v>
@@ -3089,10 +3005,8 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A123" t="n">
+        <v>20230804</v>
       </c>
       <c r="B123" t="n">
         <v>43</v>
@@ -3112,10 +3026,8 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A124" t="n">
+        <v>20230804</v>
       </c>
       <c r="B124" t="n">
         <v>44</v>
@@ -3135,10 +3047,8 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A125" t="n">
+        <v>20230804</v>
       </c>
       <c r="B125" t="n">
         <v>45</v>
@@ -3158,10 +3068,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A126" t="n">
+        <v>20230804</v>
       </c>
       <c r="B126" t="n">
         <v>46</v>
@@ -3181,10 +3089,8 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A127" t="n">
+        <v>20230804</v>
       </c>
       <c r="B127" t="n">
         <v>47</v>
@@ -3204,10 +3110,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A128" t="n">
+        <v>20230804</v>
       </c>
       <c r="B128" t="n">
         <v>48</v>
@@ -3227,10 +3131,8 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A129" t="n">
+        <v>20230804</v>
       </c>
       <c r="B129" t="n">
         <v>49</v>
@@ -3250,10 +3152,8 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A130" t="n">
+        <v>20230804</v>
       </c>
       <c r="B130" t="n">
         <v>50</v>
@@ -3273,10 +3173,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A131" t="n">
+        <v>20230804</v>
       </c>
       <c r="B131" t="n">
         <v>51</v>
@@ -3296,10 +3194,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A132" t="n">
+        <v>20230804</v>
       </c>
       <c r="B132" t="n">
         <v>52</v>
@@ -3319,10 +3215,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A133" t="n">
+        <v>20230804</v>
       </c>
       <c r="B133" t="n">
         <v>53</v>
@@ -3342,10 +3236,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A134" t="n">
+        <v>20230804</v>
       </c>
       <c r="B134" t="n">
         <v>54</v>
@@ -3365,10 +3257,8 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A135" t="n">
+        <v>20230804</v>
       </c>
       <c r="B135" t="n">
         <v>55</v>
@@ -3388,10 +3278,8 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A136" t="n">
+        <v>20230804</v>
       </c>
       <c r="B136" t="n">
         <v>56</v>
@@ -3411,10 +3299,8 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A137" t="n">
+        <v>20230804</v>
       </c>
       <c r="B137" t="n">
         <v>57</v>
@@ -3434,10 +3320,8 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A138" t="n">
+        <v>20230804</v>
       </c>
       <c r="B138" t="n">
         <v>58</v>
@@ -3457,10 +3341,8 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A139" t="n">
+        <v>20230804</v>
       </c>
       <c r="B139" t="n">
         <v>59</v>
@@ -3480,10 +3362,8 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A140" t="n">
+        <v>20230804</v>
       </c>
       <c r="B140" t="n">
         <v>60</v>
@@ -3503,10 +3383,8 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A141" t="n">
+        <v>20230804</v>
       </c>
       <c r="B141" t="n">
         <v>61</v>
@@ -3526,10 +3404,8 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A142" t="n">
+        <v>20230804</v>
       </c>
       <c r="B142" t="n">
         <v>62</v>
@@ -3549,10 +3425,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A143" t="n">
+        <v>20230804</v>
       </c>
       <c r="B143" t="n">
         <v>63</v>
@@ -3572,10 +3446,8 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A144" t="n">
+        <v>20230804</v>
       </c>
       <c r="B144" t="n">
         <v>64</v>
@@ -3595,10 +3467,8 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A145" t="n">
+        <v>20230804</v>
       </c>
       <c r="B145" t="n">
         <v>65</v>
@@ -3618,10 +3488,8 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A146" t="n">
+        <v>20230804</v>
       </c>
       <c r="B146" t="n">
         <v>66</v>
@@ -3641,10 +3509,8 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A147" t="n">
+        <v>20230804</v>
       </c>
       <c r="B147" t="n">
         <v>67</v>
@@ -3664,10 +3530,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A148" t="n">
+        <v>20230804</v>
       </c>
       <c r="B148" t="n">
         <v>68</v>
@@ -3687,10 +3551,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A149" t="n">
+        <v>20230804</v>
       </c>
       <c r="B149" t="n">
         <v>69</v>
@@ -3710,10 +3572,8 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A150" t="n">
+        <v>20230804</v>
       </c>
       <c r="B150" t="n">
         <v>70</v>
@@ -3733,10 +3593,8 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A151" t="n">
+        <v>20230804</v>
       </c>
       <c r="B151" t="n">
         <v>71</v>
@@ -3756,10 +3614,8 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A152" t="n">
+        <v>20230804</v>
       </c>
       <c r="B152" t="n">
         <v>72</v>
@@ -3779,10 +3635,8 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A153" t="n">
+        <v>20230804</v>
       </c>
       <c r="B153" t="n">
         <v>73</v>
@@ -3802,10 +3656,8 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A154" t="n">
+        <v>20230804</v>
       </c>
       <c r="B154" t="n">
         <v>74</v>
@@ -3825,10 +3677,8 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A155" t="n">
+        <v>20230804</v>
       </c>
       <c r="B155" t="n">
         <v>75</v>
@@ -3848,10 +3698,8 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A156" t="n">
+        <v>20230804</v>
       </c>
       <c r="B156" t="n">
         <v>76</v>
@@ -3871,10 +3719,8 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A157" t="n">
+        <v>20230804</v>
       </c>
       <c r="B157" t="n">
         <v>77</v>
@@ -3894,10 +3740,8 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A158" t="n">
+        <v>20230804</v>
       </c>
       <c r="B158" t="n">
         <v>78</v>
@@ -3917,10 +3761,8 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>20230804</t>
-        </is>
+      <c r="A159" t="n">
+        <v>20230804</v>
       </c>
       <c r="B159" t="n">
         <v>79</v>
@@ -3936,6 +3778,1823 @@
       <c r="E159" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>2</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>3</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>4</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>5</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>6</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>7</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>8</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>9</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>10</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>11</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>12</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>13</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>14</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>15</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>16</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>17</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>18</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>19</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>20</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>21</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>22</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>23</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>24</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>25</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>26</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>27</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>0</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>28</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>29</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>30</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>31</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>32</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>33</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>34</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>35</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>36</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>37</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>38</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>39</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>40</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>41</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>42</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>43</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>44</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>45</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>46</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>47</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>48</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>49</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>50</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>51</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>52</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>53</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>54</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>55</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>56</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>57</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>58</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>59</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>60</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>61</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>62</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>63</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>64</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>65</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>66</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>67</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>68</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>69</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>70</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>71</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>72</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>73</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>74</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>75</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>76</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>77</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>-1.82</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>78</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>20230808</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>79</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E238"/>
+  <dimension ref="A1:E317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3782,10 +3782,8 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A160" t="n">
+        <v>20230808</v>
       </c>
       <c r="B160" t="n">
         <v>1</v>
@@ -3805,10 +3803,8 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A161" t="n">
+        <v>20230808</v>
       </c>
       <c r="B161" t="n">
         <v>2</v>
@@ -3828,10 +3824,8 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A162" t="n">
+        <v>20230808</v>
       </c>
       <c r="B162" t="n">
         <v>3</v>
@@ -3851,10 +3845,8 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A163" t="n">
+        <v>20230808</v>
       </c>
       <c r="B163" t="n">
         <v>4</v>
@@ -3874,10 +3866,8 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A164" t="n">
+        <v>20230808</v>
       </c>
       <c r="B164" t="n">
         <v>5</v>
@@ -3897,10 +3887,8 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A165" t="n">
+        <v>20230808</v>
       </c>
       <c r="B165" t="n">
         <v>6</v>
@@ -3920,10 +3908,8 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A166" t="n">
+        <v>20230808</v>
       </c>
       <c r="B166" t="n">
         <v>7</v>
@@ -3943,10 +3929,8 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A167" t="n">
+        <v>20230808</v>
       </c>
       <c r="B167" t="n">
         <v>8</v>
@@ -3966,10 +3950,8 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A168" t="n">
+        <v>20230808</v>
       </c>
       <c r="B168" t="n">
         <v>9</v>
@@ -3989,10 +3971,8 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A169" t="n">
+        <v>20230808</v>
       </c>
       <c r="B169" t="n">
         <v>10</v>
@@ -4012,10 +3992,8 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A170" t="n">
+        <v>20230808</v>
       </c>
       <c r="B170" t="n">
         <v>11</v>
@@ -4035,10 +4013,8 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A171" t="n">
+        <v>20230808</v>
       </c>
       <c r="B171" t="n">
         <v>12</v>
@@ -4058,10 +4034,8 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A172" t="n">
+        <v>20230808</v>
       </c>
       <c r="B172" t="n">
         <v>13</v>
@@ -4081,10 +4055,8 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A173" t="n">
+        <v>20230808</v>
       </c>
       <c r="B173" t="n">
         <v>14</v>
@@ -4104,10 +4076,8 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A174" t="n">
+        <v>20230808</v>
       </c>
       <c r="B174" t="n">
         <v>15</v>
@@ -4127,10 +4097,8 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A175" t="n">
+        <v>20230808</v>
       </c>
       <c r="B175" t="n">
         <v>16</v>
@@ -4150,10 +4118,8 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A176" t="n">
+        <v>20230808</v>
       </c>
       <c r="B176" t="n">
         <v>17</v>
@@ -4173,10 +4139,8 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A177" t="n">
+        <v>20230808</v>
       </c>
       <c r="B177" t="n">
         <v>18</v>
@@ -4196,10 +4160,8 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A178" t="n">
+        <v>20230808</v>
       </c>
       <c r="B178" t="n">
         <v>19</v>
@@ -4219,10 +4181,8 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A179" t="n">
+        <v>20230808</v>
       </c>
       <c r="B179" t="n">
         <v>20</v>
@@ -4242,10 +4202,8 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A180" t="n">
+        <v>20230808</v>
       </c>
       <c r="B180" t="n">
         <v>21</v>
@@ -4265,10 +4223,8 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A181" t="n">
+        <v>20230808</v>
       </c>
       <c r="B181" t="n">
         <v>22</v>
@@ -4288,10 +4244,8 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A182" t="n">
+        <v>20230808</v>
       </c>
       <c r="B182" t="n">
         <v>23</v>
@@ -4311,10 +4265,8 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A183" t="n">
+        <v>20230808</v>
       </c>
       <c r="B183" t="n">
         <v>24</v>
@@ -4334,10 +4286,8 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A184" t="n">
+        <v>20230808</v>
       </c>
       <c r="B184" t="n">
         <v>25</v>
@@ -4357,10 +4307,8 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A185" t="n">
+        <v>20230808</v>
       </c>
       <c r="B185" t="n">
         <v>26</v>
@@ -4380,10 +4328,8 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A186" t="n">
+        <v>20230808</v>
       </c>
       <c r="B186" t="n">
         <v>27</v>
@@ -4403,10 +4349,8 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A187" t="n">
+        <v>20230808</v>
       </c>
       <c r="B187" t="n">
         <v>28</v>
@@ -4426,10 +4370,8 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A188" t="n">
+        <v>20230808</v>
       </c>
       <c r="B188" t="n">
         <v>29</v>
@@ -4449,10 +4391,8 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A189" t="n">
+        <v>20230808</v>
       </c>
       <c r="B189" t="n">
         <v>30</v>
@@ -4472,10 +4412,8 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A190" t="n">
+        <v>20230808</v>
       </c>
       <c r="B190" t="n">
         <v>31</v>
@@ -4495,10 +4433,8 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A191" t="n">
+        <v>20230808</v>
       </c>
       <c r="B191" t="n">
         <v>32</v>
@@ -4518,10 +4454,8 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A192" t="n">
+        <v>20230808</v>
       </c>
       <c r="B192" t="n">
         <v>33</v>
@@ -4541,10 +4475,8 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A193" t="n">
+        <v>20230808</v>
       </c>
       <c r="B193" t="n">
         <v>34</v>
@@ -4564,10 +4496,8 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A194" t="n">
+        <v>20230808</v>
       </c>
       <c r="B194" t="n">
         <v>35</v>
@@ -4587,10 +4517,8 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A195" t="n">
+        <v>20230808</v>
       </c>
       <c r="B195" t="n">
         <v>36</v>
@@ -4610,10 +4538,8 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A196" t="n">
+        <v>20230808</v>
       </c>
       <c r="B196" t="n">
         <v>37</v>
@@ -4633,10 +4559,8 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A197" t="n">
+        <v>20230808</v>
       </c>
       <c r="B197" t="n">
         <v>38</v>
@@ -4656,10 +4580,8 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A198" t="n">
+        <v>20230808</v>
       </c>
       <c r="B198" t="n">
         <v>39</v>
@@ -4679,10 +4601,8 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A199" t="n">
+        <v>20230808</v>
       </c>
       <c r="B199" t="n">
         <v>40</v>
@@ -4702,10 +4622,8 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A200" t="n">
+        <v>20230808</v>
       </c>
       <c r="B200" t="n">
         <v>41</v>
@@ -4725,10 +4643,8 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A201" t="n">
+        <v>20230808</v>
       </c>
       <c r="B201" t="n">
         <v>42</v>
@@ -4748,10 +4664,8 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A202" t="n">
+        <v>20230808</v>
       </c>
       <c r="B202" t="n">
         <v>43</v>
@@ -4771,10 +4685,8 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A203" t="n">
+        <v>20230808</v>
       </c>
       <c r="B203" t="n">
         <v>44</v>
@@ -4794,10 +4706,8 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A204" t="n">
+        <v>20230808</v>
       </c>
       <c r="B204" t="n">
         <v>45</v>
@@ -4817,10 +4727,8 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A205" t="n">
+        <v>20230808</v>
       </c>
       <c r="B205" t="n">
         <v>46</v>
@@ -4840,10 +4748,8 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A206" t="n">
+        <v>20230808</v>
       </c>
       <c r="B206" t="n">
         <v>47</v>
@@ -4863,10 +4769,8 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A207" t="n">
+        <v>20230808</v>
       </c>
       <c r="B207" t="n">
         <v>48</v>
@@ -4886,10 +4790,8 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A208" t="n">
+        <v>20230808</v>
       </c>
       <c r="B208" t="n">
         <v>49</v>
@@ -4909,10 +4811,8 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A209" t="n">
+        <v>20230808</v>
       </c>
       <c r="B209" t="n">
         <v>50</v>
@@ -4932,10 +4832,8 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A210" t="n">
+        <v>20230808</v>
       </c>
       <c r="B210" t="n">
         <v>51</v>
@@ -4955,10 +4853,8 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A211" t="n">
+        <v>20230808</v>
       </c>
       <c r="B211" t="n">
         <v>52</v>
@@ -4978,10 +4874,8 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A212" t="n">
+        <v>20230808</v>
       </c>
       <c r="B212" t="n">
         <v>53</v>
@@ -5001,10 +4895,8 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A213" t="n">
+        <v>20230808</v>
       </c>
       <c r="B213" t="n">
         <v>54</v>
@@ -5024,10 +4916,8 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A214" t="n">
+        <v>20230808</v>
       </c>
       <c r="B214" t="n">
         <v>55</v>
@@ -5047,10 +4937,8 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A215" t="n">
+        <v>20230808</v>
       </c>
       <c r="B215" t="n">
         <v>56</v>
@@ -5070,10 +4958,8 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A216" t="n">
+        <v>20230808</v>
       </c>
       <c r="B216" t="n">
         <v>57</v>
@@ -5093,10 +4979,8 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A217" t="n">
+        <v>20230808</v>
       </c>
       <c r="B217" t="n">
         <v>58</v>
@@ -5116,10 +5000,8 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A218" t="n">
+        <v>20230808</v>
       </c>
       <c r="B218" t="n">
         <v>59</v>
@@ -5139,10 +5021,8 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A219" t="n">
+        <v>20230808</v>
       </c>
       <c r="B219" t="n">
         <v>60</v>
@@ -5162,10 +5042,8 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A220" t="n">
+        <v>20230808</v>
       </c>
       <c r="B220" t="n">
         <v>61</v>
@@ -5185,10 +5063,8 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A221" t="n">
+        <v>20230808</v>
       </c>
       <c r="B221" t="n">
         <v>62</v>
@@ -5208,10 +5084,8 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A222" t="n">
+        <v>20230808</v>
       </c>
       <c r="B222" t="n">
         <v>63</v>
@@ -5231,10 +5105,8 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A223" t="n">
+        <v>20230808</v>
       </c>
       <c r="B223" t="n">
         <v>64</v>
@@ -5254,10 +5126,8 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A224" t="n">
+        <v>20230808</v>
       </c>
       <c r="B224" t="n">
         <v>65</v>
@@ -5277,10 +5147,8 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A225" t="n">
+        <v>20230808</v>
       </c>
       <c r="B225" t="n">
         <v>66</v>
@@ -5300,10 +5168,8 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A226" t="n">
+        <v>20230808</v>
       </c>
       <c r="B226" t="n">
         <v>67</v>
@@ -5323,10 +5189,8 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A227" t="n">
+        <v>20230808</v>
       </c>
       <c r="B227" t="n">
         <v>68</v>
@@ -5346,10 +5210,8 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A228" t="n">
+        <v>20230808</v>
       </c>
       <c r="B228" t="n">
         <v>69</v>
@@ -5369,10 +5231,8 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A229" t="n">
+        <v>20230808</v>
       </c>
       <c r="B229" t="n">
         <v>70</v>
@@ -5392,10 +5252,8 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A230" t="n">
+        <v>20230808</v>
       </c>
       <c r="B230" t="n">
         <v>71</v>
@@ -5415,10 +5273,8 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A231" t="n">
+        <v>20230808</v>
       </c>
       <c r="B231" t="n">
         <v>72</v>
@@ -5438,10 +5294,8 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A232" t="n">
+        <v>20230808</v>
       </c>
       <c r="B232" t="n">
         <v>73</v>
@@ -5461,10 +5315,8 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A233" t="n">
+        <v>20230808</v>
       </c>
       <c r="B233" t="n">
         <v>74</v>
@@ -5484,10 +5336,8 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A234" t="n">
+        <v>20230808</v>
       </c>
       <c r="B234" t="n">
         <v>75</v>
@@ -5507,10 +5357,8 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A235" t="n">
+        <v>20230808</v>
       </c>
       <c r="B235" t="n">
         <v>76</v>
@@ -5530,10 +5378,8 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A236" t="n">
+        <v>20230808</v>
       </c>
       <c r="B236" t="n">
         <v>77</v>
@@ -5553,10 +5399,8 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A237" t="n">
+        <v>20230808</v>
       </c>
       <c r="B237" t="n">
         <v>78</v>
@@ -5576,10 +5420,8 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>20230808</t>
-        </is>
+      <c r="A238" t="n">
+        <v>20230808</v>
       </c>
       <c r="B238" t="n">
         <v>79</v>
@@ -5595,6 +5437,1823 @@
       <c r="E238" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>2</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>3</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>4</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>5</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>6</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>7</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>8</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>9</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>10</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>11</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>12</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>13</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>14</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>15</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>16</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>17</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>18</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>19</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>20</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>21</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>22</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>23</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>24</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>25</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>26</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>27</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>28</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>29</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>30</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>31</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>32</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>33</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>34</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>35</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>36</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>37</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>38</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>39</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>40</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>41</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>42</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>43</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>44</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>45</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>46</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>0</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>47</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>48</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>49</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>50</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>51</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>52</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>53</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>54</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>55</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>56</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>57</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>58</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>59</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>60</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>61</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>62</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>63</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>64</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>65</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>66</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>67</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>-0.79</v>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>68</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>69</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D307" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>70</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D308" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>71</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D309" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>72</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>73</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>74</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>75</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>76</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D314" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>77</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D315" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>78</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D316" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>20230809</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>79</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D317" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E317"/>
+  <dimension ref="A1:E396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5441,10 +5441,8 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A239" t="n">
+        <v>20230809</v>
       </c>
       <c r="B239" t="n">
         <v>1</v>
@@ -5464,10 +5462,8 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A240" t="n">
+        <v>20230809</v>
       </c>
       <c r="B240" t="n">
         <v>2</v>
@@ -5487,10 +5483,8 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A241" t="n">
+        <v>20230809</v>
       </c>
       <c r="B241" t="n">
         <v>3</v>
@@ -5510,10 +5504,8 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A242" t="n">
+        <v>20230809</v>
       </c>
       <c r="B242" t="n">
         <v>4</v>
@@ -5533,10 +5525,8 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A243" t="n">
+        <v>20230809</v>
       </c>
       <c r="B243" t="n">
         <v>5</v>
@@ -5556,10 +5546,8 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A244" t="n">
+        <v>20230809</v>
       </c>
       <c r="B244" t="n">
         <v>6</v>
@@ -5579,10 +5567,8 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A245" t="n">
+        <v>20230809</v>
       </c>
       <c r="B245" t="n">
         <v>7</v>
@@ -5602,10 +5588,8 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A246" t="n">
+        <v>20230809</v>
       </c>
       <c r="B246" t="n">
         <v>8</v>
@@ -5625,10 +5609,8 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A247" t="n">
+        <v>20230809</v>
       </c>
       <c r="B247" t="n">
         <v>9</v>
@@ -5648,10 +5630,8 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A248" t="n">
+        <v>20230809</v>
       </c>
       <c r="B248" t="n">
         <v>10</v>
@@ -5671,10 +5651,8 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A249" t="n">
+        <v>20230809</v>
       </c>
       <c r="B249" t="n">
         <v>11</v>
@@ -5694,10 +5672,8 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A250" t="n">
+        <v>20230809</v>
       </c>
       <c r="B250" t="n">
         <v>12</v>
@@ -5717,10 +5693,8 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A251" t="n">
+        <v>20230809</v>
       </c>
       <c r="B251" t="n">
         <v>13</v>
@@ -5740,10 +5714,8 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A252" t="n">
+        <v>20230809</v>
       </c>
       <c r="B252" t="n">
         <v>14</v>
@@ -5763,10 +5735,8 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A253" t="n">
+        <v>20230809</v>
       </c>
       <c r="B253" t="n">
         <v>15</v>
@@ -5786,10 +5756,8 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A254" t="n">
+        <v>20230809</v>
       </c>
       <c r="B254" t="n">
         <v>16</v>
@@ -5809,10 +5777,8 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A255" t="n">
+        <v>20230809</v>
       </c>
       <c r="B255" t="n">
         <v>17</v>
@@ -5832,10 +5798,8 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A256" t="n">
+        <v>20230809</v>
       </c>
       <c r="B256" t="n">
         <v>18</v>
@@ -5855,10 +5819,8 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A257" t="n">
+        <v>20230809</v>
       </c>
       <c r="B257" t="n">
         <v>19</v>
@@ -5878,10 +5840,8 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A258" t="n">
+        <v>20230809</v>
       </c>
       <c r="B258" t="n">
         <v>20</v>
@@ -5901,10 +5861,8 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A259" t="n">
+        <v>20230809</v>
       </c>
       <c r="B259" t="n">
         <v>21</v>
@@ -5924,10 +5882,8 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A260" t="n">
+        <v>20230809</v>
       </c>
       <c r="B260" t="n">
         <v>22</v>
@@ -5947,10 +5903,8 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A261" t="n">
+        <v>20230809</v>
       </c>
       <c r="B261" t="n">
         <v>23</v>
@@ -5970,10 +5924,8 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A262" t="n">
+        <v>20230809</v>
       </c>
       <c r="B262" t="n">
         <v>24</v>
@@ -5993,10 +5945,8 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A263" t="n">
+        <v>20230809</v>
       </c>
       <c r="B263" t="n">
         <v>25</v>
@@ -6016,10 +5966,8 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A264" t="n">
+        <v>20230809</v>
       </c>
       <c r="B264" t="n">
         <v>26</v>
@@ -6039,10 +5987,8 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A265" t="n">
+        <v>20230809</v>
       </c>
       <c r="B265" t="n">
         <v>27</v>
@@ -6062,10 +6008,8 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A266" t="n">
+        <v>20230809</v>
       </c>
       <c r="B266" t="n">
         <v>28</v>
@@ -6085,10 +6029,8 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A267" t="n">
+        <v>20230809</v>
       </c>
       <c r="B267" t="n">
         <v>29</v>
@@ -6108,10 +6050,8 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A268" t="n">
+        <v>20230809</v>
       </c>
       <c r="B268" t="n">
         <v>30</v>
@@ -6131,10 +6071,8 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A269" t="n">
+        <v>20230809</v>
       </c>
       <c r="B269" t="n">
         <v>31</v>
@@ -6154,10 +6092,8 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A270" t="n">
+        <v>20230809</v>
       </c>
       <c r="B270" t="n">
         <v>32</v>
@@ -6177,10 +6113,8 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A271" t="n">
+        <v>20230809</v>
       </c>
       <c r="B271" t="n">
         <v>33</v>
@@ -6200,10 +6134,8 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A272" t="n">
+        <v>20230809</v>
       </c>
       <c r="B272" t="n">
         <v>34</v>
@@ -6223,10 +6155,8 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A273" t="n">
+        <v>20230809</v>
       </c>
       <c r="B273" t="n">
         <v>35</v>
@@ -6246,10 +6176,8 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A274" t="n">
+        <v>20230809</v>
       </c>
       <c r="B274" t="n">
         <v>36</v>
@@ -6269,10 +6197,8 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A275" t="n">
+        <v>20230809</v>
       </c>
       <c r="B275" t="n">
         <v>37</v>
@@ -6292,10 +6218,8 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A276" t="n">
+        <v>20230809</v>
       </c>
       <c r="B276" t="n">
         <v>38</v>
@@ -6315,10 +6239,8 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A277" t="n">
+        <v>20230809</v>
       </c>
       <c r="B277" t="n">
         <v>39</v>
@@ -6338,10 +6260,8 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A278" t="n">
+        <v>20230809</v>
       </c>
       <c r="B278" t="n">
         <v>40</v>
@@ -6361,10 +6281,8 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A279" t="n">
+        <v>20230809</v>
       </c>
       <c r="B279" t="n">
         <v>41</v>
@@ -6384,10 +6302,8 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A280" t="n">
+        <v>20230809</v>
       </c>
       <c r="B280" t="n">
         <v>42</v>
@@ -6407,10 +6323,8 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A281" t="n">
+        <v>20230809</v>
       </c>
       <c r="B281" t="n">
         <v>43</v>
@@ -6430,10 +6344,8 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A282" t="n">
+        <v>20230809</v>
       </c>
       <c r="B282" t="n">
         <v>44</v>
@@ -6453,10 +6365,8 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A283" t="n">
+        <v>20230809</v>
       </c>
       <c r="B283" t="n">
         <v>45</v>
@@ -6476,10 +6386,8 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A284" t="n">
+        <v>20230809</v>
       </c>
       <c r="B284" t="n">
         <v>46</v>
@@ -6499,10 +6407,8 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A285" t="n">
+        <v>20230809</v>
       </c>
       <c r="B285" t="n">
         <v>47</v>
@@ -6522,10 +6428,8 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A286" t="n">
+        <v>20230809</v>
       </c>
       <c r="B286" t="n">
         <v>48</v>
@@ -6545,10 +6449,8 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A287" t="n">
+        <v>20230809</v>
       </c>
       <c r="B287" t="n">
         <v>49</v>
@@ -6568,10 +6470,8 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A288" t="n">
+        <v>20230809</v>
       </c>
       <c r="B288" t="n">
         <v>50</v>
@@ -6591,10 +6491,8 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A289" t="n">
+        <v>20230809</v>
       </c>
       <c r="B289" t="n">
         <v>51</v>
@@ -6614,10 +6512,8 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A290" t="n">
+        <v>20230809</v>
       </c>
       <c r="B290" t="n">
         <v>52</v>
@@ -6637,10 +6533,8 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A291" t="n">
+        <v>20230809</v>
       </c>
       <c r="B291" t="n">
         <v>53</v>
@@ -6660,10 +6554,8 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A292" t="n">
+        <v>20230809</v>
       </c>
       <c r="B292" t="n">
         <v>54</v>
@@ -6683,10 +6575,8 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A293" t="n">
+        <v>20230809</v>
       </c>
       <c r="B293" t="n">
         <v>55</v>
@@ -6706,10 +6596,8 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A294" t="n">
+        <v>20230809</v>
       </c>
       <c r="B294" t="n">
         <v>56</v>
@@ -6729,10 +6617,8 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A295" t="n">
+        <v>20230809</v>
       </c>
       <c r="B295" t="n">
         <v>57</v>
@@ -6752,10 +6638,8 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A296" t="n">
+        <v>20230809</v>
       </c>
       <c r="B296" t="n">
         <v>58</v>
@@ -6775,10 +6659,8 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A297" t="n">
+        <v>20230809</v>
       </c>
       <c r="B297" t="n">
         <v>59</v>
@@ -6798,10 +6680,8 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A298" t="n">
+        <v>20230809</v>
       </c>
       <c r="B298" t="n">
         <v>60</v>
@@ -6821,10 +6701,8 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A299" t="n">
+        <v>20230809</v>
       </c>
       <c r="B299" t="n">
         <v>61</v>
@@ -6844,10 +6722,8 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A300" t="n">
+        <v>20230809</v>
       </c>
       <c r="B300" t="n">
         <v>62</v>
@@ -6867,10 +6743,8 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A301" t="n">
+        <v>20230809</v>
       </c>
       <c r="B301" t="n">
         <v>63</v>
@@ -6890,10 +6764,8 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A302" t="n">
+        <v>20230809</v>
       </c>
       <c r="B302" t="n">
         <v>64</v>
@@ -6913,10 +6785,8 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A303" t="n">
+        <v>20230809</v>
       </c>
       <c r="B303" t="n">
         <v>65</v>
@@ -6936,10 +6806,8 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A304" t="n">
+        <v>20230809</v>
       </c>
       <c r="B304" t="n">
         <v>66</v>
@@ -6959,10 +6827,8 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A305" t="n">
+        <v>20230809</v>
       </c>
       <c r="B305" t="n">
         <v>67</v>
@@ -6982,10 +6848,8 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A306" t="n">
+        <v>20230809</v>
       </c>
       <c r="B306" t="n">
         <v>68</v>
@@ -7005,10 +6869,8 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A307" t="n">
+        <v>20230809</v>
       </c>
       <c r="B307" t="n">
         <v>69</v>
@@ -7028,10 +6890,8 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A308" t="n">
+        <v>20230809</v>
       </c>
       <c r="B308" t="n">
         <v>70</v>
@@ -7051,10 +6911,8 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A309" t="n">
+        <v>20230809</v>
       </c>
       <c r="B309" t="n">
         <v>71</v>
@@ -7074,10 +6932,8 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A310" t="n">
+        <v>20230809</v>
       </c>
       <c r="B310" t="n">
         <v>72</v>
@@ -7097,10 +6953,8 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A311" t="n">
+        <v>20230809</v>
       </c>
       <c r="B311" t="n">
         <v>73</v>
@@ -7120,10 +6974,8 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A312" t="n">
+        <v>20230809</v>
       </c>
       <c r="B312" t="n">
         <v>74</v>
@@ -7143,10 +6995,8 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A313" t="n">
+        <v>20230809</v>
       </c>
       <c r="B313" t="n">
         <v>75</v>
@@ -7166,10 +7016,8 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A314" t="n">
+        <v>20230809</v>
       </c>
       <c r="B314" t="n">
         <v>76</v>
@@ -7189,10 +7037,8 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A315" t="n">
+        <v>20230809</v>
       </c>
       <c r="B315" t="n">
         <v>77</v>
@@ -7212,10 +7058,8 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A316" t="n">
+        <v>20230809</v>
       </c>
       <c r="B316" t="n">
         <v>78</v>
@@ -7235,10 +7079,8 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>20230809</t>
-        </is>
+      <c r="A317" t="n">
+        <v>20230809</v>
       </c>
       <c r="B317" t="n">
         <v>79</v>
@@ -7254,6 +7096,1823 @@
       <c r="E317" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D318" t="n">
+        <v>10.47</v>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>2</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D319" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>3</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D320" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>4</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D321" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>5</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D322" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>6</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D323" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>7</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D324" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>8</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D325" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>9</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D326" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>10</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D327" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>11</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D328" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>12</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D329" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>13</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D330" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>14</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D331" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>15</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D332" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>16</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D333" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>17</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D334" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>18</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D335" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>19</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D336" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>20</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D337" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>21</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D338" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>22</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D339" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>23</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D340" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>24</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D341" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>25</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D342" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>26</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D343" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>27</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D344" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>28</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D345" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>29</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D346" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>30</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>31</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D348" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>32</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D349" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>33</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D350" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>34</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D351" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>35</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D352" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>36</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D353" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>37</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D354" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>38</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D355" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>39</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D356" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B357" t="n">
+        <v>40</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D357" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>41</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>0</v>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>42</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D359" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>43</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D360" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>44</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D361" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>45</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D362" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>46</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D363" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>47</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D364" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>48</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>49</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D366" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>50</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D367" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>51</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D368" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>52</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D369" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>53</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D370" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>54</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D371" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>55</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D372" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>56</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D373" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>57</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D374" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>58</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D375" t="n">
+        <v>-0.91</v>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>59</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D376" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>60</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D377" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>61</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D378" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>62</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D379" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>63</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>-1.13</v>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>64</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B382" t="n">
+        <v>65</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="E382" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B383" t="n">
+        <v>66</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B384" t="n">
+        <v>67</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B385" t="n">
+        <v>68</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>-1.31</v>
+      </c>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B386" t="n">
+        <v>69</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D386" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B387" t="n">
+        <v>70</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D387" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B388" t="n">
+        <v>71</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D388" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B389" t="n">
+        <v>72</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B390" t="n">
+        <v>73</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D390" t="n">
+        <v>-1.48</v>
+      </c>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B391" t="n">
+        <v>74</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D391" t="n">
+        <v>-1.56</v>
+      </c>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B392" t="n">
+        <v>75</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D392" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>76</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D393" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>77</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D394" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>78</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D395" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>20230810</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>79</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E396"/>
+  <dimension ref="A1:E475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -7100,10 +7100,8 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A318" t="n">
+        <v>20230810</v>
       </c>
       <c r="B318" t="n">
         <v>1</v>
@@ -7123,10 +7121,8 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A319" t="n">
+        <v>20230810</v>
       </c>
       <c r="B319" t="n">
         <v>2</v>
@@ -7146,10 +7142,8 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A320" t="n">
+        <v>20230810</v>
       </c>
       <c r="B320" t="n">
         <v>3</v>
@@ -7169,10 +7163,8 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A321" t="n">
+        <v>20230810</v>
       </c>
       <c r="B321" t="n">
         <v>4</v>
@@ -7192,10 +7184,8 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A322" t="n">
+        <v>20230810</v>
       </c>
       <c r="B322" t="n">
         <v>5</v>
@@ -7215,10 +7205,8 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A323" t="n">
+        <v>20230810</v>
       </c>
       <c r="B323" t="n">
         <v>6</v>
@@ -7238,10 +7226,8 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A324" t="n">
+        <v>20230810</v>
       </c>
       <c r="B324" t="n">
         <v>7</v>
@@ -7261,10 +7247,8 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A325" t="n">
+        <v>20230810</v>
       </c>
       <c r="B325" t="n">
         <v>8</v>
@@ -7284,10 +7268,8 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A326" t="n">
+        <v>20230810</v>
       </c>
       <c r="B326" t="n">
         <v>9</v>
@@ -7307,10 +7289,8 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A327" t="n">
+        <v>20230810</v>
       </c>
       <c r="B327" t="n">
         <v>10</v>
@@ -7330,10 +7310,8 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A328" t="n">
+        <v>20230810</v>
       </c>
       <c r="B328" t="n">
         <v>11</v>
@@ -7353,10 +7331,8 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A329" t="n">
+        <v>20230810</v>
       </c>
       <c r="B329" t="n">
         <v>12</v>
@@ -7376,10 +7352,8 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A330" t="n">
+        <v>20230810</v>
       </c>
       <c r="B330" t="n">
         <v>13</v>
@@ -7399,10 +7373,8 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A331" t="n">
+        <v>20230810</v>
       </c>
       <c r="B331" t="n">
         <v>14</v>
@@ -7422,10 +7394,8 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A332" t="n">
+        <v>20230810</v>
       </c>
       <c r="B332" t="n">
         <v>15</v>
@@ -7445,10 +7415,8 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A333" t="n">
+        <v>20230810</v>
       </c>
       <c r="B333" t="n">
         <v>16</v>
@@ -7468,10 +7436,8 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A334" t="n">
+        <v>20230810</v>
       </c>
       <c r="B334" t="n">
         <v>17</v>
@@ -7491,10 +7457,8 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A335" t="n">
+        <v>20230810</v>
       </c>
       <c r="B335" t="n">
         <v>18</v>
@@ -7514,10 +7478,8 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A336" t="n">
+        <v>20230810</v>
       </c>
       <c r="B336" t="n">
         <v>19</v>
@@ -7537,10 +7499,8 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A337" t="n">
+        <v>20230810</v>
       </c>
       <c r="B337" t="n">
         <v>20</v>
@@ -7560,10 +7520,8 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A338" t="n">
+        <v>20230810</v>
       </c>
       <c r="B338" t="n">
         <v>21</v>
@@ -7583,10 +7541,8 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A339" t="n">
+        <v>20230810</v>
       </c>
       <c r="B339" t="n">
         <v>22</v>
@@ -7606,10 +7562,8 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A340" t="n">
+        <v>20230810</v>
       </c>
       <c r="B340" t="n">
         <v>23</v>
@@ -7629,10 +7583,8 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A341" t="n">
+        <v>20230810</v>
       </c>
       <c r="B341" t="n">
         <v>24</v>
@@ -7652,10 +7604,8 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A342" t="n">
+        <v>20230810</v>
       </c>
       <c r="B342" t="n">
         <v>25</v>
@@ -7675,10 +7625,8 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A343" t="n">
+        <v>20230810</v>
       </c>
       <c r="B343" t="n">
         <v>26</v>
@@ -7698,10 +7646,8 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A344" t="n">
+        <v>20230810</v>
       </c>
       <c r="B344" t="n">
         <v>27</v>
@@ -7721,10 +7667,8 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A345" t="n">
+        <v>20230810</v>
       </c>
       <c r="B345" t="n">
         <v>28</v>
@@ -7744,10 +7688,8 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A346" t="n">
+        <v>20230810</v>
       </c>
       <c r="B346" t="n">
         <v>29</v>
@@ -7767,10 +7709,8 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A347" t="n">
+        <v>20230810</v>
       </c>
       <c r="B347" t="n">
         <v>30</v>
@@ -7790,10 +7730,8 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A348" t="n">
+        <v>20230810</v>
       </c>
       <c r="B348" t="n">
         <v>31</v>
@@ -7813,10 +7751,8 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A349" t="n">
+        <v>20230810</v>
       </c>
       <c r="B349" t="n">
         <v>32</v>
@@ -7836,10 +7772,8 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A350" t="n">
+        <v>20230810</v>
       </c>
       <c r="B350" t="n">
         <v>33</v>
@@ -7859,10 +7793,8 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A351" t="n">
+        <v>20230810</v>
       </c>
       <c r="B351" t="n">
         <v>34</v>
@@ -7882,10 +7814,8 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A352" t="n">
+        <v>20230810</v>
       </c>
       <c r="B352" t="n">
         <v>35</v>
@@ -7905,10 +7835,8 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A353" t="n">
+        <v>20230810</v>
       </c>
       <c r="B353" t="n">
         <v>36</v>
@@ -7928,10 +7856,8 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A354" t="n">
+        <v>20230810</v>
       </c>
       <c r="B354" t="n">
         <v>37</v>
@@ -7951,10 +7877,8 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A355" t="n">
+        <v>20230810</v>
       </c>
       <c r="B355" t="n">
         <v>38</v>
@@ -7974,10 +7898,8 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A356" t="n">
+        <v>20230810</v>
       </c>
       <c r="B356" t="n">
         <v>39</v>
@@ -7997,10 +7919,8 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A357" t="n">
+        <v>20230810</v>
       </c>
       <c r="B357" t="n">
         <v>40</v>
@@ -8020,10 +7940,8 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A358" t="n">
+        <v>20230810</v>
       </c>
       <c r="B358" t="n">
         <v>41</v>
@@ -8043,10 +7961,8 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A359" t="n">
+        <v>20230810</v>
       </c>
       <c r="B359" t="n">
         <v>42</v>
@@ -8066,10 +7982,8 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A360" t="n">
+        <v>20230810</v>
       </c>
       <c r="B360" t="n">
         <v>43</v>
@@ -8089,10 +8003,8 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A361" t="n">
+        <v>20230810</v>
       </c>
       <c r="B361" t="n">
         <v>44</v>
@@ -8112,10 +8024,8 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A362" t="n">
+        <v>20230810</v>
       </c>
       <c r="B362" t="n">
         <v>45</v>
@@ -8135,10 +8045,8 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A363" t="n">
+        <v>20230810</v>
       </c>
       <c r="B363" t="n">
         <v>46</v>
@@ -8158,10 +8066,8 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A364" t="n">
+        <v>20230810</v>
       </c>
       <c r="B364" t="n">
         <v>47</v>
@@ -8181,10 +8087,8 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A365" t="n">
+        <v>20230810</v>
       </c>
       <c r="B365" t="n">
         <v>48</v>
@@ -8204,10 +8108,8 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A366" t="n">
+        <v>20230810</v>
       </c>
       <c r="B366" t="n">
         <v>49</v>
@@ -8227,10 +8129,8 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A367" t="n">
+        <v>20230810</v>
       </c>
       <c r="B367" t="n">
         <v>50</v>
@@ -8250,10 +8150,8 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A368" t="n">
+        <v>20230810</v>
       </c>
       <c r="B368" t="n">
         <v>51</v>
@@ -8273,10 +8171,8 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A369" t="n">
+        <v>20230810</v>
       </c>
       <c r="B369" t="n">
         <v>52</v>
@@ -8296,10 +8192,8 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A370" t="n">
+        <v>20230810</v>
       </c>
       <c r="B370" t="n">
         <v>53</v>
@@ -8319,10 +8213,8 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A371" t="n">
+        <v>20230810</v>
       </c>
       <c r="B371" t="n">
         <v>54</v>
@@ -8342,10 +8234,8 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A372" t="n">
+        <v>20230810</v>
       </c>
       <c r="B372" t="n">
         <v>55</v>
@@ -8365,10 +8255,8 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A373" t="n">
+        <v>20230810</v>
       </c>
       <c r="B373" t="n">
         <v>56</v>
@@ -8388,10 +8276,8 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A374" t="n">
+        <v>20230810</v>
       </c>
       <c r="B374" t="n">
         <v>57</v>
@@ -8411,10 +8297,8 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A375" t="n">
+        <v>20230810</v>
       </c>
       <c r="B375" t="n">
         <v>58</v>
@@ -8434,10 +8318,8 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A376" t="n">
+        <v>20230810</v>
       </c>
       <c r="B376" t="n">
         <v>59</v>
@@ -8457,10 +8339,8 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A377" t="n">
+        <v>20230810</v>
       </c>
       <c r="B377" t="n">
         <v>60</v>
@@ -8480,10 +8360,8 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A378" t="n">
+        <v>20230810</v>
       </c>
       <c r="B378" t="n">
         <v>61</v>
@@ -8503,10 +8381,8 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A379" t="n">
+        <v>20230810</v>
       </c>
       <c r="B379" t="n">
         <v>62</v>
@@ -8526,10 +8402,8 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A380" t="n">
+        <v>20230810</v>
       </c>
       <c r="B380" t="n">
         <v>63</v>
@@ -8549,10 +8423,8 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A381" t="n">
+        <v>20230810</v>
       </c>
       <c r="B381" t="n">
         <v>64</v>
@@ -8572,10 +8444,8 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A382" t="n">
+        <v>20230810</v>
       </c>
       <c r="B382" t="n">
         <v>65</v>
@@ -8595,10 +8465,8 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A383" t="n">
+        <v>20230810</v>
       </c>
       <c r="B383" t="n">
         <v>66</v>
@@ -8618,10 +8486,8 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A384" t="n">
+        <v>20230810</v>
       </c>
       <c r="B384" t="n">
         <v>67</v>
@@ -8641,10 +8507,8 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A385" t="n">
+        <v>20230810</v>
       </c>
       <c r="B385" t="n">
         <v>68</v>
@@ -8664,10 +8528,8 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A386" t="n">
+        <v>20230810</v>
       </c>
       <c r="B386" t="n">
         <v>69</v>
@@ -8687,10 +8549,8 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A387" t="n">
+        <v>20230810</v>
       </c>
       <c r="B387" t="n">
         <v>70</v>
@@ -8710,10 +8570,8 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A388" t="n">
+        <v>20230810</v>
       </c>
       <c r="B388" t="n">
         <v>71</v>
@@ -8733,10 +8591,8 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A389" t="n">
+        <v>20230810</v>
       </c>
       <c r="B389" t="n">
         <v>72</v>
@@ -8756,10 +8612,8 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A390" t="n">
+        <v>20230810</v>
       </c>
       <c r="B390" t="n">
         <v>73</v>
@@ -8779,10 +8633,8 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A391" t="n">
+        <v>20230810</v>
       </c>
       <c r="B391" t="n">
         <v>74</v>
@@ -8802,10 +8654,8 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A392" t="n">
+        <v>20230810</v>
       </c>
       <c r="B392" t="n">
         <v>75</v>
@@ -8825,10 +8675,8 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A393" t="n">
+        <v>20230810</v>
       </c>
       <c r="B393" t="n">
         <v>76</v>
@@ -8848,10 +8696,8 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A394" t="n">
+        <v>20230810</v>
       </c>
       <c r="B394" t="n">
         <v>77</v>
@@ -8871,10 +8717,8 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A395" t="n">
+        <v>20230810</v>
       </c>
       <c r="B395" t="n">
         <v>78</v>
@@ -8894,10 +8738,8 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>20230810</t>
-        </is>
+      <c r="A396" t="n">
+        <v>20230810</v>
       </c>
       <c r="B396" t="n">
         <v>79</v>
@@ -8913,6 +8755,1823 @@
       <c r="E396" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D397" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>2</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D398" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>3</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D399" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>4</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>5</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D401" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>6</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D402" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>7</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D403" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>8</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B405" t="n">
+        <v>9</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D405" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B406" t="n">
+        <v>10</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D406" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B407" t="n">
+        <v>11</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D407" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B408" t="n">
+        <v>12</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D408" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B409" t="n">
+        <v>13</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D409" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B410" t="n">
+        <v>14</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D410" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>15</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D411" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>16</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D412" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>17</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D413" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>18</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D414" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>19</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D415" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>20</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D416" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="E416" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>21</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D417" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E417" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>22</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D418" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>23</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D419" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E419" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>24</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D420" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E420" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>25</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D421" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E421" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>26</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D422" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E422" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B423" t="n">
+        <v>27</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D423" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E423" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B424" t="n">
+        <v>28</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D424" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E424" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B425" t="n">
+        <v>29</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D425" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E425" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B426" t="n">
+        <v>30</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D426" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E426" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B427" t="n">
+        <v>31</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D427" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B428" t="n">
+        <v>32</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D428" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E428" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B429" t="n">
+        <v>33</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D429" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E429" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B430" t="n">
+        <v>34</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D430" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E430" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B431" t="n">
+        <v>35</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D431" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E431" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B432" t="n">
+        <v>36</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D432" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E432" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B433" t="n">
+        <v>37</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D433" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B434" t="n">
+        <v>38</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D434" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E434" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B435" t="n">
+        <v>39</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D435" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E435" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>40</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D436" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E436" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>41</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D437" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E437" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>42</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D438" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E438" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>43</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D439" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E439" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>44</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D440" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E440" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>45</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D441" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E441" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>46</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D442" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E442" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>47</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D443" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>48</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D444" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E444" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>49</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D445" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E445" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>50</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D446" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E446" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>51</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D447" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E447" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>52</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D448" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E448" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>53</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D449" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>54</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D450" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>55</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D451" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E451" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>56</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D452" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>57</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D453" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>58</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D454" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>59</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D455" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E455" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>60</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D456" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E456" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>61</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D457" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>62</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D458" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E458" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>63</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D459" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>64</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D460" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>65</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D461" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>66</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D462" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>67</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D463" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>68</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D464" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>69</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D465" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>70</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D466" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>71</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D467" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>72</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D468" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="E468" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>73</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D469" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="E469" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>74</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D470" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="E470" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>75</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D471" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E471" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>76</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D472" t="n">
+        <v>-2.19</v>
+      </c>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>77</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D473" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="E473" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>78</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D474" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="E474" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>20230811</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>79</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D475" t="n">
+        <v>-3.34</v>
+      </c>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E475"/>
+  <dimension ref="A1:E554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -8759,10 +8759,8 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A397" t="n">
+        <v>20230811</v>
       </c>
       <c r="B397" t="n">
         <v>1</v>
@@ -8782,10 +8780,8 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A398" t="n">
+        <v>20230811</v>
       </c>
       <c r="B398" t="n">
         <v>2</v>
@@ -8805,10 +8801,8 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A399" t="n">
+        <v>20230811</v>
       </c>
       <c r="B399" t="n">
         <v>3</v>
@@ -8828,10 +8822,8 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A400" t="n">
+        <v>20230811</v>
       </c>
       <c r="B400" t="n">
         <v>4</v>
@@ -8851,10 +8843,8 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A401" t="n">
+        <v>20230811</v>
       </c>
       <c r="B401" t="n">
         <v>5</v>
@@ -8874,10 +8864,8 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A402" t="n">
+        <v>20230811</v>
       </c>
       <c r="B402" t="n">
         <v>6</v>
@@ -8897,10 +8885,8 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A403" t="n">
+        <v>20230811</v>
       </c>
       <c r="B403" t="n">
         <v>7</v>
@@ -8920,10 +8906,8 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A404" t="n">
+        <v>20230811</v>
       </c>
       <c r="B404" t="n">
         <v>8</v>
@@ -8943,10 +8927,8 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A405" t="n">
+        <v>20230811</v>
       </c>
       <c r="B405" t="n">
         <v>9</v>
@@ -8966,10 +8948,8 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A406" t="n">
+        <v>20230811</v>
       </c>
       <c r="B406" t="n">
         <v>10</v>
@@ -8989,10 +8969,8 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A407" t="n">
+        <v>20230811</v>
       </c>
       <c r="B407" t="n">
         <v>11</v>
@@ -9012,10 +8990,8 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A408" t="n">
+        <v>20230811</v>
       </c>
       <c r="B408" t="n">
         <v>12</v>
@@ -9035,10 +9011,8 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A409" t="n">
+        <v>20230811</v>
       </c>
       <c r="B409" t="n">
         <v>13</v>
@@ -9058,10 +9032,8 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A410" t="n">
+        <v>20230811</v>
       </c>
       <c r="B410" t="n">
         <v>14</v>
@@ -9081,10 +9053,8 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A411" t="n">
+        <v>20230811</v>
       </c>
       <c r="B411" t="n">
         <v>15</v>
@@ -9104,10 +9074,8 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A412" t="n">
+        <v>20230811</v>
       </c>
       <c r="B412" t="n">
         <v>16</v>
@@ -9127,10 +9095,8 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A413" t="n">
+        <v>20230811</v>
       </c>
       <c r="B413" t="n">
         <v>17</v>
@@ -9150,10 +9116,8 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A414" t="n">
+        <v>20230811</v>
       </c>
       <c r="B414" t="n">
         <v>18</v>
@@ -9173,10 +9137,8 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A415" t="n">
+        <v>20230811</v>
       </c>
       <c r="B415" t="n">
         <v>19</v>
@@ -9196,10 +9158,8 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A416" t="n">
+        <v>20230811</v>
       </c>
       <c r="B416" t="n">
         <v>20</v>
@@ -9219,10 +9179,8 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A417" t="n">
+        <v>20230811</v>
       </c>
       <c r="B417" t="n">
         <v>21</v>
@@ -9242,10 +9200,8 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A418" t="n">
+        <v>20230811</v>
       </c>
       <c r="B418" t="n">
         <v>22</v>
@@ -9265,10 +9221,8 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A419" t="n">
+        <v>20230811</v>
       </c>
       <c r="B419" t="n">
         <v>23</v>
@@ -9288,10 +9242,8 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A420" t="n">
+        <v>20230811</v>
       </c>
       <c r="B420" t="n">
         <v>24</v>
@@ -9311,10 +9263,8 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A421" t="n">
+        <v>20230811</v>
       </c>
       <c r="B421" t="n">
         <v>25</v>
@@ -9334,10 +9284,8 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A422" t="n">
+        <v>20230811</v>
       </c>
       <c r="B422" t="n">
         <v>26</v>
@@ -9357,10 +9305,8 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A423" t="n">
+        <v>20230811</v>
       </c>
       <c r="B423" t="n">
         <v>27</v>
@@ -9380,10 +9326,8 @@
       </c>
     </row>
     <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A424" t="n">
+        <v>20230811</v>
       </c>
       <c r="B424" t="n">
         <v>28</v>
@@ -9403,10 +9347,8 @@
       </c>
     </row>
     <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A425" t="n">
+        <v>20230811</v>
       </c>
       <c r="B425" t="n">
         <v>29</v>
@@ -9426,10 +9368,8 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A426" t="n">
+        <v>20230811</v>
       </c>
       <c r="B426" t="n">
         <v>30</v>
@@ -9449,10 +9389,8 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A427" t="n">
+        <v>20230811</v>
       </c>
       <c r="B427" t="n">
         <v>31</v>
@@ -9472,10 +9410,8 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A428" t="n">
+        <v>20230811</v>
       </c>
       <c r="B428" t="n">
         <v>32</v>
@@ -9495,10 +9431,8 @@
       </c>
     </row>
     <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A429" t="n">
+        <v>20230811</v>
       </c>
       <c r="B429" t="n">
         <v>33</v>
@@ -9518,10 +9452,8 @@
       </c>
     </row>
     <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A430" t="n">
+        <v>20230811</v>
       </c>
       <c r="B430" t="n">
         <v>34</v>
@@ -9541,10 +9473,8 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A431" t="n">
+        <v>20230811</v>
       </c>
       <c r="B431" t="n">
         <v>35</v>
@@ -9564,10 +9494,8 @@
       </c>
     </row>
     <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A432" t="n">
+        <v>20230811</v>
       </c>
       <c r="B432" t="n">
         <v>36</v>
@@ -9587,10 +9515,8 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A433" t="n">
+        <v>20230811</v>
       </c>
       <c r="B433" t="n">
         <v>37</v>
@@ -9610,10 +9536,8 @@
       </c>
     </row>
     <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A434" t="n">
+        <v>20230811</v>
       </c>
       <c r="B434" t="n">
         <v>38</v>
@@ -9633,10 +9557,8 @@
       </c>
     </row>
     <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A435" t="n">
+        <v>20230811</v>
       </c>
       <c r="B435" t="n">
         <v>39</v>
@@ -9656,10 +9578,8 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A436" t="n">
+        <v>20230811</v>
       </c>
       <c r="B436" t="n">
         <v>40</v>
@@ -9679,10 +9599,8 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A437" t="n">
+        <v>20230811</v>
       </c>
       <c r="B437" t="n">
         <v>41</v>
@@ -9702,10 +9620,8 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A438" t="n">
+        <v>20230811</v>
       </c>
       <c r="B438" t="n">
         <v>42</v>
@@ -9725,10 +9641,8 @@
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A439" t="n">
+        <v>20230811</v>
       </c>
       <c r="B439" t="n">
         <v>43</v>
@@ -9748,10 +9662,8 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A440" t="n">
+        <v>20230811</v>
       </c>
       <c r="B440" t="n">
         <v>44</v>
@@ -9771,10 +9683,8 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A441" t="n">
+        <v>20230811</v>
       </c>
       <c r="B441" t="n">
         <v>45</v>
@@ -9794,10 +9704,8 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A442" t="n">
+        <v>20230811</v>
       </c>
       <c r="B442" t="n">
         <v>46</v>
@@ -9817,10 +9725,8 @@
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A443" t="n">
+        <v>20230811</v>
       </c>
       <c r="B443" t="n">
         <v>47</v>
@@ -9840,10 +9746,8 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A444" t="n">
+        <v>20230811</v>
       </c>
       <c r="B444" t="n">
         <v>48</v>
@@ -9863,10 +9767,8 @@
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A445" t="n">
+        <v>20230811</v>
       </c>
       <c r="B445" t="n">
         <v>49</v>
@@ -9886,10 +9788,8 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A446" t="n">
+        <v>20230811</v>
       </c>
       <c r="B446" t="n">
         <v>50</v>
@@ -9909,10 +9809,8 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A447" t="n">
+        <v>20230811</v>
       </c>
       <c r="B447" t="n">
         <v>51</v>
@@ -9932,10 +9830,8 @@
       </c>
     </row>
     <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A448" t="n">
+        <v>20230811</v>
       </c>
       <c r="B448" t="n">
         <v>52</v>
@@ -9955,10 +9851,8 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A449" t="n">
+        <v>20230811</v>
       </c>
       <c r="B449" t="n">
         <v>53</v>
@@ -9978,10 +9872,8 @@
       </c>
     </row>
     <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A450" t="n">
+        <v>20230811</v>
       </c>
       <c r="B450" t="n">
         <v>54</v>
@@ -10001,10 +9893,8 @@
       </c>
     </row>
     <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A451" t="n">
+        <v>20230811</v>
       </c>
       <c r="B451" t="n">
         <v>55</v>
@@ -10024,10 +9914,8 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A452" t="n">
+        <v>20230811</v>
       </c>
       <c r="B452" t="n">
         <v>56</v>
@@ -10047,10 +9935,8 @@
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A453" t="n">
+        <v>20230811</v>
       </c>
       <c r="B453" t="n">
         <v>57</v>
@@ -10070,10 +9956,8 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A454" t="n">
+        <v>20230811</v>
       </c>
       <c r="B454" t="n">
         <v>58</v>
@@ -10093,10 +9977,8 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A455" t="n">
+        <v>20230811</v>
       </c>
       <c r="B455" t="n">
         <v>59</v>
@@ -10116,10 +9998,8 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A456" t="n">
+        <v>20230811</v>
       </c>
       <c r="B456" t="n">
         <v>60</v>
@@ -10139,10 +10019,8 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A457" t="n">
+        <v>20230811</v>
       </c>
       <c r="B457" t="n">
         <v>61</v>
@@ -10162,10 +10040,8 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A458" t="n">
+        <v>20230811</v>
       </c>
       <c r="B458" t="n">
         <v>62</v>
@@ -10185,10 +10061,8 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A459" t="n">
+        <v>20230811</v>
       </c>
       <c r="B459" t="n">
         <v>63</v>
@@ -10208,10 +10082,8 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A460" t="n">
+        <v>20230811</v>
       </c>
       <c r="B460" t="n">
         <v>64</v>
@@ -10231,10 +10103,8 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A461" t="n">
+        <v>20230811</v>
       </c>
       <c r="B461" t="n">
         <v>65</v>
@@ -10254,10 +10124,8 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A462" t="n">
+        <v>20230811</v>
       </c>
       <c r="B462" t="n">
         <v>66</v>
@@ -10277,10 +10145,8 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A463" t="n">
+        <v>20230811</v>
       </c>
       <c r="B463" t="n">
         <v>67</v>
@@ -10300,10 +10166,8 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A464" t="n">
+        <v>20230811</v>
       </c>
       <c r="B464" t="n">
         <v>68</v>
@@ -10323,10 +10187,8 @@
       </c>
     </row>
     <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A465" t="n">
+        <v>20230811</v>
       </c>
       <c r="B465" t="n">
         <v>69</v>
@@ -10346,10 +10208,8 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A466" t="n">
+        <v>20230811</v>
       </c>
       <c r="B466" t="n">
         <v>70</v>
@@ -10369,10 +10229,8 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A467" t="n">
+        <v>20230811</v>
       </c>
       <c r="B467" t="n">
         <v>71</v>
@@ -10392,10 +10250,8 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A468" t="n">
+        <v>20230811</v>
       </c>
       <c r="B468" t="n">
         <v>72</v>
@@ -10415,10 +10271,8 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A469" t="n">
+        <v>20230811</v>
       </c>
       <c r="B469" t="n">
         <v>73</v>
@@ -10438,10 +10292,8 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A470" t="n">
+        <v>20230811</v>
       </c>
       <c r="B470" t="n">
         <v>74</v>
@@ -10461,10 +10313,8 @@
       </c>
     </row>
     <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A471" t="n">
+        <v>20230811</v>
       </c>
       <c r="B471" t="n">
         <v>75</v>
@@ -10484,10 +10334,8 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A472" t="n">
+        <v>20230811</v>
       </c>
       <c r="B472" t="n">
         <v>76</v>
@@ -10507,10 +10355,8 @@
       </c>
     </row>
     <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A473" t="n">
+        <v>20230811</v>
       </c>
       <c r="B473" t="n">
         <v>77</v>
@@ -10530,10 +10376,8 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A474" t="n">
+        <v>20230811</v>
       </c>
       <c r="B474" t="n">
         <v>78</v>
@@ -10553,10 +10397,8 @@
       </c>
     </row>
     <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>20230811</t>
-        </is>
+      <c r="A475" t="n">
+        <v>20230811</v>
       </c>
       <c r="B475" t="n">
         <v>79</v>
@@ -10572,6 +10414,1823 @@
       <c r="E475" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D476" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="E476" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>2</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D477" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="E477" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>3</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D478" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>4</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D479" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E479" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>5</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D480" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E480" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>6</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D481" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>7</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D482" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>8</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D483" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>9</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D484" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>10</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D485" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>11</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D486" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B487" t="n">
+        <v>12</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D487" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B488" t="n">
+        <v>13</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D488" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B489" t="n">
+        <v>14</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D489" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B490" t="n">
+        <v>15</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D490" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B491" t="n">
+        <v>16</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D491" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B492" t="n">
+        <v>17</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D492" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B493" t="n">
+        <v>18</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D493" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B494" t="n">
+        <v>19</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D494" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B495" t="n">
+        <v>20</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D495" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B496" t="n">
+        <v>21</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D496" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B497" t="n">
+        <v>22</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D497" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E497" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B498" t="n">
+        <v>23</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D498" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E498" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B499" t="n">
+        <v>24</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D499" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="E499" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B500" t="n">
+        <v>25</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D500" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E500" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B501" t="n">
+        <v>26</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D501" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="E501" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B502" t="n">
+        <v>27</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D502" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E502" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B503" t="n">
+        <v>28</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D503" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B504" t="n">
+        <v>29</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D504" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B505" t="n">
+        <v>30</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D505" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B506" t="n">
+        <v>31</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D506" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B507" t="n">
+        <v>32</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D507" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B508" t="n">
+        <v>33</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D508" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B509" t="n">
+        <v>34</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D509" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>35</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D510" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B511" t="n">
+        <v>36</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D511" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>37</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D512" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>38</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D513" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="E513" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>39</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D514" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B515" t="n">
+        <v>40</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D515" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>41</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D516" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B517" t="n">
+        <v>42</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D517" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B518" t="n">
+        <v>43</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D518" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="E518" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B519" t="n">
+        <v>44</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D519" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="E519" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B520" t="n">
+        <v>45</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D520" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="E520" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B521" t="n">
+        <v>46</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D521" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="E521" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B522" t="n">
+        <v>47</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D522" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="E522" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B523" t="n">
+        <v>48</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D523" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B524" t="n">
+        <v>49</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D524" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E524" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B525" t="n">
+        <v>50</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D525" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="E525" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B526" t="n">
+        <v>51</v>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D526" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="E526" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B527" t="n">
+        <v>52</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D527" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B528" t="n">
+        <v>53</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D528" t="n">
+        <v>-1.11</v>
+      </c>
+      <c r="E528" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B529" t="n">
+        <v>54</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D529" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="E529" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B530" t="n">
+        <v>55</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D530" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="E530" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B531" t="n">
+        <v>56</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D531" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="E531" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B532" t="n">
+        <v>57</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="E532" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B533" t="n">
+        <v>58</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B534" t="n">
+        <v>59</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B535" t="n">
+        <v>60</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="E535" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B536" t="n">
+        <v>61</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="E536" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B537" t="n">
+        <v>62</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="E537" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B538" t="n">
+        <v>63</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="E538" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B539" t="n">
+        <v>64</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B540" t="n">
+        <v>65</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="E540" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B541" t="n">
+        <v>66</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="E541" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B542" t="n">
+        <v>67</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="E542" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B543" t="n">
+        <v>68</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="E543" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B544" t="n">
+        <v>69</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>-1.79</v>
+      </c>
+      <c r="E544" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B545" t="n">
+        <v>70</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B546" t="n">
+        <v>71</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="E546" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B547" t="n">
+        <v>72</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B548" t="n">
+        <v>73</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>-2.31</v>
+      </c>
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B549" t="n">
+        <v>74</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>-2.32</v>
+      </c>
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B550" t="n">
+        <v>75</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D550" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B551" t="n">
+        <v>76</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D551" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B552" t="n">
+        <v>77</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D552" t="n">
+        <v>-3.32</v>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B553" t="n">
+        <v>78</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D553" t="n">
+        <v>-3.59</v>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>20230814</t>
+        </is>
+      </c>
+      <c r="B554" t="n">
+        <v>79</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D554" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E554"/>
+  <dimension ref="A1:E633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -10418,10 +10418,8 @@
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A476" t="n">
+        <v>20230814</v>
       </c>
       <c r="B476" t="n">
         <v>1</v>
@@ -10441,10 +10439,8 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A477" t="n">
+        <v>20230814</v>
       </c>
       <c r="B477" t="n">
         <v>2</v>
@@ -10464,10 +10460,8 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A478" t="n">
+        <v>20230814</v>
       </c>
       <c r="B478" t="n">
         <v>3</v>
@@ -10487,10 +10481,8 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A479" t="n">
+        <v>20230814</v>
       </c>
       <c r="B479" t="n">
         <v>4</v>
@@ -10510,10 +10502,8 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A480" t="n">
+        <v>20230814</v>
       </c>
       <c r="B480" t="n">
         <v>5</v>
@@ -10533,10 +10523,8 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A481" t="n">
+        <v>20230814</v>
       </c>
       <c r="B481" t="n">
         <v>6</v>
@@ -10556,10 +10544,8 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A482" t="n">
+        <v>20230814</v>
       </c>
       <c r="B482" t="n">
         <v>7</v>
@@ -10579,10 +10565,8 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A483" t="n">
+        <v>20230814</v>
       </c>
       <c r="B483" t="n">
         <v>8</v>
@@ -10602,10 +10586,8 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A484" t="n">
+        <v>20230814</v>
       </c>
       <c r="B484" t="n">
         <v>9</v>
@@ -10625,10 +10607,8 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A485" t="n">
+        <v>20230814</v>
       </c>
       <c r="B485" t="n">
         <v>10</v>
@@ -10648,10 +10628,8 @@
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A486" t="n">
+        <v>20230814</v>
       </c>
       <c r="B486" t="n">
         <v>11</v>
@@ -10671,10 +10649,8 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A487" t="n">
+        <v>20230814</v>
       </c>
       <c r="B487" t="n">
         <v>12</v>
@@ -10694,10 +10670,8 @@
       </c>
     </row>
     <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A488" t="n">
+        <v>20230814</v>
       </c>
       <c r="B488" t="n">
         <v>13</v>
@@ -10717,10 +10691,8 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A489" t="n">
+        <v>20230814</v>
       </c>
       <c r="B489" t="n">
         <v>14</v>
@@ -10740,10 +10712,8 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A490" t="n">
+        <v>20230814</v>
       </c>
       <c r="B490" t="n">
         <v>15</v>
@@ -10763,10 +10733,8 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A491" t="n">
+        <v>20230814</v>
       </c>
       <c r="B491" t="n">
         <v>16</v>
@@ -10786,10 +10754,8 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A492" t="n">
+        <v>20230814</v>
       </c>
       <c r="B492" t="n">
         <v>17</v>
@@ -10809,10 +10775,8 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A493" t="n">
+        <v>20230814</v>
       </c>
       <c r="B493" t="n">
         <v>18</v>
@@ -10832,10 +10796,8 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A494" t="n">
+        <v>20230814</v>
       </c>
       <c r="B494" t="n">
         <v>19</v>
@@ -10855,10 +10817,8 @@
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A495" t="n">
+        <v>20230814</v>
       </c>
       <c r="B495" t="n">
         <v>20</v>
@@ -10878,10 +10838,8 @@
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A496" t="n">
+        <v>20230814</v>
       </c>
       <c r="B496" t="n">
         <v>21</v>
@@ -10901,10 +10859,8 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A497" t="n">
+        <v>20230814</v>
       </c>
       <c r="B497" t="n">
         <v>22</v>
@@ -10924,10 +10880,8 @@
       </c>
     </row>
     <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A498" t="n">
+        <v>20230814</v>
       </c>
       <c r="B498" t="n">
         <v>23</v>
@@ -10947,10 +10901,8 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A499" t="n">
+        <v>20230814</v>
       </c>
       <c r="B499" t="n">
         <v>24</v>
@@ -10970,10 +10922,8 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A500" t="n">
+        <v>20230814</v>
       </c>
       <c r="B500" t="n">
         <v>25</v>
@@ -10993,10 +10943,8 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A501" t="n">
+        <v>20230814</v>
       </c>
       <c r="B501" t="n">
         <v>26</v>
@@ -11016,10 +10964,8 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A502" t="n">
+        <v>20230814</v>
       </c>
       <c r="B502" t="n">
         <v>27</v>
@@ -11039,10 +10985,8 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A503" t="n">
+        <v>20230814</v>
       </c>
       <c r="B503" t="n">
         <v>28</v>
@@ -11062,10 +11006,8 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A504" t="n">
+        <v>20230814</v>
       </c>
       <c r="B504" t="n">
         <v>29</v>
@@ -11085,10 +11027,8 @@
       </c>
     </row>
     <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A505" t="n">
+        <v>20230814</v>
       </c>
       <c r="B505" t="n">
         <v>30</v>
@@ -11108,10 +11048,8 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A506" t="n">
+        <v>20230814</v>
       </c>
       <c r="B506" t="n">
         <v>31</v>
@@ -11131,10 +11069,8 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A507" t="n">
+        <v>20230814</v>
       </c>
       <c r="B507" t="n">
         <v>32</v>
@@ -11154,10 +11090,8 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A508" t="n">
+        <v>20230814</v>
       </c>
       <c r="B508" t="n">
         <v>33</v>
@@ -11177,10 +11111,8 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A509" t="n">
+        <v>20230814</v>
       </c>
       <c r="B509" t="n">
         <v>34</v>
@@ -11200,10 +11132,8 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A510" t="n">
+        <v>20230814</v>
       </c>
       <c r="B510" t="n">
         <v>35</v>
@@ -11223,10 +11153,8 @@
       </c>
     </row>
     <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A511" t="n">
+        <v>20230814</v>
       </c>
       <c r="B511" t="n">
         <v>36</v>
@@ -11246,10 +11174,8 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A512" t="n">
+        <v>20230814</v>
       </c>
       <c r="B512" t="n">
         <v>37</v>
@@ -11269,10 +11195,8 @@
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A513" t="n">
+        <v>20230814</v>
       </c>
       <c r="B513" t="n">
         <v>38</v>
@@ -11292,10 +11216,8 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A514" t="n">
+        <v>20230814</v>
       </c>
       <c r="B514" t="n">
         <v>39</v>
@@ -11315,10 +11237,8 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A515" t="n">
+        <v>20230814</v>
       </c>
       <c r="B515" t="n">
         <v>40</v>
@@ -11338,10 +11258,8 @@
       </c>
     </row>
     <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A516" t="n">
+        <v>20230814</v>
       </c>
       <c r="B516" t="n">
         <v>41</v>
@@ -11361,10 +11279,8 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A517" t="n">
+        <v>20230814</v>
       </c>
       <c r="B517" t="n">
         <v>42</v>
@@ -11384,10 +11300,8 @@
       </c>
     </row>
     <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A518" t="n">
+        <v>20230814</v>
       </c>
       <c r="B518" t="n">
         <v>43</v>
@@ -11407,10 +11321,8 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A519" t="n">
+        <v>20230814</v>
       </c>
       <c r="B519" t="n">
         <v>44</v>
@@ -11430,10 +11342,8 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A520" t="n">
+        <v>20230814</v>
       </c>
       <c r="B520" t="n">
         <v>45</v>
@@ -11453,10 +11363,8 @@
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A521" t="n">
+        <v>20230814</v>
       </c>
       <c r="B521" t="n">
         <v>46</v>
@@ -11476,10 +11384,8 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A522" t="n">
+        <v>20230814</v>
       </c>
       <c r="B522" t="n">
         <v>47</v>
@@ -11499,10 +11405,8 @@
       </c>
     </row>
     <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A523" t="n">
+        <v>20230814</v>
       </c>
       <c r="B523" t="n">
         <v>48</v>
@@ -11522,10 +11426,8 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A524" t="n">
+        <v>20230814</v>
       </c>
       <c r="B524" t="n">
         <v>49</v>
@@ -11545,10 +11447,8 @@
       </c>
     </row>
     <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A525" t="n">
+        <v>20230814</v>
       </c>
       <c r="B525" t="n">
         <v>50</v>
@@ -11568,10 +11468,8 @@
       </c>
     </row>
     <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A526" t="n">
+        <v>20230814</v>
       </c>
       <c r="B526" t="n">
         <v>51</v>
@@ -11591,10 +11489,8 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A527" t="n">
+        <v>20230814</v>
       </c>
       <c r="B527" t="n">
         <v>52</v>
@@ -11614,10 +11510,8 @@
       </c>
     </row>
     <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A528" t="n">
+        <v>20230814</v>
       </c>
       <c r="B528" t="n">
         <v>53</v>
@@ -11637,10 +11531,8 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A529" t="n">
+        <v>20230814</v>
       </c>
       <c r="B529" t="n">
         <v>54</v>
@@ -11660,10 +11552,8 @@
       </c>
     </row>
     <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A530" t="n">
+        <v>20230814</v>
       </c>
       <c r="B530" t="n">
         <v>55</v>
@@ -11683,10 +11573,8 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A531" t="n">
+        <v>20230814</v>
       </c>
       <c r="B531" t="n">
         <v>56</v>
@@ -11706,10 +11594,8 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A532" t="n">
+        <v>20230814</v>
       </c>
       <c r="B532" t="n">
         <v>57</v>
@@ -11729,10 +11615,8 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A533" t="n">
+        <v>20230814</v>
       </c>
       <c r="B533" t="n">
         <v>58</v>
@@ -11752,10 +11636,8 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A534" t="n">
+        <v>20230814</v>
       </c>
       <c r="B534" t="n">
         <v>59</v>
@@ -11775,10 +11657,8 @@
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A535" t="n">
+        <v>20230814</v>
       </c>
       <c r="B535" t="n">
         <v>60</v>
@@ -11798,10 +11678,8 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A536" t="n">
+        <v>20230814</v>
       </c>
       <c r="B536" t="n">
         <v>61</v>
@@ -11821,10 +11699,8 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A537" t="n">
+        <v>20230814</v>
       </c>
       <c r="B537" t="n">
         <v>62</v>
@@ -11844,10 +11720,8 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A538" t="n">
+        <v>20230814</v>
       </c>
       <c r="B538" t="n">
         <v>63</v>
@@ -11867,10 +11741,8 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A539" t="n">
+        <v>20230814</v>
       </c>
       <c r="B539" t="n">
         <v>64</v>
@@ -11890,10 +11762,8 @@
       </c>
     </row>
     <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A540" t="n">
+        <v>20230814</v>
       </c>
       <c r="B540" t="n">
         <v>65</v>
@@ -11913,10 +11783,8 @@
       </c>
     </row>
     <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A541" t="n">
+        <v>20230814</v>
       </c>
       <c r="B541" t="n">
         <v>66</v>
@@ -11936,10 +11804,8 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A542" t="n">
+        <v>20230814</v>
       </c>
       <c r="B542" t="n">
         <v>67</v>
@@ -11959,10 +11825,8 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A543" t="n">
+        <v>20230814</v>
       </c>
       <c r="B543" t="n">
         <v>68</v>
@@ -11982,10 +11846,8 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A544" t="n">
+        <v>20230814</v>
       </c>
       <c r="B544" t="n">
         <v>69</v>
@@ -12005,10 +11867,8 @@
       </c>
     </row>
     <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A545" t="n">
+        <v>20230814</v>
       </c>
       <c r="B545" t="n">
         <v>70</v>
@@ -12028,10 +11888,8 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A546" t="n">
+        <v>20230814</v>
       </c>
       <c r="B546" t="n">
         <v>71</v>
@@ -12051,10 +11909,8 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A547" t="n">
+        <v>20230814</v>
       </c>
       <c r="B547" t="n">
         <v>72</v>
@@ -12074,10 +11930,8 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A548" t="n">
+        <v>20230814</v>
       </c>
       <c r="B548" t="n">
         <v>73</v>
@@ -12097,10 +11951,8 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A549" t="n">
+        <v>20230814</v>
       </c>
       <c r="B549" t="n">
         <v>74</v>
@@ -12120,10 +11972,8 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A550" t="n">
+        <v>20230814</v>
       </c>
       <c r="B550" t="n">
         <v>75</v>
@@ -12143,10 +11993,8 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A551" t="n">
+        <v>20230814</v>
       </c>
       <c r="B551" t="n">
         <v>76</v>
@@ -12166,10 +12014,8 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A552" t="n">
+        <v>20230814</v>
       </c>
       <c r="B552" t="n">
         <v>77</v>
@@ -12189,10 +12035,8 @@
       </c>
     </row>
     <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A553" t="n">
+        <v>20230814</v>
       </c>
       <c r="B553" t="n">
         <v>78</v>
@@ -12212,10 +12056,8 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>20230814</t>
-        </is>
+      <c r="A554" t="n">
+        <v>20230814</v>
       </c>
       <c r="B554" t="n">
         <v>79</v>
@@ -12231,6 +12073,1823 @@
       <c r="E554" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D555" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B556" t="n">
+        <v>2</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D556" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B557" t="n">
+        <v>3</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D557" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B558" t="n">
+        <v>4</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D558" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E558" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B559" t="n">
+        <v>5</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D559" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B560" t="n">
+        <v>6</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D560" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B561" t="n">
+        <v>7</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D561" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B562" t="n">
+        <v>8</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D562" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B563" t="n">
+        <v>9</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D563" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B564" t="n">
+        <v>10</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D564" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B565" t="n">
+        <v>11</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D565" t="n">
+        <v>0</v>
+      </c>
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B566" t="n">
+        <v>12</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D566" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B567" t="n">
+        <v>13</v>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D567" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B568" t="n">
+        <v>14</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D568" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B569" t="n">
+        <v>15</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D569" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B570" t="n">
+        <v>16</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D570" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B571" t="n">
+        <v>17</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D571" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B572" t="n">
+        <v>18</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D572" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B573" t="n">
+        <v>19</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D573" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B574" t="n">
+        <v>20</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D574" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>21</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D575" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>22</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D576" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>23</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D577" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>24</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D578" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>25</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D579" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>26</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D580" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>27</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D581" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B582" t="n">
+        <v>28</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D582" t="n">
+        <v>-1.29</v>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>29</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D583" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>30</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D584" t="n">
+        <v>-1.32</v>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>31</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D585" t="n">
+        <v>-1.33</v>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>32</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D586" t="n">
+        <v>-1.34</v>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>33</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D587" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>34</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D588" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>35</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D589" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>36</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D590" t="n">
+        <v>-1.65</v>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>37</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D591" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>38</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D592" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>39</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D593" t="n">
+        <v>-1.74</v>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>40</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D594" t="n">
+        <v>-1.76</v>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>41</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D595" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="E595" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>42</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D596" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B597" t="n">
+        <v>43</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D597" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>44</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D598" t="n">
+        <v>-2.05</v>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>45</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D599" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>46</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D600" t="n">
+        <v>-2.09</v>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>47</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D601" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>48</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D602" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>49</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D603" t="n">
+        <v>-2.21</v>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B604" t="n">
+        <v>50</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D604" t="n">
+        <v>-2.23</v>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B605" t="n">
+        <v>51</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D605" t="n">
+        <v>-2.26</v>
+      </c>
+      <c r="E605" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>52</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D606" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B607" t="n">
+        <v>53</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D607" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B608" t="n">
+        <v>54</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D608" t="n">
+        <v>-2.37</v>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B609" t="n">
+        <v>55</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D609" t="n">
+        <v>-2.39</v>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B610" t="n">
+        <v>56</v>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D610" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B611" t="n">
+        <v>57</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D611" t="n">
+        <v>-2.54</v>
+      </c>
+      <c r="E611" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B612" t="n">
+        <v>58</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D612" t="n">
+        <v>-2.61</v>
+      </c>
+      <c r="E612" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B613" t="n">
+        <v>59</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D613" t="n">
+        <v>-2.66</v>
+      </c>
+      <c r="E613" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B614" t="n">
+        <v>60</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D614" t="n">
+        <v>-2.67</v>
+      </c>
+      <c r="E614" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B615" t="n">
+        <v>61</v>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D615" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B616" t="n">
+        <v>62</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D616" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B617" t="n">
+        <v>63</v>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D617" t="n">
+        <v>-2.87</v>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B618" t="n">
+        <v>64</v>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D618" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B619" t="n">
+        <v>65</v>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D619" t="n">
+        <v>-2.89</v>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B620" t="n">
+        <v>66</v>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D620" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B621" t="n">
+        <v>67</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D621" t="n">
+        <v>-2.91</v>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B622" t="n">
+        <v>68</v>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D622" t="n">
+        <v>-2.92</v>
+      </c>
+      <c r="E622" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B623" t="n">
+        <v>69</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D623" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B624" t="n">
+        <v>70</v>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D624" t="n">
+        <v>-3.16</v>
+      </c>
+      <c r="E624" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B625" t="n">
+        <v>71</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D625" t="n">
+        <v>-3.27</v>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B626" t="n">
+        <v>72</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D626" t="n">
+        <v>-3.46</v>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B627" t="n">
+        <v>73</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D627" t="n">
+        <v>-3.53</v>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B628" t="n">
+        <v>74</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D628" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B629" t="n">
+        <v>75</v>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D629" t="n">
+        <v>-3.82</v>
+      </c>
+      <c r="E629" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B630" t="n">
+        <v>76</v>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D630" t="n">
+        <v>-3.97</v>
+      </c>
+      <c r="E630" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B631" t="n">
+        <v>77</v>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D631" t="n">
+        <v>-4.19</v>
+      </c>
+      <c r="E631" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B632" t="n">
+        <v>78</v>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D632" t="n">
+        <v>-4.29</v>
+      </c>
+      <c r="E632" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>20230816</t>
+        </is>
+      </c>
+      <c r="B633" t="n">
+        <v>79</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D633" t="n">
+        <v>-8.56</v>
+      </c>
+      <c r="E633" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E633"/>
+  <dimension ref="A1:E712"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -12077,10 +12077,8 @@
       </c>
     </row>
     <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A555" t="n">
+        <v>20230816</v>
       </c>
       <c r="B555" t="n">
         <v>1</v>
@@ -12100,10 +12098,8 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A556" t="n">
+        <v>20230816</v>
       </c>
       <c r="B556" t="n">
         <v>2</v>
@@ -12123,10 +12119,8 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A557" t="n">
+        <v>20230816</v>
       </c>
       <c r="B557" t="n">
         <v>3</v>
@@ -12146,10 +12140,8 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A558" t="n">
+        <v>20230816</v>
       </c>
       <c r="B558" t="n">
         <v>4</v>
@@ -12169,10 +12161,8 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A559" t="n">
+        <v>20230816</v>
       </c>
       <c r="B559" t="n">
         <v>5</v>
@@ -12192,10 +12182,8 @@
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A560" t="n">
+        <v>20230816</v>
       </c>
       <c r="B560" t="n">
         <v>6</v>
@@ -12215,10 +12203,8 @@
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A561" t="n">
+        <v>20230816</v>
       </c>
       <c r="B561" t="n">
         <v>7</v>
@@ -12238,10 +12224,8 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A562" t="n">
+        <v>20230816</v>
       </c>
       <c r="B562" t="n">
         <v>8</v>
@@ -12261,10 +12245,8 @@
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A563" t="n">
+        <v>20230816</v>
       </c>
       <c r="B563" t="n">
         <v>9</v>
@@ -12284,10 +12266,8 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A564" t="n">
+        <v>20230816</v>
       </c>
       <c r="B564" t="n">
         <v>10</v>
@@ -12307,10 +12287,8 @@
       </c>
     </row>
     <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A565" t="n">
+        <v>20230816</v>
       </c>
       <c r="B565" t="n">
         <v>11</v>
@@ -12330,10 +12308,8 @@
       </c>
     </row>
     <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A566" t="n">
+        <v>20230816</v>
       </c>
       <c r="B566" t="n">
         <v>12</v>
@@ -12353,10 +12329,8 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A567" t="n">
+        <v>20230816</v>
       </c>
       <c r="B567" t="n">
         <v>13</v>
@@ -12376,10 +12350,8 @@
       </c>
     </row>
     <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A568" t="n">
+        <v>20230816</v>
       </c>
       <c r="B568" t="n">
         <v>14</v>
@@ -12399,10 +12371,8 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A569" t="n">
+        <v>20230816</v>
       </c>
       <c r="B569" t="n">
         <v>15</v>
@@ -12422,10 +12392,8 @@
       </c>
     </row>
     <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A570" t="n">
+        <v>20230816</v>
       </c>
       <c r="B570" t="n">
         <v>16</v>
@@ -12445,10 +12413,8 @@
       </c>
     </row>
     <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A571" t="n">
+        <v>20230816</v>
       </c>
       <c r="B571" t="n">
         <v>17</v>
@@ -12468,10 +12434,8 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A572" t="n">
+        <v>20230816</v>
       </c>
       <c r="B572" t="n">
         <v>18</v>
@@ -12491,10 +12455,8 @@
       </c>
     </row>
     <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A573" t="n">
+        <v>20230816</v>
       </c>
       <c r="B573" t="n">
         <v>19</v>
@@ -12514,10 +12476,8 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A574" t="n">
+        <v>20230816</v>
       </c>
       <c r="B574" t="n">
         <v>20</v>
@@ -12537,10 +12497,8 @@
       </c>
     </row>
     <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A575" t="n">
+        <v>20230816</v>
       </c>
       <c r="B575" t="n">
         <v>21</v>
@@ -12560,10 +12518,8 @@
       </c>
     </row>
     <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A576" t="n">
+        <v>20230816</v>
       </c>
       <c r="B576" t="n">
         <v>22</v>
@@ -12583,10 +12539,8 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A577" t="n">
+        <v>20230816</v>
       </c>
       <c r="B577" t="n">
         <v>23</v>
@@ -12606,10 +12560,8 @@
       </c>
     </row>
     <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A578" t="n">
+        <v>20230816</v>
       </c>
       <c r="B578" t="n">
         <v>24</v>
@@ -12629,10 +12581,8 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A579" t="n">
+        <v>20230816</v>
       </c>
       <c r="B579" t="n">
         <v>25</v>
@@ -12652,10 +12602,8 @@
       </c>
     </row>
     <row r="580">
-      <c r="A580" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A580" t="n">
+        <v>20230816</v>
       </c>
       <c r="B580" t="n">
         <v>26</v>
@@ -12675,10 +12623,8 @@
       </c>
     </row>
     <row r="581">
-      <c r="A581" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A581" t="n">
+        <v>20230816</v>
       </c>
       <c r="B581" t="n">
         <v>27</v>
@@ -12698,10 +12644,8 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A582" t="n">
+        <v>20230816</v>
       </c>
       <c r="B582" t="n">
         <v>28</v>
@@ -12721,10 +12665,8 @@
       </c>
     </row>
     <row r="583">
-      <c r="A583" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A583" t="n">
+        <v>20230816</v>
       </c>
       <c r="B583" t="n">
         <v>29</v>
@@ -12744,10 +12686,8 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A584" t="n">
+        <v>20230816</v>
       </c>
       <c r="B584" t="n">
         <v>30</v>
@@ -12767,10 +12707,8 @@
       </c>
     </row>
     <row r="585">
-      <c r="A585" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A585" t="n">
+        <v>20230816</v>
       </c>
       <c r="B585" t="n">
         <v>31</v>
@@ -12790,10 +12728,8 @@
       </c>
     </row>
     <row r="586">
-      <c r="A586" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A586" t="n">
+        <v>20230816</v>
       </c>
       <c r="B586" t="n">
         <v>32</v>
@@ -12813,10 +12749,8 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A587" t="n">
+        <v>20230816</v>
       </c>
       <c r="B587" t="n">
         <v>33</v>
@@ -12836,10 +12770,8 @@
       </c>
     </row>
     <row r="588">
-      <c r="A588" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A588" t="n">
+        <v>20230816</v>
       </c>
       <c r="B588" t="n">
         <v>34</v>
@@ -12859,10 +12791,8 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A589" t="n">
+        <v>20230816</v>
       </c>
       <c r="B589" t="n">
         <v>35</v>
@@ -12882,10 +12812,8 @@
       </c>
     </row>
     <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A590" t="n">
+        <v>20230816</v>
       </c>
       <c r="B590" t="n">
         <v>36</v>
@@ -12905,10 +12833,8 @@
       </c>
     </row>
     <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A591" t="n">
+        <v>20230816</v>
       </c>
       <c r="B591" t="n">
         <v>37</v>
@@ -12928,10 +12854,8 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A592" t="n">
+        <v>20230816</v>
       </c>
       <c r="B592" t="n">
         <v>38</v>
@@ -12951,10 +12875,8 @@
       </c>
     </row>
     <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A593" t="n">
+        <v>20230816</v>
       </c>
       <c r="B593" t="n">
         <v>39</v>
@@ -12974,10 +12896,8 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A594" t="n">
+        <v>20230816</v>
       </c>
       <c r="B594" t="n">
         <v>40</v>
@@ -12997,10 +12917,8 @@
       </c>
     </row>
     <row r="595">
-      <c r="A595" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A595" t="n">
+        <v>20230816</v>
       </c>
       <c r="B595" t="n">
         <v>41</v>
@@ -13020,10 +12938,8 @@
       </c>
     </row>
     <row r="596">
-      <c r="A596" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A596" t="n">
+        <v>20230816</v>
       </c>
       <c r="B596" t="n">
         <v>42</v>
@@ -13043,10 +12959,8 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A597" t="n">
+        <v>20230816</v>
       </c>
       <c r="B597" t="n">
         <v>43</v>
@@ -13066,10 +12980,8 @@
       </c>
     </row>
     <row r="598">
-      <c r="A598" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A598" t="n">
+        <v>20230816</v>
       </c>
       <c r="B598" t="n">
         <v>44</v>
@@ -13089,10 +13001,8 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A599" t="n">
+        <v>20230816</v>
       </c>
       <c r="B599" t="n">
         <v>45</v>
@@ -13112,10 +13022,8 @@
       </c>
     </row>
     <row r="600">
-      <c r="A600" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A600" t="n">
+        <v>20230816</v>
       </c>
       <c r="B600" t="n">
         <v>46</v>
@@ -13135,10 +13043,8 @@
       </c>
     </row>
     <row r="601">
-      <c r="A601" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A601" t="n">
+        <v>20230816</v>
       </c>
       <c r="B601" t="n">
         <v>47</v>
@@ -13158,10 +13064,8 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A602" t="n">
+        <v>20230816</v>
       </c>
       <c r="B602" t="n">
         <v>48</v>
@@ -13181,10 +13085,8 @@
       </c>
     </row>
     <row r="603">
-      <c r="A603" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A603" t="n">
+        <v>20230816</v>
       </c>
       <c r="B603" t="n">
         <v>49</v>
@@ -13204,10 +13106,8 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A604" t="n">
+        <v>20230816</v>
       </c>
       <c r="B604" t="n">
         <v>50</v>
@@ -13227,10 +13127,8 @@
       </c>
     </row>
     <row r="605">
-      <c r="A605" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A605" t="n">
+        <v>20230816</v>
       </c>
       <c r="B605" t="n">
         <v>51</v>
@@ -13250,10 +13148,8 @@
       </c>
     </row>
     <row r="606">
-      <c r="A606" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A606" t="n">
+        <v>20230816</v>
       </c>
       <c r="B606" t="n">
         <v>52</v>
@@ -13273,10 +13169,8 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A607" t="n">
+        <v>20230816</v>
       </c>
       <c r="B607" t="n">
         <v>53</v>
@@ -13296,10 +13190,8 @@
       </c>
     </row>
     <row r="608">
-      <c r="A608" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A608" t="n">
+        <v>20230816</v>
       </c>
       <c r="B608" t="n">
         <v>54</v>
@@ -13319,10 +13211,8 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A609" t="n">
+        <v>20230816</v>
       </c>
       <c r="B609" t="n">
         <v>55</v>
@@ -13342,10 +13232,8 @@
       </c>
     </row>
     <row r="610">
-      <c r="A610" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A610" t="n">
+        <v>20230816</v>
       </c>
       <c r="B610" t="n">
         <v>56</v>
@@ -13365,10 +13253,8 @@
       </c>
     </row>
     <row r="611">
-      <c r="A611" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A611" t="n">
+        <v>20230816</v>
       </c>
       <c r="B611" t="n">
         <v>57</v>
@@ -13388,10 +13274,8 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A612" t="n">
+        <v>20230816</v>
       </c>
       <c r="B612" t="n">
         <v>58</v>
@@ -13411,10 +13295,8 @@
       </c>
     </row>
     <row r="613">
-      <c r="A613" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A613" t="n">
+        <v>20230816</v>
       </c>
       <c r="B613" t="n">
         <v>59</v>
@@ -13434,10 +13316,8 @@
       </c>
     </row>
     <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A614" t="n">
+        <v>20230816</v>
       </c>
       <c r="B614" t="n">
         <v>60</v>
@@ -13457,10 +13337,8 @@
       </c>
     </row>
     <row r="615">
-      <c r="A615" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A615" t="n">
+        <v>20230816</v>
       </c>
       <c r="B615" t="n">
         <v>61</v>
@@ -13480,10 +13358,8 @@
       </c>
     </row>
     <row r="616">
-      <c r="A616" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A616" t="n">
+        <v>20230816</v>
       </c>
       <c r="B616" t="n">
         <v>62</v>
@@ -13503,10 +13379,8 @@
       </c>
     </row>
     <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A617" t="n">
+        <v>20230816</v>
       </c>
       <c r="B617" t="n">
         <v>63</v>
@@ -13526,10 +13400,8 @@
       </c>
     </row>
     <row r="618">
-      <c r="A618" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A618" t="n">
+        <v>20230816</v>
       </c>
       <c r="B618" t="n">
         <v>64</v>
@@ -13549,10 +13421,8 @@
       </c>
     </row>
     <row r="619">
-      <c r="A619" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A619" t="n">
+        <v>20230816</v>
       </c>
       <c r="B619" t="n">
         <v>65</v>
@@ -13572,10 +13442,8 @@
       </c>
     </row>
     <row r="620">
-      <c r="A620" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A620" t="n">
+        <v>20230816</v>
       </c>
       <c r="B620" t="n">
         <v>66</v>
@@ -13595,10 +13463,8 @@
       </c>
     </row>
     <row r="621">
-      <c r="A621" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A621" t="n">
+        <v>20230816</v>
       </c>
       <c r="B621" t="n">
         <v>67</v>
@@ -13618,10 +13484,8 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A622" t="n">
+        <v>20230816</v>
       </c>
       <c r="B622" t="n">
         <v>68</v>
@@ -13641,10 +13505,8 @@
       </c>
     </row>
     <row r="623">
-      <c r="A623" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A623" t="n">
+        <v>20230816</v>
       </c>
       <c r="B623" t="n">
         <v>69</v>
@@ -13664,10 +13526,8 @@
       </c>
     </row>
     <row r="624">
-      <c r="A624" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A624" t="n">
+        <v>20230816</v>
       </c>
       <c r="B624" t="n">
         <v>70</v>
@@ -13687,10 +13547,8 @@
       </c>
     </row>
     <row r="625">
-      <c r="A625" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A625" t="n">
+        <v>20230816</v>
       </c>
       <c r="B625" t="n">
         <v>71</v>
@@ -13710,10 +13568,8 @@
       </c>
     </row>
     <row r="626">
-      <c r="A626" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A626" t="n">
+        <v>20230816</v>
       </c>
       <c r="B626" t="n">
         <v>72</v>
@@ -13733,10 +13589,8 @@
       </c>
     </row>
     <row r="627">
-      <c r="A627" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A627" t="n">
+        <v>20230816</v>
       </c>
       <c r="B627" t="n">
         <v>73</v>
@@ -13756,10 +13610,8 @@
       </c>
     </row>
     <row r="628">
-      <c r="A628" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A628" t="n">
+        <v>20230816</v>
       </c>
       <c r="B628" t="n">
         <v>74</v>
@@ -13779,10 +13631,8 @@
       </c>
     </row>
     <row r="629">
-      <c r="A629" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A629" t="n">
+        <v>20230816</v>
       </c>
       <c r="B629" t="n">
         <v>75</v>
@@ -13802,10 +13652,8 @@
       </c>
     </row>
     <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A630" t="n">
+        <v>20230816</v>
       </c>
       <c r="B630" t="n">
         <v>76</v>
@@ -13825,10 +13673,8 @@
       </c>
     </row>
     <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A631" t="n">
+        <v>20230816</v>
       </c>
       <c r="B631" t="n">
         <v>77</v>
@@ -13848,10 +13694,8 @@
       </c>
     </row>
     <row r="632">
-      <c r="A632" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A632" t="n">
+        <v>20230816</v>
       </c>
       <c r="B632" t="n">
         <v>78</v>
@@ -13871,10 +13715,8 @@
       </c>
     </row>
     <row r="633">
-      <c r="A633" t="inlineStr">
-        <is>
-          <t>20230816</t>
-        </is>
+      <c r="A633" t="n">
+        <v>20230816</v>
       </c>
       <c r="B633" t="n">
         <v>79</v>
@@ -13890,6 +13732,1823 @@
       <c r="E633" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B634" t="n">
+        <v>1</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D634" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="E634" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B635" t="n">
+        <v>2</v>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D635" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="E635" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B636" t="n">
+        <v>3</v>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D636" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="E636" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B637" t="n">
+        <v>4</v>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D637" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E637" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B638" t="n">
+        <v>5</v>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D638" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B639" t="n">
+        <v>6</v>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D639" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B640" t="n">
+        <v>7</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D640" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E640" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B641" t="n">
+        <v>8</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D641" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E641" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B642" t="n">
+        <v>9</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D642" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E642" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B643" t="n">
+        <v>10</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D643" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E643" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B644" t="n">
+        <v>11</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D644" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E644" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B645" t="n">
+        <v>12</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D645" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E645" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B646" t="n">
+        <v>13</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D646" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E646" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B647" t="n">
+        <v>14</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D647" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="E647" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B648" t="n">
+        <v>15</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D648" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E648" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B649" t="n">
+        <v>16</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D649" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E649" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B650" t="n">
+        <v>17</v>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D650" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B651" t="n">
+        <v>18</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D651" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B652" t="n">
+        <v>19</v>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D652" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B653" t="n">
+        <v>20</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D653" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B654" t="n">
+        <v>21</v>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D654" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B655" t="n">
+        <v>22</v>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D655" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B656" t="n">
+        <v>23</v>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D656" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B657" t="n">
+        <v>24</v>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D657" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B658" t="n">
+        <v>25</v>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D658" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B659" t="n">
+        <v>26</v>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D659" t="n">
+        <v>-0.18</v>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B660" t="n">
+        <v>27</v>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D660" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B661" t="n">
+        <v>28</v>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D661" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B662" t="n">
+        <v>29</v>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D662" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B663" t="n">
+        <v>30</v>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D663" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B664" t="n">
+        <v>31</v>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D664" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B665" t="n">
+        <v>32</v>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D665" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B666" t="n">
+        <v>33</v>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D666" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B667" t="n">
+        <v>34</v>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D667" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B668" t="n">
+        <v>35</v>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D668" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B669" t="n">
+        <v>36</v>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D669" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B670" t="n">
+        <v>37</v>
+      </c>
+      <c r="C670" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D670" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B671" t="n">
+        <v>38</v>
+      </c>
+      <c r="C671" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D671" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B672" t="n">
+        <v>39</v>
+      </c>
+      <c r="C672" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D672" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B673" t="n">
+        <v>40</v>
+      </c>
+      <c r="C673" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D673" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B674" t="n">
+        <v>41</v>
+      </c>
+      <c r="C674" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D674" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B675" t="n">
+        <v>42</v>
+      </c>
+      <c r="C675" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D675" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B676" t="n">
+        <v>43</v>
+      </c>
+      <c r="C676" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D676" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B677" t="n">
+        <v>44</v>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D677" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B678" t="n">
+        <v>45</v>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D678" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B679" t="n">
+        <v>46</v>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D679" t="n">
+        <v>-0.8100000000000001</v>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B680" t="n">
+        <v>47</v>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D680" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B681" t="n">
+        <v>48</v>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D681" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B682" t="n">
+        <v>49</v>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D682" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B683" t="n">
+        <v>50</v>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D683" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B684" t="n">
+        <v>51</v>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D684" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B685" t="n">
+        <v>52</v>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D685" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B686" t="n">
+        <v>53</v>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D686" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B687" t="n">
+        <v>54</v>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D687" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B688" t="n">
+        <v>55</v>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D688" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B689" t="n">
+        <v>56</v>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D689" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B690" t="n">
+        <v>57</v>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D690" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B691" t="n">
+        <v>58</v>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D691" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B692" t="n">
+        <v>59</v>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D692" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B693" t="n">
+        <v>60</v>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D693" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B694" t="n">
+        <v>61</v>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D694" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B695" t="n">
+        <v>62</v>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D695" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B696" t="n">
+        <v>63</v>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D696" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B697" t="n">
+        <v>64</v>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D697" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B698" t="n">
+        <v>65</v>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D698" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B699" t="n">
+        <v>66</v>
+      </c>
+      <c r="C699" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D699" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B700" t="n">
+        <v>67</v>
+      </c>
+      <c r="C700" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D700" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>68</v>
+      </c>
+      <c r="C701" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D701" t="n">
+        <v>-1.55</v>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>69</v>
+      </c>
+      <c r="C702" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D702" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>70</v>
+      </c>
+      <c r="C703" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D703" t="n">
+        <v>-1.78</v>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>71</v>
+      </c>
+      <c r="C704" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D704" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>72</v>
+      </c>
+      <c r="C705" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D705" t="n">
+        <v>-1.86</v>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>73</v>
+      </c>
+      <c r="C706" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D706" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>74</v>
+      </c>
+      <c r="C707" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D707" t="n">
+        <v>-1.99</v>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>75</v>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D708" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>76</v>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D709" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>77</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D710" t="n">
+        <v>-2.65</v>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>78</v>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D711" t="n">
+        <v>-3.06</v>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>20230817</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>79</v>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D712" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E712"/>
+  <dimension ref="A1:E791"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -13736,10 +13736,8 @@
       </c>
     </row>
     <row r="634">
-      <c r="A634" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A634" t="n">
+        <v>20230817</v>
       </c>
       <c r="B634" t="n">
         <v>1</v>
@@ -13759,10 +13757,8 @@
       </c>
     </row>
     <row r="635">
-      <c r="A635" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A635" t="n">
+        <v>20230817</v>
       </c>
       <c r="B635" t="n">
         <v>2</v>
@@ -13782,10 +13778,8 @@
       </c>
     </row>
     <row r="636">
-      <c r="A636" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A636" t="n">
+        <v>20230817</v>
       </c>
       <c r="B636" t="n">
         <v>3</v>
@@ -13805,10 +13799,8 @@
       </c>
     </row>
     <row r="637">
-      <c r="A637" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A637" t="n">
+        <v>20230817</v>
       </c>
       <c r="B637" t="n">
         <v>4</v>
@@ -13828,10 +13820,8 @@
       </c>
     </row>
     <row r="638">
-      <c r="A638" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A638" t="n">
+        <v>20230817</v>
       </c>
       <c r="B638" t="n">
         <v>5</v>
@@ -13851,10 +13841,8 @@
       </c>
     </row>
     <row r="639">
-      <c r="A639" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A639" t="n">
+        <v>20230817</v>
       </c>
       <c r="B639" t="n">
         <v>6</v>
@@ -13874,10 +13862,8 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A640" t="n">
+        <v>20230817</v>
       </c>
       <c r="B640" t="n">
         <v>7</v>
@@ -13897,10 +13883,8 @@
       </c>
     </row>
     <row r="641">
-      <c r="A641" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A641" t="n">
+        <v>20230817</v>
       </c>
       <c r="B641" t="n">
         <v>8</v>
@@ -13920,10 +13904,8 @@
       </c>
     </row>
     <row r="642">
-      <c r="A642" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A642" t="n">
+        <v>20230817</v>
       </c>
       <c r="B642" t="n">
         <v>9</v>
@@ -13943,10 +13925,8 @@
       </c>
     </row>
     <row r="643">
-      <c r="A643" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A643" t="n">
+        <v>20230817</v>
       </c>
       <c r="B643" t="n">
         <v>10</v>
@@ -13966,10 +13946,8 @@
       </c>
     </row>
     <row r="644">
-      <c r="A644" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A644" t="n">
+        <v>20230817</v>
       </c>
       <c r="B644" t="n">
         <v>11</v>
@@ -13989,10 +13967,8 @@
       </c>
     </row>
     <row r="645">
-      <c r="A645" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A645" t="n">
+        <v>20230817</v>
       </c>
       <c r="B645" t="n">
         <v>12</v>
@@ -14012,10 +13988,8 @@
       </c>
     </row>
     <row r="646">
-      <c r="A646" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A646" t="n">
+        <v>20230817</v>
       </c>
       <c r="B646" t="n">
         <v>13</v>
@@ -14035,10 +14009,8 @@
       </c>
     </row>
     <row r="647">
-      <c r="A647" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A647" t="n">
+        <v>20230817</v>
       </c>
       <c r="B647" t="n">
         <v>14</v>
@@ -14058,10 +14030,8 @@
       </c>
     </row>
     <row r="648">
-      <c r="A648" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A648" t="n">
+        <v>20230817</v>
       </c>
       <c r="B648" t="n">
         <v>15</v>
@@ -14081,10 +14051,8 @@
       </c>
     </row>
     <row r="649">
-      <c r="A649" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A649" t="n">
+        <v>20230817</v>
       </c>
       <c r="B649" t="n">
         <v>16</v>
@@ -14104,10 +14072,8 @@
       </c>
     </row>
     <row r="650">
-      <c r="A650" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A650" t="n">
+        <v>20230817</v>
       </c>
       <c r="B650" t="n">
         <v>17</v>
@@ -14127,10 +14093,8 @@
       </c>
     </row>
     <row r="651">
-      <c r="A651" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A651" t="n">
+        <v>20230817</v>
       </c>
       <c r="B651" t="n">
         <v>18</v>
@@ -14150,10 +14114,8 @@
       </c>
     </row>
     <row r="652">
-      <c r="A652" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A652" t="n">
+        <v>20230817</v>
       </c>
       <c r="B652" t="n">
         <v>19</v>
@@ -14173,10 +14135,8 @@
       </c>
     </row>
     <row r="653">
-      <c r="A653" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A653" t="n">
+        <v>20230817</v>
       </c>
       <c r="B653" t="n">
         <v>20</v>
@@ -14196,10 +14156,8 @@
       </c>
     </row>
     <row r="654">
-      <c r="A654" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A654" t="n">
+        <v>20230817</v>
       </c>
       <c r="B654" t="n">
         <v>21</v>
@@ -14219,10 +14177,8 @@
       </c>
     </row>
     <row r="655">
-      <c r="A655" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A655" t="n">
+        <v>20230817</v>
       </c>
       <c r="B655" t="n">
         <v>22</v>
@@ -14242,10 +14198,8 @@
       </c>
     </row>
     <row r="656">
-      <c r="A656" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A656" t="n">
+        <v>20230817</v>
       </c>
       <c r="B656" t="n">
         <v>23</v>
@@ -14265,10 +14219,8 @@
       </c>
     </row>
     <row r="657">
-      <c r="A657" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A657" t="n">
+        <v>20230817</v>
       </c>
       <c r="B657" t="n">
         <v>24</v>
@@ -14288,10 +14240,8 @@
       </c>
     </row>
     <row r="658">
-      <c r="A658" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A658" t="n">
+        <v>20230817</v>
       </c>
       <c r="B658" t="n">
         <v>25</v>
@@ -14311,10 +14261,8 @@
       </c>
     </row>
     <row r="659">
-      <c r="A659" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A659" t="n">
+        <v>20230817</v>
       </c>
       <c r="B659" t="n">
         <v>26</v>
@@ -14334,10 +14282,8 @@
       </c>
     </row>
     <row r="660">
-      <c r="A660" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A660" t="n">
+        <v>20230817</v>
       </c>
       <c r="B660" t="n">
         <v>27</v>
@@ -14357,10 +14303,8 @@
       </c>
     </row>
     <row r="661">
-      <c r="A661" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A661" t="n">
+        <v>20230817</v>
       </c>
       <c r="B661" t="n">
         <v>28</v>
@@ -14380,10 +14324,8 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A662" t="n">
+        <v>20230817</v>
       </c>
       <c r="B662" t="n">
         <v>29</v>
@@ -14403,10 +14345,8 @@
       </c>
     </row>
     <row r="663">
-      <c r="A663" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A663" t="n">
+        <v>20230817</v>
       </c>
       <c r="B663" t="n">
         <v>30</v>
@@ -14426,10 +14366,8 @@
       </c>
     </row>
     <row r="664">
-      <c r="A664" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A664" t="n">
+        <v>20230817</v>
       </c>
       <c r="B664" t="n">
         <v>31</v>
@@ -14449,10 +14387,8 @@
       </c>
     </row>
     <row r="665">
-      <c r="A665" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A665" t="n">
+        <v>20230817</v>
       </c>
       <c r="B665" t="n">
         <v>32</v>
@@ -14472,10 +14408,8 @@
       </c>
     </row>
     <row r="666">
-      <c r="A666" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A666" t="n">
+        <v>20230817</v>
       </c>
       <c r="B666" t="n">
         <v>33</v>
@@ -14495,10 +14429,8 @@
       </c>
     </row>
     <row r="667">
-      <c r="A667" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A667" t="n">
+        <v>20230817</v>
       </c>
       <c r="B667" t="n">
         <v>34</v>
@@ -14518,10 +14450,8 @@
       </c>
     </row>
     <row r="668">
-      <c r="A668" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A668" t="n">
+        <v>20230817</v>
       </c>
       <c r="B668" t="n">
         <v>35</v>
@@ -14541,10 +14471,8 @@
       </c>
     </row>
     <row r="669">
-      <c r="A669" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A669" t="n">
+        <v>20230817</v>
       </c>
       <c r="B669" t="n">
         <v>36</v>
@@ -14564,10 +14492,8 @@
       </c>
     </row>
     <row r="670">
-      <c r="A670" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A670" t="n">
+        <v>20230817</v>
       </c>
       <c r="B670" t="n">
         <v>37</v>
@@ -14587,10 +14513,8 @@
       </c>
     </row>
     <row r="671">
-      <c r="A671" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A671" t="n">
+        <v>20230817</v>
       </c>
       <c r="B671" t="n">
         <v>38</v>
@@ -14610,10 +14534,8 @@
       </c>
     </row>
     <row r="672">
-      <c r="A672" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A672" t="n">
+        <v>20230817</v>
       </c>
       <c r="B672" t="n">
         <v>39</v>
@@ -14633,10 +14555,8 @@
       </c>
     </row>
     <row r="673">
-      <c r="A673" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A673" t="n">
+        <v>20230817</v>
       </c>
       <c r="B673" t="n">
         <v>40</v>
@@ -14656,10 +14576,8 @@
       </c>
     </row>
     <row r="674">
-      <c r="A674" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A674" t="n">
+        <v>20230817</v>
       </c>
       <c r="B674" t="n">
         <v>41</v>
@@ -14679,10 +14597,8 @@
       </c>
     </row>
     <row r="675">
-      <c r="A675" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A675" t="n">
+        <v>20230817</v>
       </c>
       <c r="B675" t="n">
         <v>42</v>
@@ -14702,10 +14618,8 @@
       </c>
     </row>
     <row r="676">
-      <c r="A676" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A676" t="n">
+        <v>20230817</v>
       </c>
       <c r="B676" t="n">
         <v>43</v>
@@ -14725,10 +14639,8 @@
       </c>
     </row>
     <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A677" t="n">
+        <v>20230817</v>
       </c>
       <c r="B677" t="n">
         <v>44</v>
@@ -14748,10 +14660,8 @@
       </c>
     </row>
     <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A678" t="n">
+        <v>20230817</v>
       </c>
       <c r="B678" t="n">
         <v>45</v>
@@ -14771,10 +14681,8 @@
       </c>
     </row>
     <row r="679">
-      <c r="A679" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A679" t="n">
+        <v>20230817</v>
       </c>
       <c r="B679" t="n">
         <v>46</v>
@@ -14794,10 +14702,8 @@
       </c>
     </row>
     <row r="680">
-      <c r="A680" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A680" t="n">
+        <v>20230817</v>
       </c>
       <c r="B680" t="n">
         <v>47</v>
@@ -14817,10 +14723,8 @@
       </c>
     </row>
     <row r="681">
-      <c r="A681" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A681" t="n">
+        <v>20230817</v>
       </c>
       <c r="B681" t="n">
         <v>48</v>
@@ -14840,10 +14744,8 @@
       </c>
     </row>
     <row r="682">
-      <c r="A682" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A682" t="n">
+        <v>20230817</v>
       </c>
       <c r="B682" t="n">
         <v>49</v>
@@ -14863,10 +14765,8 @@
       </c>
     </row>
     <row r="683">
-      <c r="A683" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A683" t="n">
+        <v>20230817</v>
       </c>
       <c r="B683" t="n">
         <v>50</v>
@@ -14886,10 +14786,8 @@
       </c>
     </row>
     <row r="684">
-      <c r="A684" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A684" t="n">
+        <v>20230817</v>
       </c>
       <c r="B684" t="n">
         <v>51</v>
@@ -14909,10 +14807,8 @@
       </c>
     </row>
     <row r="685">
-      <c r="A685" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A685" t="n">
+        <v>20230817</v>
       </c>
       <c r="B685" t="n">
         <v>52</v>
@@ -14932,10 +14828,8 @@
       </c>
     </row>
     <row r="686">
-      <c r="A686" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A686" t="n">
+        <v>20230817</v>
       </c>
       <c r="B686" t="n">
         <v>53</v>
@@ -14955,10 +14849,8 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A687" t="n">
+        <v>20230817</v>
       </c>
       <c r="B687" t="n">
         <v>54</v>
@@ -14978,10 +14870,8 @@
       </c>
     </row>
     <row r="688">
-      <c r="A688" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A688" t="n">
+        <v>20230817</v>
       </c>
       <c r="B688" t="n">
         <v>55</v>
@@ -15001,10 +14891,8 @@
       </c>
     </row>
     <row r="689">
-      <c r="A689" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A689" t="n">
+        <v>20230817</v>
       </c>
       <c r="B689" t="n">
         <v>56</v>
@@ -15024,10 +14912,8 @@
       </c>
     </row>
     <row r="690">
-      <c r="A690" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A690" t="n">
+        <v>20230817</v>
       </c>
       <c r="B690" t="n">
         <v>57</v>
@@ -15047,10 +14933,8 @@
       </c>
     </row>
     <row r="691">
-      <c r="A691" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A691" t="n">
+        <v>20230817</v>
       </c>
       <c r="B691" t="n">
         <v>58</v>
@@ -15070,10 +14954,8 @@
       </c>
     </row>
     <row r="692">
-      <c r="A692" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A692" t="n">
+        <v>20230817</v>
       </c>
       <c r="B692" t="n">
         <v>59</v>
@@ -15093,10 +14975,8 @@
       </c>
     </row>
     <row r="693">
-      <c r="A693" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A693" t="n">
+        <v>20230817</v>
       </c>
       <c r="B693" t="n">
         <v>60</v>
@@ -15116,10 +14996,8 @@
       </c>
     </row>
     <row r="694">
-      <c r="A694" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A694" t="n">
+        <v>20230817</v>
       </c>
       <c r="B694" t="n">
         <v>61</v>
@@ -15139,10 +15017,8 @@
       </c>
     </row>
     <row r="695">
-      <c r="A695" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A695" t="n">
+        <v>20230817</v>
       </c>
       <c r="B695" t="n">
         <v>62</v>
@@ -15162,10 +15038,8 @@
       </c>
     </row>
     <row r="696">
-      <c r="A696" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A696" t="n">
+        <v>20230817</v>
       </c>
       <c r="B696" t="n">
         <v>63</v>
@@ -15185,10 +15059,8 @@
       </c>
     </row>
     <row r="697">
-      <c r="A697" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A697" t="n">
+        <v>20230817</v>
       </c>
       <c r="B697" t="n">
         <v>64</v>
@@ -15208,10 +15080,8 @@
       </c>
     </row>
     <row r="698">
-      <c r="A698" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A698" t="n">
+        <v>20230817</v>
       </c>
       <c r="B698" t="n">
         <v>65</v>
@@ -15231,10 +15101,8 @@
       </c>
     </row>
     <row r="699">
-      <c r="A699" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A699" t="n">
+        <v>20230817</v>
       </c>
       <c r="B699" t="n">
         <v>66</v>
@@ -15254,10 +15122,8 @@
       </c>
     </row>
     <row r="700">
-      <c r="A700" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A700" t="n">
+        <v>20230817</v>
       </c>
       <c r="B700" t="n">
         <v>67</v>
@@ -15277,10 +15143,8 @@
       </c>
     </row>
     <row r="701">
-      <c r="A701" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A701" t="n">
+        <v>20230817</v>
       </c>
       <c r="B701" t="n">
         <v>68</v>
@@ -15300,10 +15164,8 @@
       </c>
     </row>
     <row r="702">
-      <c r="A702" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A702" t="n">
+        <v>20230817</v>
       </c>
       <c r="B702" t="n">
         <v>69</v>
@@ -15323,10 +15185,8 @@
       </c>
     </row>
     <row r="703">
-      <c r="A703" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A703" t="n">
+        <v>20230817</v>
       </c>
       <c r="B703" t="n">
         <v>70</v>
@@ -15346,10 +15206,8 @@
       </c>
     </row>
     <row r="704">
-      <c r="A704" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A704" t="n">
+        <v>20230817</v>
       </c>
       <c r="B704" t="n">
         <v>71</v>
@@ -15369,10 +15227,8 @@
       </c>
     </row>
     <row r="705">
-      <c r="A705" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A705" t="n">
+        <v>20230817</v>
       </c>
       <c r="B705" t="n">
         <v>72</v>
@@ -15392,10 +15248,8 @@
       </c>
     </row>
     <row r="706">
-      <c r="A706" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A706" t="n">
+        <v>20230817</v>
       </c>
       <c r="B706" t="n">
         <v>73</v>
@@ -15415,10 +15269,8 @@
       </c>
     </row>
     <row r="707">
-      <c r="A707" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A707" t="n">
+        <v>20230817</v>
       </c>
       <c r="B707" t="n">
         <v>74</v>
@@ -15438,10 +15290,8 @@
       </c>
     </row>
     <row r="708">
-      <c r="A708" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A708" t="n">
+        <v>20230817</v>
       </c>
       <c r="B708" t="n">
         <v>75</v>
@@ -15461,10 +15311,8 @@
       </c>
     </row>
     <row r="709">
-      <c r="A709" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A709" t="n">
+        <v>20230817</v>
       </c>
       <c r="B709" t="n">
         <v>76</v>
@@ -15484,10 +15332,8 @@
       </c>
     </row>
     <row r="710">
-      <c r="A710" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A710" t="n">
+        <v>20230817</v>
       </c>
       <c r="B710" t="n">
         <v>77</v>
@@ -15507,10 +15353,8 @@
       </c>
     </row>
     <row r="711">
-      <c r="A711" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A711" t="n">
+        <v>20230817</v>
       </c>
       <c r="B711" t="n">
         <v>78</v>
@@ -15530,10 +15374,8 @@
       </c>
     </row>
     <row r="712">
-      <c r="A712" t="inlineStr">
-        <is>
-          <t>20230817</t>
-        </is>
+      <c r="A712" t="n">
+        <v>20230817</v>
       </c>
       <c r="B712" t="n">
         <v>79</v>
@@ -15549,6 +15391,1823 @@
       <c r="E712" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>1</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D713" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>2</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D714" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>3</v>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D715" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>4</v>
+      </c>
+      <c r="C716" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D716" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>5</v>
+      </c>
+      <c r="C717" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D717" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>6</v>
+      </c>
+      <c r="C718" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D718" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>7</v>
+      </c>
+      <c r="C719" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D719" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>8</v>
+      </c>
+      <c r="C720" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D720" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>9</v>
+      </c>
+      <c r="C721" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D721" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>10</v>
+      </c>
+      <c r="C722" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D722" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>11</v>
+      </c>
+      <c r="C723" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D723" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>12</v>
+      </c>
+      <c r="C724" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D724" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>13</v>
+      </c>
+      <c r="C725" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D725" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>14</v>
+      </c>
+      <c r="C726" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D726" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>15</v>
+      </c>
+      <c r="C727" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D727" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>16</v>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D728" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>17</v>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D729" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>18</v>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D730" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>19</v>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D731" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>20</v>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D732" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B733" t="n">
+        <v>21</v>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D733" t="n">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B734" t="n">
+        <v>22</v>
+      </c>
+      <c r="C734" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D734" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B735" t="n">
+        <v>23</v>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D735" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E735" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B736" t="n">
+        <v>24</v>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D736" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B737" t="n">
+        <v>25</v>
+      </c>
+      <c r="C737" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D737" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B738" t="n">
+        <v>26</v>
+      </c>
+      <c r="C738" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D738" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B739" t="n">
+        <v>27</v>
+      </c>
+      <c r="C739" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D739" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>28</v>
+      </c>
+      <c r="C740" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D740" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>29</v>
+      </c>
+      <c r="C741" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D741" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>30</v>
+      </c>
+      <c r="C742" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D742" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B743" t="n">
+        <v>31</v>
+      </c>
+      <c r="C743" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D743" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B744" t="n">
+        <v>32</v>
+      </c>
+      <c r="C744" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D744" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B745" t="n">
+        <v>33</v>
+      </c>
+      <c r="C745" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D745" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B746" t="n">
+        <v>34</v>
+      </c>
+      <c r="C746" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D746" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B747" t="n">
+        <v>35</v>
+      </c>
+      <c r="C747" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D747" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B748" t="n">
+        <v>36</v>
+      </c>
+      <c r="C748" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D748" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B749" t="n">
+        <v>37</v>
+      </c>
+      <c r="C749" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D749" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B750" t="n">
+        <v>38</v>
+      </c>
+      <c r="C750" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D750" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B751" t="n">
+        <v>39</v>
+      </c>
+      <c r="C751" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D751" t="n">
+        <v>-0.58</v>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B752" t="n">
+        <v>40</v>
+      </c>
+      <c r="C752" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D752" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B753" t="n">
+        <v>41</v>
+      </c>
+      <c r="C753" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D753" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B754" t="n">
+        <v>42</v>
+      </c>
+      <c r="C754" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D754" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B755" t="n">
+        <v>43</v>
+      </c>
+      <c r="C755" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D755" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B756" t="n">
+        <v>44</v>
+      </c>
+      <c r="C756" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D756" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B757" t="n">
+        <v>45</v>
+      </c>
+      <c r="C757" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D757" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B758" t="n">
+        <v>46</v>
+      </c>
+      <c r="C758" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D758" t="n">
+        <v>-0.77</v>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B759" t="n">
+        <v>47</v>
+      </c>
+      <c r="C759" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D759" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B760" t="n">
+        <v>48</v>
+      </c>
+      <c r="C760" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D760" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B761" t="n">
+        <v>49</v>
+      </c>
+      <c r="C761" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D761" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B762" t="n">
+        <v>50</v>
+      </c>
+      <c r="C762" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D762" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B763" t="n">
+        <v>51</v>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D763" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B764" t="n">
+        <v>52</v>
+      </c>
+      <c r="C764" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D764" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B765" t="n">
+        <v>53</v>
+      </c>
+      <c r="C765" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D765" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B766" t="n">
+        <v>54</v>
+      </c>
+      <c r="C766" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D766" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B767" t="n">
+        <v>55</v>
+      </c>
+      <c r="C767" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D767" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B768" t="n">
+        <v>56</v>
+      </c>
+      <c r="C768" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D768" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B769" t="n">
+        <v>57</v>
+      </c>
+      <c r="C769" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D769" t="n">
+        <v>-1.07</v>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B770" t="n">
+        <v>58</v>
+      </c>
+      <c r="C770" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D770" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B771" t="n">
+        <v>59</v>
+      </c>
+      <c r="C771" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D771" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B772" t="n">
+        <v>60</v>
+      </c>
+      <c r="C772" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D772" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B773" t="n">
+        <v>61</v>
+      </c>
+      <c r="C773" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D773" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B774" t="n">
+        <v>62</v>
+      </c>
+      <c r="C774" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D774" t="n">
+        <v>-1.12</v>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B775" t="n">
+        <v>63</v>
+      </c>
+      <c r="C775" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D775" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B776" t="n">
+        <v>64</v>
+      </c>
+      <c r="C776" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D776" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B777" t="n">
+        <v>65</v>
+      </c>
+      <c r="C777" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D777" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B778" t="n">
+        <v>66</v>
+      </c>
+      <c r="C778" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D778" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B779" t="n">
+        <v>67</v>
+      </c>
+      <c r="C779" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D779" t="n">
+        <v>-1.38</v>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B780" t="n">
+        <v>68</v>
+      </c>
+      <c r="C780" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D780" t="n">
+        <v>-1.57</v>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B781" t="n">
+        <v>69</v>
+      </c>
+      <c r="C781" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D781" t="n">
+        <v>-1.58</v>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B782" t="n">
+        <v>70</v>
+      </c>
+      <c r="C782" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D782" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B783" t="n">
+        <v>71</v>
+      </c>
+      <c r="C783" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D783" t="n">
+        <v>-1.84</v>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B784" t="n">
+        <v>72</v>
+      </c>
+      <c r="C784" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D784" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B785" t="n">
+        <v>73</v>
+      </c>
+      <c r="C785" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D785" t="n">
+        <v>-2.12</v>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B786" t="n">
+        <v>74</v>
+      </c>
+      <c r="C786" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D786" t="n">
+        <v>-2.33</v>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B787" t="n">
+        <v>75</v>
+      </c>
+      <c r="C787" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D787" t="n">
+        <v>-2.38</v>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B788" t="n">
+        <v>76</v>
+      </c>
+      <c r="C788" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D788" t="n">
+        <v>-2.57</v>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B789" t="n">
+        <v>77</v>
+      </c>
+      <c r="C789" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D789" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B790" t="n">
+        <v>78</v>
+      </c>
+      <c r="C790" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D790" t="n">
+        <v>-3.25</v>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>20230818</t>
+        </is>
+      </c>
+      <c r="B791" t="n">
+        <v>79</v>
+      </c>
+      <c r="C791" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D791" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E791"/>
+  <dimension ref="A1:E870"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -15395,10 +15395,8 @@
       </c>
     </row>
     <row r="713">
-      <c r="A713" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A713" t="n">
+        <v>20230818</v>
       </c>
       <c r="B713" t="n">
         <v>1</v>
@@ -15418,10 +15416,8 @@
       </c>
     </row>
     <row r="714">
-      <c r="A714" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A714" t="n">
+        <v>20230818</v>
       </c>
       <c r="B714" t="n">
         <v>2</v>
@@ -15441,10 +15437,8 @@
       </c>
     </row>
     <row r="715">
-      <c r="A715" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A715" t="n">
+        <v>20230818</v>
       </c>
       <c r="B715" t="n">
         <v>3</v>
@@ -15464,10 +15458,8 @@
       </c>
     </row>
     <row r="716">
-      <c r="A716" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A716" t="n">
+        <v>20230818</v>
       </c>
       <c r="B716" t="n">
         <v>4</v>
@@ -15487,10 +15479,8 @@
       </c>
     </row>
     <row r="717">
-      <c r="A717" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A717" t="n">
+        <v>20230818</v>
       </c>
       <c r="B717" t="n">
         <v>5</v>
@@ -15510,10 +15500,8 @@
       </c>
     </row>
     <row r="718">
-      <c r="A718" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A718" t="n">
+        <v>20230818</v>
       </c>
       <c r="B718" t="n">
         <v>6</v>
@@ -15533,10 +15521,8 @@
       </c>
     </row>
     <row r="719">
-      <c r="A719" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A719" t="n">
+        <v>20230818</v>
       </c>
       <c r="B719" t="n">
         <v>7</v>
@@ -15556,10 +15542,8 @@
       </c>
     </row>
     <row r="720">
-      <c r="A720" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A720" t="n">
+        <v>20230818</v>
       </c>
       <c r="B720" t="n">
         <v>8</v>
@@ -15579,10 +15563,8 @@
       </c>
     </row>
     <row r="721">
-      <c r="A721" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A721" t="n">
+        <v>20230818</v>
       </c>
       <c r="B721" t="n">
         <v>9</v>
@@ -15602,10 +15584,8 @@
       </c>
     </row>
     <row r="722">
-      <c r="A722" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A722" t="n">
+        <v>20230818</v>
       </c>
       <c r="B722" t="n">
         <v>10</v>
@@ -15625,10 +15605,8 @@
       </c>
     </row>
     <row r="723">
-      <c r="A723" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A723" t="n">
+        <v>20230818</v>
       </c>
       <c r="B723" t="n">
         <v>11</v>
@@ -15648,10 +15626,8 @@
       </c>
     </row>
     <row r="724">
-      <c r="A724" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A724" t="n">
+        <v>20230818</v>
       </c>
       <c r="B724" t="n">
         <v>12</v>
@@ -15671,10 +15647,8 @@
       </c>
     </row>
     <row r="725">
-      <c r="A725" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A725" t="n">
+        <v>20230818</v>
       </c>
       <c r="B725" t="n">
         <v>13</v>
@@ -15694,10 +15668,8 @@
       </c>
     </row>
     <row r="726">
-      <c r="A726" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A726" t="n">
+        <v>20230818</v>
       </c>
       <c r="B726" t="n">
         <v>14</v>
@@ -15717,10 +15689,8 @@
       </c>
     </row>
     <row r="727">
-      <c r="A727" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A727" t="n">
+        <v>20230818</v>
       </c>
       <c r="B727" t="n">
         <v>15</v>
@@ -15740,10 +15710,8 @@
       </c>
     </row>
     <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A728" t="n">
+        <v>20230818</v>
       </c>
       <c r="B728" t="n">
         <v>16</v>
@@ -15763,10 +15731,8 @@
       </c>
     </row>
     <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A729" t="n">
+        <v>20230818</v>
       </c>
       <c r="B729" t="n">
         <v>17</v>
@@ -15786,10 +15752,8 @@
       </c>
     </row>
     <row r="730">
-      <c r="A730" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A730" t="n">
+        <v>20230818</v>
       </c>
       <c r="B730" t="n">
         <v>18</v>
@@ -15809,10 +15773,8 @@
       </c>
     </row>
     <row r="731">
-      <c r="A731" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A731" t="n">
+        <v>20230818</v>
       </c>
       <c r="B731" t="n">
         <v>19</v>
@@ -15832,10 +15794,8 @@
       </c>
     </row>
     <row r="732">
-      <c r="A732" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A732" t="n">
+        <v>20230818</v>
       </c>
       <c r="B732" t="n">
         <v>20</v>
@@ -15855,10 +15815,8 @@
       </c>
     </row>
     <row r="733">
-      <c r="A733" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A733" t="n">
+        <v>20230818</v>
       </c>
       <c r="B733" t="n">
         <v>21</v>
@@ -15878,10 +15836,8 @@
       </c>
     </row>
     <row r="734">
-      <c r="A734" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A734" t="n">
+        <v>20230818</v>
       </c>
       <c r="B734" t="n">
         <v>22</v>
@@ -15901,10 +15857,8 @@
       </c>
     </row>
     <row r="735">
-      <c r="A735" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A735" t="n">
+        <v>20230818</v>
       </c>
       <c r="B735" t="n">
         <v>23</v>
@@ -15924,10 +15878,8 @@
       </c>
     </row>
     <row r="736">
-      <c r="A736" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A736" t="n">
+        <v>20230818</v>
       </c>
       <c r="B736" t="n">
         <v>24</v>
@@ -15947,10 +15899,8 @@
       </c>
     </row>
     <row r="737">
-      <c r="A737" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A737" t="n">
+        <v>20230818</v>
       </c>
       <c r="B737" t="n">
         <v>25</v>
@@ -15970,10 +15920,8 @@
       </c>
     </row>
     <row r="738">
-      <c r="A738" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A738" t="n">
+        <v>20230818</v>
       </c>
       <c r="B738" t="n">
         <v>26</v>
@@ -15993,10 +15941,8 @@
       </c>
     </row>
     <row r="739">
-      <c r="A739" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A739" t="n">
+        <v>20230818</v>
       </c>
       <c r="B739" t="n">
         <v>27</v>
@@ -16016,10 +15962,8 @@
       </c>
     </row>
     <row r="740">
-      <c r="A740" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A740" t="n">
+        <v>20230818</v>
       </c>
       <c r="B740" t="n">
         <v>28</v>
@@ -16039,10 +15983,8 @@
       </c>
     </row>
     <row r="741">
-      <c r="A741" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A741" t="n">
+        <v>20230818</v>
       </c>
       <c r="B741" t="n">
         <v>29</v>
@@ -16062,10 +16004,8 @@
       </c>
     </row>
     <row r="742">
-      <c r="A742" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A742" t="n">
+        <v>20230818</v>
       </c>
       <c r="B742" t="n">
         <v>30</v>
@@ -16085,10 +16025,8 @@
       </c>
     </row>
     <row r="743">
-      <c r="A743" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A743" t="n">
+        <v>20230818</v>
       </c>
       <c r="B743" t="n">
         <v>31</v>
@@ -16108,10 +16046,8 @@
       </c>
     </row>
     <row r="744">
-      <c r="A744" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A744" t="n">
+        <v>20230818</v>
       </c>
       <c r="B744" t="n">
         <v>32</v>
@@ -16131,10 +16067,8 @@
       </c>
     </row>
     <row r="745">
-      <c r="A745" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A745" t="n">
+        <v>20230818</v>
       </c>
       <c r="B745" t="n">
         <v>33</v>
@@ -16154,10 +16088,8 @@
       </c>
     </row>
     <row r="746">
-      <c r="A746" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A746" t="n">
+        <v>20230818</v>
       </c>
       <c r="B746" t="n">
         <v>34</v>
@@ -16177,10 +16109,8 @@
       </c>
     </row>
     <row r="747">
-      <c r="A747" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A747" t="n">
+        <v>20230818</v>
       </c>
       <c r="B747" t="n">
         <v>35</v>
@@ -16200,10 +16130,8 @@
       </c>
     </row>
     <row r="748">
-      <c r="A748" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A748" t="n">
+        <v>20230818</v>
       </c>
       <c r="B748" t="n">
         <v>36</v>
@@ -16223,10 +16151,8 @@
       </c>
     </row>
     <row r="749">
-      <c r="A749" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A749" t="n">
+        <v>20230818</v>
       </c>
       <c r="B749" t="n">
         <v>37</v>
@@ -16246,10 +16172,8 @@
       </c>
     </row>
     <row r="750">
-      <c r="A750" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A750" t="n">
+        <v>20230818</v>
       </c>
       <c r="B750" t="n">
         <v>38</v>
@@ -16269,10 +16193,8 @@
       </c>
     </row>
     <row r="751">
-      <c r="A751" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A751" t="n">
+        <v>20230818</v>
       </c>
       <c r="B751" t="n">
         <v>39</v>
@@ -16292,10 +16214,8 @@
       </c>
     </row>
     <row r="752">
-      <c r="A752" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A752" t="n">
+        <v>20230818</v>
       </c>
       <c r="B752" t="n">
         <v>40</v>
@@ -16315,10 +16235,8 @@
       </c>
     </row>
     <row r="753">
-      <c r="A753" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A753" t="n">
+        <v>20230818</v>
       </c>
       <c r="B753" t="n">
         <v>41</v>
@@ -16338,10 +16256,8 @@
       </c>
     </row>
     <row r="754">
-      <c r="A754" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A754" t="n">
+        <v>20230818</v>
       </c>
       <c r="B754" t="n">
         <v>42</v>
@@ -16361,10 +16277,8 @@
       </c>
     </row>
     <row r="755">
-      <c r="A755" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A755" t="n">
+        <v>20230818</v>
       </c>
       <c r="B755" t="n">
         <v>43</v>
@@ -16384,10 +16298,8 @@
       </c>
     </row>
     <row r="756">
-      <c r="A756" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A756" t="n">
+        <v>20230818</v>
       </c>
       <c r="B756" t="n">
         <v>44</v>
@@ -16407,10 +16319,8 @@
       </c>
     </row>
     <row r="757">
-      <c r="A757" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A757" t="n">
+        <v>20230818</v>
       </c>
       <c r="B757" t="n">
         <v>45</v>
@@ -16430,10 +16340,8 @@
       </c>
     </row>
     <row r="758">
-      <c r="A758" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A758" t="n">
+        <v>20230818</v>
       </c>
       <c r="B758" t="n">
         <v>46</v>
@@ -16453,10 +16361,8 @@
       </c>
     </row>
     <row r="759">
-      <c r="A759" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A759" t="n">
+        <v>20230818</v>
       </c>
       <c r="B759" t="n">
         <v>47</v>
@@ -16476,10 +16382,8 @@
       </c>
     </row>
     <row r="760">
-      <c r="A760" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A760" t="n">
+        <v>20230818</v>
       </c>
       <c r="B760" t="n">
         <v>48</v>
@@ -16499,10 +16403,8 @@
       </c>
     </row>
     <row r="761">
-      <c r="A761" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A761" t="n">
+        <v>20230818</v>
       </c>
       <c r="B761" t="n">
         <v>49</v>
@@ -16522,10 +16424,8 @@
       </c>
     </row>
     <row r="762">
-      <c r="A762" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A762" t="n">
+        <v>20230818</v>
       </c>
       <c r="B762" t="n">
         <v>50</v>
@@ -16545,10 +16445,8 @@
       </c>
     </row>
     <row r="763">
-      <c r="A763" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A763" t="n">
+        <v>20230818</v>
       </c>
       <c r="B763" t="n">
         <v>51</v>
@@ -16568,10 +16466,8 @@
       </c>
     </row>
     <row r="764">
-      <c r="A764" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A764" t="n">
+        <v>20230818</v>
       </c>
       <c r="B764" t="n">
         <v>52</v>
@@ -16591,10 +16487,8 @@
       </c>
     </row>
     <row r="765">
-      <c r="A765" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A765" t="n">
+        <v>20230818</v>
       </c>
       <c r="B765" t="n">
         <v>53</v>
@@ -16614,10 +16508,8 @@
       </c>
     </row>
     <row r="766">
-      <c r="A766" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A766" t="n">
+        <v>20230818</v>
       </c>
       <c r="B766" t="n">
         <v>54</v>
@@ -16637,10 +16529,8 @@
       </c>
     </row>
     <row r="767">
-      <c r="A767" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A767" t="n">
+        <v>20230818</v>
       </c>
       <c r="B767" t="n">
         <v>55</v>
@@ -16660,10 +16550,8 @@
       </c>
     </row>
     <row r="768">
-      <c r="A768" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A768" t="n">
+        <v>20230818</v>
       </c>
       <c r="B768" t="n">
         <v>56</v>
@@ -16683,10 +16571,8 @@
       </c>
     </row>
     <row r="769">
-      <c r="A769" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A769" t="n">
+        <v>20230818</v>
       </c>
       <c r="B769" t="n">
         <v>57</v>
@@ -16706,10 +16592,8 @@
       </c>
     </row>
     <row r="770">
-      <c r="A770" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A770" t="n">
+        <v>20230818</v>
       </c>
       <c r="B770" t="n">
         <v>58</v>
@@ -16729,10 +16613,8 @@
       </c>
     </row>
     <row r="771">
-      <c r="A771" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A771" t="n">
+        <v>20230818</v>
       </c>
       <c r="B771" t="n">
         <v>59</v>
@@ -16752,10 +16634,8 @@
       </c>
     </row>
     <row r="772">
-      <c r="A772" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A772" t="n">
+        <v>20230818</v>
       </c>
       <c r="B772" t="n">
         <v>60</v>
@@ -16775,10 +16655,8 @@
       </c>
     </row>
     <row r="773">
-      <c r="A773" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A773" t="n">
+        <v>20230818</v>
       </c>
       <c r="B773" t="n">
         <v>61</v>
@@ -16798,10 +16676,8 @@
       </c>
     </row>
     <row r="774">
-      <c r="A774" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A774" t="n">
+        <v>20230818</v>
       </c>
       <c r="B774" t="n">
         <v>62</v>
@@ -16821,10 +16697,8 @@
       </c>
     </row>
     <row r="775">
-      <c r="A775" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A775" t="n">
+        <v>20230818</v>
       </c>
       <c r="B775" t="n">
         <v>63</v>
@@ -16844,10 +16718,8 @@
       </c>
     </row>
     <row r="776">
-      <c r="A776" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A776" t="n">
+        <v>20230818</v>
       </c>
       <c r="B776" t="n">
         <v>64</v>
@@ -16867,10 +16739,8 @@
       </c>
     </row>
     <row r="777">
-      <c r="A777" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A777" t="n">
+        <v>20230818</v>
       </c>
       <c r="B777" t="n">
         <v>65</v>
@@ -16890,10 +16760,8 @@
       </c>
     </row>
     <row r="778">
-      <c r="A778" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A778" t="n">
+        <v>20230818</v>
       </c>
       <c r="B778" t="n">
         <v>66</v>
@@ -16913,10 +16781,8 @@
       </c>
     </row>
     <row r="779">
-      <c r="A779" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A779" t="n">
+        <v>20230818</v>
       </c>
       <c r="B779" t="n">
         <v>67</v>
@@ -16936,10 +16802,8 @@
       </c>
     </row>
     <row r="780">
-      <c r="A780" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A780" t="n">
+        <v>20230818</v>
       </c>
       <c r="B780" t="n">
         <v>68</v>
@@ -16959,10 +16823,8 @@
       </c>
     </row>
     <row r="781">
-      <c r="A781" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A781" t="n">
+        <v>20230818</v>
       </c>
       <c r="B781" t="n">
         <v>69</v>
@@ -16982,10 +16844,8 @@
       </c>
     </row>
     <row r="782">
-      <c r="A782" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A782" t="n">
+        <v>20230818</v>
       </c>
       <c r="B782" t="n">
         <v>70</v>
@@ -17005,10 +16865,8 @@
       </c>
     </row>
     <row r="783">
-      <c r="A783" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A783" t="n">
+        <v>20230818</v>
       </c>
       <c r="B783" t="n">
         <v>71</v>
@@ -17028,10 +16886,8 @@
       </c>
     </row>
     <row r="784">
-      <c r="A784" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A784" t="n">
+        <v>20230818</v>
       </c>
       <c r="B784" t="n">
         <v>72</v>
@@ -17051,10 +16907,8 @@
       </c>
     </row>
     <row r="785">
-      <c r="A785" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A785" t="n">
+        <v>20230818</v>
       </c>
       <c r="B785" t="n">
         <v>73</v>
@@ -17074,10 +16928,8 @@
       </c>
     </row>
     <row r="786">
-      <c r="A786" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A786" t="n">
+        <v>20230818</v>
       </c>
       <c r="B786" t="n">
         <v>74</v>
@@ -17097,10 +16949,8 @@
       </c>
     </row>
     <row r="787">
-      <c r="A787" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A787" t="n">
+        <v>20230818</v>
       </c>
       <c r="B787" t="n">
         <v>75</v>
@@ -17120,10 +16970,8 @@
       </c>
     </row>
     <row r="788">
-      <c r="A788" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A788" t="n">
+        <v>20230818</v>
       </c>
       <c r="B788" t="n">
         <v>76</v>
@@ -17143,10 +16991,8 @@
       </c>
     </row>
     <row r="789">
-      <c r="A789" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A789" t="n">
+        <v>20230818</v>
       </c>
       <c r="B789" t="n">
         <v>77</v>
@@ -17166,10 +17012,8 @@
       </c>
     </row>
     <row r="790">
-      <c r="A790" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A790" t="n">
+        <v>20230818</v>
       </c>
       <c r="B790" t="n">
         <v>78</v>
@@ -17189,10 +17033,8 @@
       </c>
     </row>
     <row r="791">
-      <c r="A791" t="inlineStr">
-        <is>
-          <t>20230818</t>
-        </is>
+      <c r="A791" t="n">
+        <v>20230818</v>
       </c>
       <c r="B791" t="n">
         <v>79</v>
@@ -17208,6 +17050,1823 @@
       <c r="E791" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B792" t="n">
+        <v>1</v>
+      </c>
+      <c r="C792" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D792" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B793" t="n">
+        <v>2</v>
+      </c>
+      <c r="C793" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D793" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B794" t="n">
+        <v>3</v>
+      </c>
+      <c r="C794" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D794" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B795" t="n">
+        <v>4</v>
+      </c>
+      <c r="C795" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D795" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B796" t="n">
+        <v>5</v>
+      </c>
+      <c r="C796" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D796" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B797" t="n">
+        <v>6</v>
+      </c>
+      <c r="C797" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D797" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B798" t="n">
+        <v>7</v>
+      </c>
+      <c r="C798" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D798" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B799" t="n">
+        <v>8</v>
+      </c>
+      <c r="C799" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D799" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B800" t="n">
+        <v>9</v>
+      </c>
+      <c r="C800" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D800" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B801" t="n">
+        <v>10</v>
+      </c>
+      <c r="C801" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D801" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B802" t="n">
+        <v>11</v>
+      </c>
+      <c r="C802" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D802" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B803" t="n">
+        <v>12</v>
+      </c>
+      <c r="C803" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D803" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B804" t="n">
+        <v>13</v>
+      </c>
+      <c r="C804" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D804" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B805" t="n">
+        <v>14</v>
+      </c>
+      <c r="C805" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D805" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B806" t="n">
+        <v>15</v>
+      </c>
+      <c r="C806" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D806" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B807" t="n">
+        <v>16</v>
+      </c>
+      <c r="C807" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D807" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B808" t="n">
+        <v>17</v>
+      </c>
+      <c r="C808" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D808" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B809" t="n">
+        <v>18</v>
+      </c>
+      <c r="C809" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D809" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B810" t="n">
+        <v>19</v>
+      </c>
+      <c r="C810" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D810" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B811" t="n">
+        <v>20</v>
+      </c>
+      <c r="C811" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D811" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B812" t="n">
+        <v>21</v>
+      </c>
+      <c r="C812" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D812" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B813" t="n">
+        <v>22</v>
+      </c>
+      <c r="C813" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D813" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B814" t="n">
+        <v>23</v>
+      </c>
+      <c r="C814" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D814" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B815" t="n">
+        <v>24</v>
+      </c>
+      <c r="C815" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D815" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="E815" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B816" t="n">
+        <v>25</v>
+      </c>
+      <c r="C816" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D816" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E816" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B817" t="n">
+        <v>26</v>
+      </c>
+      <c r="C817" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D817" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E817" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B818" t="n">
+        <v>27</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D818" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="E818" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B819" t="n">
+        <v>28</v>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D819" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E819" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B820" t="n">
+        <v>29</v>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D820" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E820" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B821" t="n">
+        <v>30</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D821" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E821" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B822" t="n">
+        <v>31</v>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D822" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="E822" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B823" t="n">
+        <v>32</v>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D823" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E823" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B824" t="n">
+        <v>33</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D824" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E824" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B825" t="n">
+        <v>34</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D825" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E825" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B826" t="n">
+        <v>35</v>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D826" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E826" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B827" t="n">
+        <v>36</v>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D827" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E827" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B828" t="n">
+        <v>37</v>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D828" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E828" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B829" t="n">
+        <v>38</v>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D829" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E829" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B830" t="n">
+        <v>39</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D830" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="E830" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B831" t="n">
+        <v>40</v>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D831" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E831" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B832" t="n">
+        <v>41</v>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D832" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E832" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B833" t="n">
+        <v>42</v>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D833" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="E833" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B834" t="n">
+        <v>43</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D834" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="E834" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B835" t="n">
+        <v>44</v>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D835" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E835" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B836" t="n">
+        <v>45</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D836" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E836" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B837" t="n">
+        <v>46</v>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D837" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E837" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B838" t="n">
+        <v>47</v>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D838" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E838" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B839" t="n">
+        <v>48</v>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D839" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E839" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B840" t="n">
+        <v>49</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D840" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E840" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B841" t="n">
+        <v>50</v>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D841" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E841" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B842" t="n">
+        <v>51</v>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D842" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E842" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B843" t="n">
+        <v>52</v>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D843" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E843" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B844" t="n">
+        <v>53</v>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D844" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E844" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B845" t="n">
+        <v>54</v>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D845" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E845" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B846" t="n">
+        <v>55</v>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D846" t="n">
+        <v>0</v>
+      </c>
+      <c r="E846" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B847" t="n">
+        <v>56</v>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D847" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E847" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B848" t="n">
+        <v>57</v>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D848" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E848" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B849" t="n">
+        <v>58</v>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D849" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="E849" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B850" t="n">
+        <v>59</v>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D850" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E850" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B851" t="n">
+        <v>60</v>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D851" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E851" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B852" t="n">
+        <v>61</v>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D852" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="E852" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B853" t="n">
+        <v>62</v>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D853" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E853" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B854" t="n">
+        <v>63</v>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D854" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="E854" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B855" t="n">
+        <v>64</v>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D855" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E855" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B856" t="n">
+        <v>65</v>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D856" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="E856" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B857" t="n">
+        <v>66</v>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D857" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E857" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B858" t="n">
+        <v>67</v>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D858" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="E858" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B859" t="n">
+        <v>68</v>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D859" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E859" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B860" t="n">
+        <v>69</v>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D860" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="E860" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B861" t="n">
+        <v>70</v>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D861" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
+      <c r="E861" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B862" t="n">
+        <v>71</v>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D862" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="E862" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B863" t="n">
+        <v>72</v>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D863" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E863" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B864" t="n">
+        <v>73</v>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D864" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E864" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B865" t="n">
+        <v>74</v>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D865" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E865" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B866" t="n">
+        <v>75</v>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D866" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="E866" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B867" t="n">
+        <v>76</v>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D867" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="E867" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B868" t="n">
+        <v>77</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D868" t="n">
+        <v>-1.24</v>
+      </c>
+      <c r="E868" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B869" t="n">
+        <v>78</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D869" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="E869" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>20230821</t>
+        </is>
+      </c>
+      <c r="B870" t="n">
+        <v>79</v>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D870" t="n">
+        <v>-3.05</v>
+      </c>
+      <c r="E870" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E870"/>
+  <dimension ref="A1:E949"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -17054,10 +17054,8 @@
       </c>
     </row>
     <row r="792">
-      <c r="A792" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A792" t="n">
+        <v>20230821</v>
       </c>
       <c r="B792" t="n">
         <v>1</v>
@@ -17077,10 +17075,8 @@
       </c>
     </row>
     <row r="793">
-      <c r="A793" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A793" t="n">
+        <v>20230821</v>
       </c>
       <c r="B793" t="n">
         <v>2</v>
@@ -17100,10 +17096,8 @@
       </c>
     </row>
     <row r="794">
-      <c r="A794" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A794" t="n">
+        <v>20230821</v>
       </c>
       <c r="B794" t="n">
         <v>3</v>
@@ -17123,10 +17117,8 @@
       </c>
     </row>
     <row r="795">
-      <c r="A795" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A795" t="n">
+        <v>20230821</v>
       </c>
       <c r="B795" t="n">
         <v>4</v>
@@ -17146,10 +17138,8 @@
       </c>
     </row>
     <row r="796">
-      <c r="A796" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A796" t="n">
+        <v>20230821</v>
       </c>
       <c r="B796" t="n">
         <v>5</v>
@@ -17169,10 +17159,8 @@
       </c>
     </row>
     <row r="797">
-      <c r="A797" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A797" t="n">
+        <v>20230821</v>
       </c>
       <c r="B797" t="n">
         <v>6</v>
@@ -17192,10 +17180,8 @@
       </c>
     </row>
     <row r="798">
-      <c r="A798" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A798" t="n">
+        <v>20230821</v>
       </c>
       <c r="B798" t="n">
         <v>7</v>
@@ -17215,10 +17201,8 @@
       </c>
     </row>
     <row r="799">
-      <c r="A799" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A799" t="n">
+        <v>20230821</v>
       </c>
       <c r="B799" t="n">
         <v>8</v>
@@ -17238,10 +17222,8 @@
       </c>
     </row>
     <row r="800">
-      <c r="A800" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A800" t="n">
+        <v>20230821</v>
       </c>
       <c r="B800" t="n">
         <v>9</v>
@@ -17261,10 +17243,8 @@
       </c>
     </row>
     <row r="801">
-      <c r="A801" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A801" t="n">
+        <v>20230821</v>
       </c>
       <c r="B801" t="n">
         <v>10</v>
@@ -17284,10 +17264,8 @@
       </c>
     </row>
     <row r="802">
-      <c r="A802" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A802" t="n">
+        <v>20230821</v>
       </c>
       <c r="B802" t="n">
         <v>11</v>
@@ -17307,10 +17285,8 @@
       </c>
     </row>
     <row r="803">
-      <c r="A803" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A803" t="n">
+        <v>20230821</v>
       </c>
       <c r="B803" t="n">
         <v>12</v>
@@ -17330,10 +17306,8 @@
       </c>
     </row>
     <row r="804">
-      <c r="A804" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A804" t="n">
+        <v>20230821</v>
       </c>
       <c r="B804" t="n">
         <v>13</v>
@@ -17353,10 +17327,8 @@
       </c>
     </row>
     <row r="805">
-      <c r="A805" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A805" t="n">
+        <v>20230821</v>
       </c>
       <c r="B805" t="n">
         <v>14</v>
@@ -17376,10 +17348,8 @@
       </c>
     </row>
     <row r="806">
-      <c r="A806" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A806" t="n">
+        <v>20230821</v>
       </c>
       <c r="B806" t="n">
         <v>15</v>
@@ -17399,10 +17369,8 @@
       </c>
     </row>
     <row r="807">
-      <c r="A807" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A807" t="n">
+        <v>20230821</v>
       </c>
       <c r="B807" t="n">
         <v>16</v>
@@ -17422,10 +17390,8 @@
       </c>
     </row>
     <row r="808">
-      <c r="A808" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A808" t="n">
+        <v>20230821</v>
       </c>
       <c r="B808" t="n">
         <v>17</v>
@@ -17445,10 +17411,8 @@
       </c>
     </row>
     <row r="809">
-      <c r="A809" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A809" t="n">
+        <v>20230821</v>
       </c>
       <c r="B809" t="n">
         <v>18</v>
@@ -17468,10 +17432,8 @@
       </c>
     </row>
     <row r="810">
-      <c r="A810" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A810" t="n">
+        <v>20230821</v>
       </c>
       <c r="B810" t="n">
         <v>19</v>
@@ -17491,10 +17453,8 @@
       </c>
     </row>
     <row r="811">
-      <c r="A811" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A811" t="n">
+        <v>20230821</v>
       </c>
       <c r="B811" t="n">
         <v>20</v>
@@ -17514,10 +17474,8 @@
       </c>
     </row>
     <row r="812">
-      <c r="A812" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A812" t="n">
+        <v>20230821</v>
       </c>
       <c r="B812" t="n">
         <v>21</v>
@@ -17537,10 +17495,8 @@
       </c>
     </row>
     <row r="813">
-      <c r="A813" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A813" t="n">
+        <v>20230821</v>
       </c>
       <c r="B813" t="n">
         <v>22</v>
@@ -17560,10 +17516,8 @@
       </c>
     </row>
     <row r="814">
-      <c r="A814" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A814" t="n">
+        <v>20230821</v>
       </c>
       <c r="B814" t="n">
         <v>23</v>
@@ -17583,10 +17537,8 @@
       </c>
     </row>
     <row r="815">
-      <c r="A815" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A815" t="n">
+        <v>20230821</v>
       </c>
       <c r="B815" t="n">
         <v>24</v>
@@ -17606,10 +17558,8 @@
       </c>
     </row>
     <row r="816">
-      <c r="A816" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A816" t="n">
+        <v>20230821</v>
       </c>
       <c r="B816" t="n">
         <v>25</v>
@@ -17629,10 +17579,8 @@
       </c>
     </row>
     <row r="817">
-      <c r="A817" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A817" t="n">
+        <v>20230821</v>
       </c>
       <c r="B817" t="n">
         <v>26</v>
@@ -17652,10 +17600,8 @@
       </c>
     </row>
     <row r="818">
-      <c r="A818" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A818" t="n">
+        <v>20230821</v>
       </c>
       <c r="B818" t="n">
         <v>27</v>
@@ -17675,10 +17621,8 @@
       </c>
     </row>
     <row r="819">
-      <c r="A819" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A819" t="n">
+        <v>20230821</v>
       </c>
       <c r="B819" t="n">
         <v>28</v>
@@ -17698,10 +17642,8 @@
       </c>
     </row>
     <row r="820">
-      <c r="A820" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A820" t="n">
+        <v>20230821</v>
       </c>
       <c r="B820" t="n">
         <v>29</v>
@@ -17721,10 +17663,8 @@
       </c>
     </row>
     <row r="821">
-      <c r="A821" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A821" t="n">
+        <v>20230821</v>
       </c>
       <c r="B821" t="n">
         <v>30</v>
@@ -17744,10 +17684,8 @@
       </c>
     </row>
     <row r="822">
-      <c r="A822" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A822" t="n">
+        <v>20230821</v>
       </c>
       <c r="B822" t="n">
         <v>31</v>
@@ -17767,10 +17705,8 @@
       </c>
     </row>
     <row r="823">
-      <c r="A823" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A823" t="n">
+        <v>20230821</v>
       </c>
       <c r="B823" t="n">
         <v>32</v>
@@ -17790,10 +17726,8 @@
       </c>
     </row>
     <row r="824">
-      <c r="A824" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A824" t="n">
+        <v>20230821</v>
       </c>
       <c r="B824" t="n">
         <v>33</v>
@@ -17813,10 +17747,8 @@
       </c>
     </row>
     <row r="825">
-      <c r="A825" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A825" t="n">
+        <v>20230821</v>
       </c>
       <c r="B825" t="n">
         <v>34</v>
@@ -17836,10 +17768,8 @@
       </c>
     </row>
     <row r="826">
-      <c r="A826" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A826" t="n">
+        <v>20230821</v>
       </c>
       <c r="B826" t="n">
         <v>35</v>
@@ -17859,10 +17789,8 @@
       </c>
     </row>
     <row r="827">
-      <c r="A827" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A827" t="n">
+        <v>20230821</v>
       </c>
       <c r="B827" t="n">
         <v>36</v>
@@ -17882,10 +17810,8 @@
       </c>
     </row>
     <row r="828">
-      <c r="A828" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A828" t="n">
+        <v>20230821</v>
       </c>
       <c r="B828" t="n">
         <v>37</v>
@@ -17905,10 +17831,8 @@
       </c>
     </row>
     <row r="829">
-      <c r="A829" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A829" t="n">
+        <v>20230821</v>
       </c>
       <c r="B829" t="n">
         <v>38</v>
@@ -17928,10 +17852,8 @@
       </c>
     </row>
     <row r="830">
-      <c r="A830" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A830" t="n">
+        <v>20230821</v>
       </c>
       <c r="B830" t="n">
         <v>39</v>
@@ -17951,10 +17873,8 @@
       </c>
     </row>
     <row r="831">
-      <c r="A831" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A831" t="n">
+        <v>20230821</v>
       </c>
       <c r="B831" t="n">
         <v>40</v>
@@ -17974,10 +17894,8 @@
       </c>
     </row>
     <row r="832">
-      <c r="A832" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A832" t="n">
+        <v>20230821</v>
       </c>
       <c r="B832" t="n">
         <v>41</v>
@@ -17997,10 +17915,8 @@
       </c>
     </row>
     <row r="833">
-      <c r="A833" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A833" t="n">
+        <v>20230821</v>
       </c>
       <c r="B833" t="n">
         <v>42</v>
@@ -18020,10 +17936,8 @@
       </c>
     </row>
     <row r="834">
-      <c r="A834" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A834" t="n">
+        <v>20230821</v>
       </c>
       <c r="B834" t="n">
         <v>43</v>
@@ -18043,10 +17957,8 @@
       </c>
     </row>
     <row r="835">
-      <c r="A835" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A835" t="n">
+        <v>20230821</v>
       </c>
       <c r="B835" t="n">
         <v>44</v>
@@ -18066,10 +17978,8 @@
       </c>
     </row>
     <row r="836">
-      <c r="A836" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A836" t="n">
+        <v>20230821</v>
       </c>
       <c r="B836" t="n">
         <v>45</v>
@@ -18089,10 +17999,8 @@
       </c>
     </row>
     <row r="837">
-      <c r="A837" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A837" t="n">
+        <v>20230821</v>
       </c>
       <c r="B837" t="n">
         <v>46</v>
@@ -18112,10 +18020,8 @@
       </c>
     </row>
     <row r="838">
-      <c r="A838" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A838" t="n">
+        <v>20230821</v>
       </c>
       <c r="B838" t="n">
         <v>47</v>
@@ -18135,10 +18041,8 @@
       </c>
     </row>
     <row r="839">
-      <c r="A839" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A839" t="n">
+        <v>20230821</v>
       </c>
       <c r="B839" t="n">
         <v>48</v>
@@ -18158,10 +18062,8 @@
       </c>
     </row>
     <row r="840">
-      <c r="A840" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A840" t="n">
+        <v>20230821</v>
       </c>
       <c r="B840" t="n">
         <v>49</v>
@@ -18181,10 +18083,8 @@
       </c>
     </row>
     <row r="841">
-      <c r="A841" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A841" t="n">
+        <v>20230821</v>
       </c>
       <c r="B841" t="n">
         <v>50</v>
@@ -18204,10 +18104,8 @@
       </c>
     </row>
     <row r="842">
-      <c r="A842" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A842" t="n">
+        <v>20230821</v>
       </c>
       <c r="B842" t="n">
         <v>51</v>
@@ -18227,10 +18125,8 @@
       </c>
     </row>
     <row r="843">
-      <c r="A843" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A843" t="n">
+        <v>20230821</v>
       </c>
       <c r="B843" t="n">
         <v>52</v>
@@ -18250,10 +18146,8 @@
       </c>
     </row>
     <row r="844">
-      <c r="A844" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A844" t="n">
+        <v>20230821</v>
       </c>
       <c r="B844" t="n">
         <v>53</v>
@@ -18273,10 +18167,8 @@
       </c>
     </row>
     <row r="845">
-      <c r="A845" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A845" t="n">
+        <v>20230821</v>
       </c>
       <c r="B845" t="n">
         <v>54</v>
@@ -18296,10 +18188,8 @@
       </c>
     </row>
     <row r="846">
-      <c r="A846" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A846" t="n">
+        <v>20230821</v>
       </c>
       <c r="B846" t="n">
         <v>55</v>
@@ -18319,10 +18209,8 @@
       </c>
     </row>
     <row r="847">
-      <c r="A847" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A847" t="n">
+        <v>20230821</v>
       </c>
       <c r="B847" t="n">
         <v>56</v>
@@ -18342,10 +18230,8 @@
       </c>
     </row>
     <row r="848">
-      <c r="A848" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A848" t="n">
+        <v>20230821</v>
       </c>
       <c r="B848" t="n">
         <v>57</v>
@@ -18365,10 +18251,8 @@
       </c>
     </row>
     <row r="849">
-      <c r="A849" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A849" t="n">
+        <v>20230821</v>
       </c>
       <c r="B849" t="n">
         <v>58</v>
@@ -18388,10 +18272,8 @@
       </c>
     </row>
     <row r="850">
-      <c r="A850" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A850" t="n">
+        <v>20230821</v>
       </c>
       <c r="B850" t="n">
         <v>59</v>
@@ -18411,10 +18293,8 @@
       </c>
     </row>
     <row r="851">
-      <c r="A851" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A851" t="n">
+        <v>20230821</v>
       </c>
       <c r="B851" t="n">
         <v>60</v>
@@ -18434,10 +18314,8 @@
       </c>
     </row>
     <row r="852">
-      <c r="A852" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A852" t="n">
+        <v>20230821</v>
       </c>
       <c r="B852" t="n">
         <v>61</v>
@@ -18457,10 +18335,8 @@
       </c>
     </row>
     <row r="853">
-      <c r="A853" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A853" t="n">
+        <v>20230821</v>
       </c>
       <c r="B853" t="n">
         <v>62</v>
@@ -18480,10 +18356,8 @@
       </c>
     </row>
     <row r="854">
-      <c r="A854" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A854" t="n">
+        <v>20230821</v>
       </c>
       <c r="B854" t="n">
         <v>63</v>
@@ -18503,10 +18377,8 @@
       </c>
     </row>
     <row r="855">
-      <c r="A855" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A855" t="n">
+        <v>20230821</v>
       </c>
       <c r="B855" t="n">
         <v>64</v>
@@ -18526,10 +18398,8 @@
       </c>
     </row>
     <row r="856">
-      <c r="A856" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A856" t="n">
+        <v>20230821</v>
       </c>
       <c r="B856" t="n">
         <v>65</v>
@@ -18549,10 +18419,8 @@
       </c>
     </row>
     <row r="857">
-      <c r="A857" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A857" t="n">
+        <v>20230821</v>
       </c>
       <c r="B857" t="n">
         <v>66</v>
@@ -18572,10 +18440,8 @@
       </c>
     </row>
     <row r="858">
-      <c r="A858" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A858" t="n">
+        <v>20230821</v>
       </c>
       <c r="B858" t="n">
         <v>67</v>
@@ -18595,10 +18461,8 @@
       </c>
     </row>
     <row r="859">
-      <c r="A859" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A859" t="n">
+        <v>20230821</v>
       </c>
       <c r="B859" t="n">
         <v>68</v>
@@ -18618,10 +18482,8 @@
       </c>
     </row>
     <row r="860">
-      <c r="A860" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A860" t="n">
+        <v>20230821</v>
       </c>
       <c r="B860" t="n">
         <v>69</v>
@@ -18641,10 +18503,8 @@
       </c>
     </row>
     <row r="861">
-      <c r="A861" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A861" t="n">
+        <v>20230821</v>
       </c>
       <c r="B861" t="n">
         <v>70</v>
@@ -18664,10 +18524,8 @@
       </c>
     </row>
     <row r="862">
-      <c r="A862" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A862" t="n">
+        <v>20230821</v>
       </c>
       <c r="B862" t="n">
         <v>71</v>
@@ -18687,10 +18545,8 @@
       </c>
     </row>
     <row r="863">
-      <c r="A863" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A863" t="n">
+        <v>20230821</v>
       </c>
       <c r="B863" t="n">
         <v>72</v>
@@ -18710,10 +18566,8 @@
       </c>
     </row>
     <row r="864">
-      <c r="A864" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A864" t="n">
+        <v>20230821</v>
       </c>
       <c r="B864" t="n">
         <v>73</v>
@@ -18733,10 +18587,8 @@
       </c>
     </row>
     <row r="865">
-      <c r="A865" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A865" t="n">
+        <v>20230821</v>
       </c>
       <c r="B865" t="n">
         <v>74</v>
@@ -18756,10 +18608,8 @@
       </c>
     </row>
     <row r="866">
-      <c r="A866" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A866" t="n">
+        <v>20230821</v>
       </c>
       <c r="B866" t="n">
         <v>75</v>
@@ -18779,10 +18629,8 @@
       </c>
     </row>
     <row r="867">
-      <c r="A867" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A867" t="n">
+        <v>20230821</v>
       </c>
       <c r="B867" t="n">
         <v>76</v>
@@ -18802,10 +18650,8 @@
       </c>
     </row>
     <row r="868">
-      <c r="A868" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A868" t="n">
+        <v>20230821</v>
       </c>
       <c r="B868" t="n">
         <v>77</v>
@@ -18825,10 +18671,8 @@
       </c>
     </row>
     <row r="869">
-      <c r="A869" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A869" t="n">
+        <v>20230821</v>
       </c>
       <c r="B869" t="n">
         <v>78</v>
@@ -18848,10 +18692,8 @@
       </c>
     </row>
     <row r="870">
-      <c r="A870" t="inlineStr">
-        <is>
-          <t>20230821</t>
-        </is>
+      <c r="A870" t="n">
+        <v>20230821</v>
       </c>
       <c r="B870" t="n">
         <v>79</v>
@@ -18867,6 +18709,1823 @@
       <c r="E870" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B871" t="n">
+        <v>1</v>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D871" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E871" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B872" t="n">
+        <v>2</v>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D872" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E872" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B873" t="n">
+        <v>3</v>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D873" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E873" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B874" t="n">
+        <v>4</v>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D874" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E874" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B875" t="n">
+        <v>5</v>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D875" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E875" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B876" t="n">
+        <v>6</v>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D876" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E876" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B877" t="n">
+        <v>7</v>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D877" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E877" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B878" t="n">
+        <v>8</v>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D878" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E878" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B879" t="n">
+        <v>9</v>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D879" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E879" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B880" t="n">
+        <v>10</v>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D880" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E880" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B881" t="n">
+        <v>11</v>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D881" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E881" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B882" t="n">
+        <v>12</v>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D882" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="E882" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B883" t="n">
+        <v>13</v>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D883" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E883" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B884" t="n">
+        <v>14</v>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D884" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E884" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B885" t="n">
+        <v>15</v>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D885" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E885" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B886" t="n">
+        <v>16</v>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D886" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="E886" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B887" t="n">
+        <v>17</v>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D887" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="E887" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B888" t="n">
+        <v>18</v>
+      </c>
+      <c r="C888" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D888" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="E888" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B889" t="n">
+        <v>19</v>
+      </c>
+      <c r="C889" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D889" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="E889" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B890" t="n">
+        <v>20</v>
+      </c>
+      <c r="C890" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D890" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="E890" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B891" t="n">
+        <v>21</v>
+      </c>
+      <c r="C891" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D891" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="E891" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B892" t="n">
+        <v>22</v>
+      </c>
+      <c r="C892" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D892" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E892" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B893" t="n">
+        <v>23</v>
+      </c>
+      <c r="C893" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D893" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E893" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B894" t="n">
+        <v>24</v>
+      </c>
+      <c r="C894" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D894" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="E894" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B895" t="n">
+        <v>25</v>
+      </c>
+      <c r="C895" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D895" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="E895" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B896" t="n">
+        <v>26</v>
+      </c>
+      <c r="C896" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D896" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="E896" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B897" t="n">
+        <v>27</v>
+      </c>
+      <c r="C897" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D897" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="E897" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B898" t="n">
+        <v>28</v>
+      </c>
+      <c r="C898" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D898" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="E898" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B899" t="n">
+        <v>29</v>
+      </c>
+      <c r="C899" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D899" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="E899" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B900" t="n">
+        <v>30</v>
+      </c>
+      <c r="C900" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D900" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="E900" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B901" t="n">
+        <v>31</v>
+      </c>
+      <c r="C901" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D901" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="E901" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B902" t="n">
+        <v>32</v>
+      </c>
+      <c r="C902" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D902" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="E902" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B903" t="n">
+        <v>33</v>
+      </c>
+      <c r="C903" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D903" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E903" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B904" t="n">
+        <v>34</v>
+      </c>
+      <c r="C904" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D904" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="E904" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B905" t="n">
+        <v>35</v>
+      </c>
+      <c r="C905" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D905" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="E905" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B906" t="n">
+        <v>36</v>
+      </c>
+      <c r="C906" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D906" t="n">
+        <v>-0.93</v>
+      </c>
+      <c r="E906" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B907" t="n">
+        <v>37</v>
+      </c>
+      <c r="C907" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D907" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="E907" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B908" t="n">
+        <v>38</v>
+      </c>
+      <c r="C908" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D908" t="n">
+        <v>-1.03</v>
+      </c>
+      <c r="E908" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B909" t="n">
+        <v>39</v>
+      </c>
+      <c r="C909" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D909" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E909" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B910" t="n">
+        <v>40</v>
+      </c>
+      <c r="C910" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D910" t="n">
+        <v>-1.05</v>
+      </c>
+      <c r="E910" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B911" t="n">
+        <v>41</v>
+      </c>
+      <c r="C911" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D911" t="n">
+        <v>-1.09</v>
+      </c>
+      <c r="E911" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B912" t="n">
+        <v>42</v>
+      </c>
+      <c r="C912" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D912" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="E912" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B913" t="n">
+        <v>43</v>
+      </c>
+      <c r="C913" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D913" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="E913" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B914" t="n">
+        <v>44</v>
+      </c>
+      <c r="C914" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D914" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="E914" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B915" t="n">
+        <v>45</v>
+      </c>
+      <c r="C915" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D915" t="n">
+        <v>-1.28</v>
+      </c>
+      <c r="E915" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B916" t="n">
+        <v>46</v>
+      </c>
+      <c r="C916" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D916" t="n">
+        <v>-1.36</v>
+      </c>
+      <c r="E916" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B917" t="n">
+        <v>47</v>
+      </c>
+      <c r="C917" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D917" t="n">
+        <v>-1.41</v>
+      </c>
+      <c r="E917" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B918" t="n">
+        <v>48</v>
+      </c>
+      <c r="C918" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D918" t="n">
+        <v>-1.43</v>
+      </c>
+      <c r="E918" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B919" t="n">
+        <v>49</v>
+      </c>
+      <c r="C919" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D919" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="E919" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B920" t="n">
+        <v>50</v>
+      </c>
+      <c r="C920" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D920" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="E920" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B921" t="n">
+        <v>51</v>
+      </c>
+      <c r="C921" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D921" t="n">
+        <v>-1.51</v>
+      </c>
+      <c r="E921" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B922" t="n">
+        <v>52</v>
+      </c>
+      <c r="C922" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D922" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="E922" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B923" t="n">
+        <v>53</v>
+      </c>
+      <c r="C923" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D923" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="E923" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B924" t="n">
+        <v>54</v>
+      </c>
+      <c r="C924" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D924" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="E924" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B925" t="n">
+        <v>55</v>
+      </c>
+      <c r="C925" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D925" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="E925" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B926" t="n">
+        <v>56</v>
+      </c>
+      <c r="C926" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D926" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="E926" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B927" t="n">
+        <v>57</v>
+      </c>
+      <c r="C927" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D927" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="E927" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B928" t="n">
+        <v>58</v>
+      </c>
+      <c r="C928" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D928" t="n">
+        <v>-1.77</v>
+      </c>
+      <c r="E928" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B929" t="n">
+        <v>59</v>
+      </c>
+      <c r="C929" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D929" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="E929" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B930" t="n">
+        <v>60</v>
+      </c>
+      <c r="C930" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D930" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="E930" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B931" t="n">
+        <v>61</v>
+      </c>
+      <c r="C931" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D931" t="n">
+        <v>-1.81</v>
+      </c>
+      <c r="E931" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B932" t="n">
+        <v>62</v>
+      </c>
+      <c r="C932" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D932" t="n">
+        <v>-1.83</v>
+      </c>
+      <c r="E932" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B933" t="n">
+        <v>63</v>
+      </c>
+      <c r="C933" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D933" t="n">
+        <v>-1.89</v>
+      </c>
+      <c r="E933" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B934" t="n">
+        <v>64</v>
+      </c>
+      <c r="C934" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D934" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="E934" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B935" t="n">
+        <v>65</v>
+      </c>
+      <c r="C935" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D935" t="n">
+        <v>-1.91</v>
+      </c>
+      <c r="E935" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B936" t="n">
+        <v>66</v>
+      </c>
+      <c r="C936" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D936" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="E936" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B937" t="n">
+        <v>67</v>
+      </c>
+      <c r="C937" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D937" t="n">
+        <v>-2.06</v>
+      </c>
+      <c r="E937" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B938" t="n">
+        <v>68</v>
+      </c>
+      <c r="C938" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D938" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="E938" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B939" t="n">
+        <v>69</v>
+      </c>
+      <c r="C939" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D939" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="E939" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B940" t="n">
+        <v>70</v>
+      </c>
+      <c r="C940" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D940" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="E940" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B941" t="n">
+        <v>71</v>
+      </c>
+      <c r="C941" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D941" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="E941" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B942" t="n">
+        <v>72</v>
+      </c>
+      <c r="C942" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D942" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="E942" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B943" t="n">
+        <v>73</v>
+      </c>
+      <c r="C943" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D943" t="n">
+        <v>-2.41</v>
+      </c>
+      <c r="E943" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B944" t="n">
+        <v>74</v>
+      </c>
+      <c r="C944" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D944" t="n">
+        <v>-2.46</v>
+      </c>
+      <c r="E944" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B945" t="n">
+        <v>75</v>
+      </c>
+      <c r="C945" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D945" t="n">
+        <v>-2.47</v>
+      </c>
+      <c r="E945" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B946" t="n">
+        <v>76</v>
+      </c>
+      <c r="C946" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D946" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="E946" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B947" t="n">
+        <v>77</v>
+      </c>
+      <c r="C947" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D947" t="n">
+        <v>-2.53</v>
+      </c>
+      <c r="E947" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B948" t="n">
+        <v>78</v>
+      </c>
+      <c r="C948" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D948" t="n">
+        <v>-2.68</v>
+      </c>
+      <c r="E948" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="inlineStr">
+        <is>
+          <t>20230907</t>
+        </is>
+      </c>
+      <c r="B949" t="n">
+        <v>79</v>
+      </c>
+      <c r="C949" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D949" t="n">
+        <v>-3.15</v>
+      </c>
+      <c r="E949" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E949"/>
+  <dimension ref="A1:E1028"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -18713,10 +18713,8 @@
       </c>
     </row>
     <row r="871">
-      <c r="A871" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A871" t="n">
+        <v>20230907</v>
       </c>
       <c r="B871" t="n">
         <v>1</v>
@@ -18736,10 +18734,8 @@
       </c>
     </row>
     <row r="872">
-      <c r="A872" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A872" t="n">
+        <v>20230907</v>
       </c>
       <c r="B872" t="n">
         <v>2</v>
@@ -18759,10 +18755,8 @@
       </c>
     </row>
     <row r="873">
-      <c r="A873" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A873" t="n">
+        <v>20230907</v>
       </c>
       <c r="B873" t="n">
         <v>3</v>
@@ -18782,10 +18776,8 @@
       </c>
     </row>
     <row r="874">
-      <c r="A874" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A874" t="n">
+        <v>20230907</v>
       </c>
       <c r="B874" t="n">
         <v>4</v>
@@ -18805,10 +18797,8 @@
       </c>
     </row>
     <row r="875">
-      <c r="A875" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A875" t="n">
+        <v>20230907</v>
       </c>
       <c r="B875" t="n">
         <v>5</v>
@@ -18828,10 +18818,8 @@
       </c>
     </row>
     <row r="876">
-      <c r="A876" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A876" t="n">
+        <v>20230907</v>
       </c>
       <c r="B876" t="n">
         <v>6</v>
@@ -18851,10 +18839,8 @@
       </c>
     </row>
     <row r="877">
-      <c r="A877" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A877" t="n">
+        <v>20230907</v>
       </c>
       <c r="B877" t="n">
         <v>7</v>
@@ -18874,10 +18860,8 @@
       </c>
     </row>
     <row r="878">
-      <c r="A878" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A878" t="n">
+        <v>20230907</v>
       </c>
       <c r="B878" t="n">
         <v>8</v>
@@ -18897,10 +18881,8 @@
       </c>
     </row>
     <row r="879">
-      <c r="A879" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A879" t="n">
+        <v>20230907</v>
       </c>
       <c r="B879" t="n">
         <v>9</v>
@@ -18920,10 +18902,8 @@
       </c>
     </row>
     <row r="880">
-      <c r="A880" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A880" t="n">
+        <v>20230907</v>
       </c>
       <c r="B880" t="n">
         <v>10</v>
@@ -18943,10 +18923,8 @@
       </c>
     </row>
     <row r="881">
-      <c r="A881" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A881" t="n">
+        <v>20230907</v>
       </c>
       <c r="B881" t="n">
         <v>11</v>
@@ -18966,10 +18944,8 @@
       </c>
     </row>
     <row r="882">
-      <c r="A882" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A882" t="n">
+        <v>20230907</v>
       </c>
       <c r="B882" t="n">
         <v>12</v>
@@ -18989,10 +18965,8 @@
       </c>
     </row>
     <row r="883">
-      <c r="A883" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A883" t="n">
+        <v>20230907</v>
       </c>
       <c r="B883" t="n">
         <v>13</v>
@@ -19012,10 +18986,8 @@
       </c>
     </row>
     <row r="884">
-      <c r="A884" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A884" t="n">
+        <v>20230907</v>
       </c>
       <c r="B884" t="n">
         <v>14</v>
@@ -19035,10 +19007,8 @@
       </c>
     </row>
     <row r="885">
-      <c r="A885" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A885" t="n">
+        <v>20230907</v>
       </c>
       <c r="B885" t="n">
         <v>15</v>
@@ -19058,10 +19028,8 @@
       </c>
     </row>
     <row r="886">
-      <c r="A886" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A886" t="n">
+        <v>20230907</v>
       </c>
       <c r="B886" t="n">
         <v>16</v>
@@ -19081,10 +19049,8 @@
       </c>
     </row>
     <row r="887">
-      <c r="A887" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A887" t="n">
+        <v>20230907</v>
       </c>
       <c r="B887" t="n">
         <v>17</v>
@@ -19104,10 +19070,8 @@
       </c>
     </row>
     <row r="888">
-      <c r="A888" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A888" t="n">
+        <v>20230907</v>
       </c>
       <c r="B888" t="n">
         <v>18</v>
@@ -19127,10 +19091,8 @@
       </c>
     </row>
     <row r="889">
-      <c r="A889" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A889" t="n">
+        <v>20230907</v>
       </c>
       <c r="B889" t="n">
         <v>19</v>
@@ -19150,10 +19112,8 @@
       </c>
     </row>
     <row r="890">
-      <c r="A890" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A890" t="n">
+        <v>20230907</v>
       </c>
       <c r="B890" t="n">
         <v>20</v>
@@ -19173,10 +19133,8 @@
       </c>
     </row>
     <row r="891">
-      <c r="A891" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A891" t="n">
+        <v>20230907</v>
       </c>
       <c r="B891" t="n">
         <v>21</v>
@@ -19196,10 +19154,8 @@
       </c>
     </row>
     <row r="892">
-      <c r="A892" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A892" t="n">
+        <v>20230907</v>
       </c>
       <c r="B892" t="n">
         <v>22</v>
@@ -19219,10 +19175,8 @@
       </c>
     </row>
     <row r="893">
-      <c r="A893" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A893" t="n">
+        <v>20230907</v>
       </c>
       <c r="B893" t="n">
         <v>23</v>
@@ -19242,10 +19196,8 @@
       </c>
     </row>
     <row r="894">
-      <c r="A894" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A894" t="n">
+        <v>20230907</v>
       </c>
       <c r="B894" t="n">
         <v>24</v>
@@ -19265,10 +19217,8 @@
       </c>
     </row>
     <row r="895">
-      <c r="A895" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A895" t="n">
+        <v>20230907</v>
       </c>
       <c r="B895" t="n">
         <v>25</v>
@@ -19288,10 +19238,8 @@
       </c>
     </row>
     <row r="896">
-      <c r="A896" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A896" t="n">
+        <v>20230907</v>
       </c>
       <c r="B896" t="n">
         <v>26</v>
@@ -19311,10 +19259,8 @@
       </c>
     </row>
     <row r="897">
-      <c r="A897" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A897" t="n">
+        <v>20230907</v>
       </c>
       <c r="B897" t="n">
         <v>27</v>
@@ -19334,10 +19280,8 @@
       </c>
     </row>
     <row r="898">
-      <c r="A898" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A898" t="n">
+        <v>20230907</v>
       </c>
       <c r="B898" t="n">
         <v>28</v>
@@ -19357,10 +19301,8 @@
       </c>
     </row>
     <row r="899">
-      <c r="A899" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A899" t="n">
+        <v>20230907</v>
       </c>
       <c r="B899" t="n">
         <v>29</v>
@@ -19380,10 +19322,8 @@
       </c>
     </row>
     <row r="900">
-      <c r="A900" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A900" t="n">
+        <v>20230907</v>
       </c>
       <c r="B900" t="n">
         <v>30</v>
@@ -19403,10 +19343,8 @@
       </c>
     </row>
     <row r="901">
-      <c r="A901" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A901" t="n">
+        <v>20230907</v>
       </c>
       <c r="B901" t="n">
         <v>31</v>
@@ -19426,10 +19364,8 @@
       </c>
     </row>
     <row r="902">
-      <c r="A902" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A902" t="n">
+        <v>20230907</v>
       </c>
       <c r="B902" t="n">
         <v>32</v>
@@ -19449,10 +19385,8 @@
       </c>
     </row>
     <row r="903">
-      <c r="A903" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A903" t="n">
+        <v>20230907</v>
       </c>
       <c r="B903" t="n">
         <v>33</v>
@@ -19472,10 +19406,8 @@
       </c>
     </row>
     <row r="904">
-      <c r="A904" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A904" t="n">
+        <v>20230907</v>
       </c>
       <c r="B904" t="n">
         <v>34</v>
@@ -19495,10 +19427,8 @@
       </c>
     </row>
     <row r="905">
-      <c r="A905" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A905" t="n">
+        <v>20230907</v>
       </c>
       <c r="B905" t="n">
         <v>35</v>
@@ -19518,10 +19448,8 @@
       </c>
     </row>
     <row r="906">
-      <c r="A906" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A906" t="n">
+        <v>20230907</v>
       </c>
       <c r="B906" t="n">
         <v>36</v>
@@ -19541,10 +19469,8 @@
       </c>
     </row>
     <row r="907">
-      <c r="A907" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A907" t="n">
+        <v>20230907</v>
       </c>
       <c r="B907" t="n">
         <v>37</v>
@@ -19564,10 +19490,8 @@
       </c>
     </row>
     <row r="908">
-      <c r="A908" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A908" t="n">
+        <v>20230907</v>
       </c>
       <c r="B908" t="n">
         <v>38</v>
@@ -19587,10 +19511,8 @@
       </c>
     </row>
     <row r="909">
-      <c r="A909" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A909" t="n">
+        <v>20230907</v>
       </c>
       <c r="B909" t="n">
         <v>39</v>
@@ -19610,10 +19532,8 @@
       </c>
     </row>
     <row r="910">
-      <c r="A910" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A910" t="n">
+        <v>20230907</v>
       </c>
       <c r="B910" t="n">
         <v>40</v>
@@ -19633,10 +19553,8 @@
       </c>
     </row>
     <row r="911">
-      <c r="A911" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A911" t="n">
+        <v>20230907</v>
       </c>
       <c r="B911" t="n">
         <v>41</v>
@@ -19656,10 +19574,8 @@
       </c>
     </row>
     <row r="912">
-      <c r="A912" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A912" t="n">
+        <v>20230907</v>
       </c>
       <c r="B912" t="n">
         <v>42</v>
@@ -19679,10 +19595,8 @@
       </c>
     </row>
     <row r="913">
-      <c r="A913" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A913" t="n">
+        <v>20230907</v>
       </c>
       <c r="B913" t="n">
         <v>43</v>
@@ -19702,10 +19616,8 @@
       </c>
     </row>
     <row r="914">
-      <c r="A914" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A914" t="n">
+        <v>20230907</v>
       </c>
       <c r="B914" t="n">
         <v>44</v>
@@ -19725,10 +19637,8 @@
       </c>
     </row>
     <row r="915">
-      <c r="A915" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A915" t="n">
+        <v>20230907</v>
       </c>
       <c r="B915" t="n">
         <v>45</v>
@@ -19748,10 +19658,8 @@
       </c>
     </row>
     <row r="916">
-      <c r="A916" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A916" t="n">
+        <v>20230907</v>
       </c>
       <c r="B916" t="n">
         <v>46</v>
@@ -19771,10 +19679,8 @@
       </c>
     </row>
     <row r="917">
-      <c r="A917" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A917" t="n">
+        <v>20230907</v>
       </c>
       <c r="B917" t="n">
         <v>47</v>
@@ -19794,10 +19700,8 @@
       </c>
     </row>
     <row r="918">
-      <c r="A918" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A918" t="n">
+        <v>20230907</v>
       </c>
       <c r="B918" t="n">
         <v>48</v>
@@ -19817,10 +19721,8 @@
       </c>
     </row>
     <row r="919">
-      <c r="A919" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A919" t="n">
+        <v>20230907</v>
       </c>
       <c r="B919" t="n">
         <v>49</v>
@@ -19840,10 +19742,8 @@
       </c>
     </row>
     <row r="920">
-      <c r="A920" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A920" t="n">
+        <v>20230907</v>
       </c>
       <c r="B920" t="n">
         <v>50</v>
@@ -19863,10 +19763,8 @@
       </c>
     </row>
     <row r="921">
-      <c r="A921" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A921" t="n">
+        <v>20230907</v>
       </c>
       <c r="B921" t="n">
         <v>51</v>
@@ -19886,10 +19784,8 @@
       </c>
     </row>
     <row r="922">
-      <c r="A922" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A922" t="n">
+        <v>20230907</v>
       </c>
       <c r="B922" t="n">
         <v>52</v>
@@ -19909,10 +19805,8 @@
       </c>
     </row>
     <row r="923">
-      <c r="A923" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A923" t="n">
+        <v>20230907</v>
       </c>
       <c r="B923" t="n">
         <v>53</v>
@@ -19932,10 +19826,8 @@
       </c>
     </row>
     <row r="924">
-      <c r="A924" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A924" t="n">
+        <v>20230907</v>
       </c>
       <c r="B924" t="n">
         <v>54</v>
@@ -19955,10 +19847,8 @@
       </c>
     </row>
     <row r="925">
-      <c r="A925" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A925" t="n">
+        <v>20230907</v>
       </c>
       <c r="B925" t="n">
         <v>55</v>
@@ -19978,10 +19868,8 @@
       </c>
     </row>
     <row r="926">
-      <c r="A926" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A926" t="n">
+        <v>20230907</v>
       </c>
       <c r="B926" t="n">
         <v>56</v>
@@ -20001,10 +19889,8 @@
       </c>
     </row>
     <row r="927">
-      <c r="A927" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A927" t="n">
+        <v>20230907</v>
       </c>
       <c r="B927" t="n">
         <v>57</v>
@@ -20024,10 +19910,8 @@
       </c>
     </row>
     <row r="928">
-      <c r="A928" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A928" t="n">
+        <v>20230907</v>
       </c>
       <c r="B928" t="n">
         <v>58</v>
@@ -20047,10 +19931,8 @@
       </c>
     </row>
     <row r="929">
-      <c r="A929" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A929" t="n">
+        <v>20230907</v>
       </c>
       <c r="B929" t="n">
         <v>59</v>
@@ -20070,10 +19952,8 @@
       </c>
     </row>
     <row r="930">
-      <c r="A930" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A930" t="n">
+        <v>20230907</v>
       </c>
       <c r="B930" t="n">
         <v>60</v>
@@ -20093,10 +19973,8 @@
       </c>
     </row>
     <row r="931">
-      <c r="A931" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A931" t="n">
+        <v>20230907</v>
       </c>
       <c r="B931" t="n">
         <v>61</v>
@@ -20116,10 +19994,8 @@
       </c>
     </row>
     <row r="932">
-      <c r="A932" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A932" t="n">
+        <v>20230907</v>
       </c>
       <c r="B932" t="n">
         <v>62</v>
@@ -20139,10 +20015,8 @@
       </c>
     </row>
     <row r="933">
-      <c r="A933" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A933" t="n">
+        <v>20230907</v>
       </c>
       <c r="B933" t="n">
         <v>63</v>
@@ -20162,10 +20036,8 @@
       </c>
     </row>
     <row r="934">
-      <c r="A934" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A934" t="n">
+        <v>20230907</v>
       </c>
       <c r="B934" t="n">
         <v>64</v>
@@ -20185,10 +20057,8 @@
       </c>
     </row>
     <row r="935">
-      <c r="A935" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A935" t="n">
+        <v>20230907</v>
       </c>
       <c r="B935" t="n">
         <v>65</v>
@@ -20208,10 +20078,8 @@
       </c>
     </row>
     <row r="936">
-      <c r="A936" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A936" t="n">
+        <v>20230907</v>
       </c>
       <c r="B936" t="n">
         <v>66</v>
@@ -20231,10 +20099,8 @@
       </c>
     </row>
     <row r="937">
-      <c r="A937" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A937" t="n">
+        <v>20230907</v>
       </c>
       <c r="B937" t="n">
         <v>67</v>
@@ -20254,10 +20120,8 @@
       </c>
     </row>
     <row r="938">
-      <c r="A938" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A938" t="n">
+        <v>20230907</v>
       </c>
       <c r="B938" t="n">
         <v>68</v>
@@ -20277,10 +20141,8 @@
       </c>
     </row>
     <row r="939">
-      <c r="A939" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A939" t="n">
+        <v>20230907</v>
       </c>
       <c r="B939" t="n">
         <v>69</v>
@@ -20300,10 +20162,8 @@
       </c>
     </row>
     <row r="940">
-      <c r="A940" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A940" t="n">
+        <v>20230907</v>
       </c>
       <c r="B940" t="n">
         <v>70</v>
@@ -20323,10 +20183,8 @@
       </c>
     </row>
     <row r="941">
-      <c r="A941" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A941" t="n">
+        <v>20230907</v>
       </c>
       <c r="B941" t="n">
         <v>71</v>
@@ -20346,10 +20204,8 @@
       </c>
     </row>
     <row r="942">
-      <c r="A942" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A942" t="n">
+        <v>20230907</v>
       </c>
       <c r="B942" t="n">
         <v>72</v>
@@ -20369,10 +20225,8 @@
       </c>
     </row>
     <row r="943">
-      <c r="A943" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A943" t="n">
+        <v>20230907</v>
       </c>
       <c r="B943" t="n">
         <v>73</v>
@@ -20392,10 +20246,8 @@
       </c>
     </row>
     <row r="944">
-      <c r="A944" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A944" t="n">
+        <v>20230907</v>
       </c>
       <c r="B944" t="n">
         <v>74</v>
@@ -20415,10 +20267,8 @@
       </c>
     </row>
     <row r="945">
-      <c r="A945" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A945" t="n">
+        <v>20230907</v>
       </c>
       <c r="B945" t="n">
         <v>75</v>
@@ -20438,10 +20288,8 @@
       </c>
     </row>
     <row r="946">
-      <c r="A946" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A946" t="n">
+        <v>20230907</v>
       </c>
       <c r="B946" t="n">
         <v>76</v>
@@ -20461,10 +20309,8 @@
       </c>
     </row>
     <row r="947">
-      <c r="A947" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A947" t="n">
+        <v>20230907</v>
       </c>
       <c r="B947" t="n">
         <v>77</v>
@@ -20484,10 +20330,8 @@
       </c>
     </row>
     <row r="948">
-      <c r="A948" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A948" t="n">
+        <v>20230907</v>
       </c>
       <c r="B948" t="n">
         <v>78</v>
@@ -20507,10 +20351,8 @@
       </c>
     </row>
     <row r="949">
-      <c r="A949" t="inlineStr">
-        <is>
-          <t>20230907</t>
-        </is>
+      <c r="A949" t="n">
+        <v>20230907</v>
       </c>
       <c r="B949" t="n">
         <v>79</v>
@@ -20526,6 +20368,1823 @@
       <c r="E949" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B950" t="n">
+        <v>1</v>
+      </c>
+      <c r="C950" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D950" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="E950" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B951" t="n">
+        <v>2</v>
+      </c>
+      <c r="C951" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D951" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="E951" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B952" t="n">
+        <v>3</v>
+      </c>
+      <c r="C952" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D952" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="E952" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B953" t="n">
+        <v>4</v>
+      </c>
+      <c r="C953" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D953" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E953" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B954" t="n">
+        <v>5</v>
+      </c>
+      <c r="C954" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D954" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="E954" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B955" t="n">
+        <v>6</v>
+      </c>
+      <c r="C955" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D955" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="E955" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B956" t="n">
+        <v>7</v>
+      </c>
+      <c r="C956" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D956" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E956" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B957" t="n">
+        <v>8</v>
+      </c>
+      <c r="C957" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D957" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="E957" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B958" t="n">
+        <v>9</v>
+      </c>
+      <c r="C958" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D958" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="E958" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B959" t="n">
+        <v>10</v>
+      </c>
+      <c r="C959" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D959" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E959" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B960" t="n">
+        <v>11</v>
+      </c>
+      <c r="C960" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D960" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="E960" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B961" t="n">
+        <v>12</v>
+      </c>
+      <c r="C961" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D961" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E961" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B962" t="n">
+        <v>13</v>
+      </c>
+      <c r="C962" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D962" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E962" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B963" t="n">
+        <v>14</v>
+      </c>
+      <c r="C963" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D963" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="E963" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B964" t="n">
+        <v>15</v>
+      </c>
+      <c r="C964" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D964" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E964" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B965" t="n">
+        <v>16</v>
+      </c>
+      <c r="C965" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D965" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="E965" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B966" t="n">
+        <v>17</v>
+      </c>
+      <c r="C966" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D966" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="E966" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B967" t="n">
+        <v>18</v>
+      </c>
+      <c r="C967" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D967" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="E967" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B968" t="n">
+        <v>19</v>
+      </c>
+      <c r="C968" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D968" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E968" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B969" t="n">
+        <v>20</v>
+      </c>
+      <c r="C969" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D969" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="E969" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B970" t="n">
+        <v>21</v>
+      </c>
+      <c r="C970" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D970" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E970" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B971" t="n">
+        <v>22</v>
+      </c>
+      <c r="C971" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D971" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E971" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B972" t="n">
+        <v>23</v>
+      </c>
+      <c r="C972" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D972" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="E972" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B973" t="n">
+        <v>24</v>
+      </c>
+      <c r="C973" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D973" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E973" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B974" t="n">
+        <v>25</v>
+      </c>
+      <c r="C974" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D974" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E974" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B975" t="n">
+        <v>26</v>
+      </c>
+      <c r="C975" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D975" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E975" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B976" t="n">
+        <v>27</v>
+      </c>
+      <c r="C976" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D976" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="E976" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B977" t="n">
+        <v>28</v>
+      </c>
+      <c r="C977" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D977" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E977" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B978" t="n">
+        <v>29</v>
+      </c>
+      <c r="C978" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D978" t="n">
+        <v>1</v>
+      </c>
+      <c r="E978" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B979" t="n">
+        <v>30</v>
+      </c>
+      <c r="C979" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D979" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E979" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B980" t="n">
+        <v>31</v>
+      </c>
+      <c r="C980" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D980" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E980" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B981" t="n">
+        <v>32</v>
+      </c>
+      <c r="C981" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D981" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E981" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B982" t="n">
+        <v>33</v>
+      </c>
+      <c r="C982" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D982" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E982" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B983" t="n">
+        <v>34</v>
+      </c>
+      <c r="C983" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D983" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="E983" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B984" t="n">
+        <v>35</v>
+      </c>
+      <c r="C984" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D984" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="E984" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B985" t="n">
+        <v>36</v>
+      </c>
+      <c r="C985" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D985" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E985" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B986" t="n">
+        <v>37</v>
+      </c>
+      <c r="C986" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D986" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E986" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B987" t="n">
+        <v>38</v>
+      </c>
+      <c r="C987" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D987" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="E987" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B988" t="n">
+        <v>39</v>
+      </c>
+      <c r="C988" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D988" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E988" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B989" t="n">
+        <v>40</v>
+      </c>
+      <c r="C989" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D989" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E989" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B990" t="n">
+        <v>41</v>
+      </c>
+      <c r="C990" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D990" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E990" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B991" t="n">
+        <v>42</v>
+      </c>
+      <c r="C991" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D991" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E991" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B992" t="n">
+        <v>43</v>
+      </c>
+      <c r="C992" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D992" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E992" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B993" t="n">
+        <v>44</v>
+      </c>
+      <c r="C993" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D993" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E993" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B994" t="n">
+        <v>45</v>
+      </c>
+      <c r="C994" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D994" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="E994" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B995" t="n">
+        <v>46</v>
+      </c>
+      <c r="C995" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D995" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E995" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B996" t="n">
+        <v>47</v>
+      </c>
+      <c r="C996" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D996" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E996" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B997" t="n">
+        <v>48</v>
+      </c>
+      <c r="C997" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D997" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E997" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B998" t="n">
+        <v>49</v>
+      </c>
+      <c r="C998" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D998" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E998" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B999" t="n">
+        <v>50</v>
+      </c>
+      <c r="C999" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D999" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E999" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1000" t="n">
+        <v>51</v>
+      </c>
+      <c r="C1000" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D1000" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E1000" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1001" t="n">
+        <v>52</v>
+      </c>
+      <c r="C1001" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D1001" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E1001" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1002" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1002" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D1002" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E1002" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1003" t="n">
+        <v>54</v>
+      </c>
+      <c r="C1003" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D1003" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="E1003" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1004" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1004" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D1004" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E1004" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1005" t="n">
+        <v>56</v>
+      </c>
+      <c r="C1005" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D1005" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E1005" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1006" t="n">
+        <v>57</v>
+      </c>
+      <c r="C1006" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D1006" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E1006" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1007" t="n">
+        <v>58</v>
+      </c>
+      <c r="C1007" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D1007" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E1007" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1008" t="n">
+        <v>59</v>
+      </c>
+      <c r="C1008" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D1008" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E1008" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1009" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1009" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D1009" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E1009" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1010" t="n">
+        <v>61</v>
+      </c>
+      <c r="C1010" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1010" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1011" t="n">
+        <v>62</v>
+      </c>
+      <c r="C1011" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1011" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1012" t="n">
+        <v>63</v>
+      </c>
+      <c r="C1012" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D1012" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E1012" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1013" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1013" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D1013" t="n">
+        <v>-0.06</v>
+      </c>
+      <c r="E1013" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1014" t="n">
+        <v>65</v>
+      </c>
+      <c r="C1014" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D1014" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="E1014" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1015" t="n">
+        <v>66</v>
+      </c>
+      <c r="C1015" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D1015" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="E1015" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1016" t="n">
+        <v>67</v>
+      </c>
+      <c r="C1016" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D1016" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="E1016" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1017" t="n">
+        <v>68</v>
+      </c>
+      <c r="C1017" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D1017" t="n">
+        <v>-0.22</v>
+      </c>
+      <c r="E1017" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1018" t="n">
+        <v>69</v>
+      </c>
+      <c r="C1018" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D1018" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E1018" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1019" t="n">
+        <v>70</v>
+      </c>
+      <c r="C1019" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D1019" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="E1019" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1020" t="n">
+        <v>71</v>
+      </c>
+      <c r="C1020" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D1020" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="E1020" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1021" t="n">
+        <v>72</v>
+      </c>
+      <c r="C1021" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D1021" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="E1021" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1022" t="n">
+        <v>73</v>
+      </c>
+      <c r="C1022" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D1022" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="E1022" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1023" t="n">
+        <v>74</v>
+      </c>
+      <c r="C1023" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D1023" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="E1023" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1024" t="n">
+        <v>75</v>
+      </c>
+      <c r="C1024" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D1024" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E1024" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1025" t="n">
+        <v>76</v>
+      </c>
+      <c r="C1025" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D1025" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="E1025" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1026" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1026" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D1026" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="E1026" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1027" t="n">
+        <v>78</v>
+      </c>
+      <c r="C1027" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D1027" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="E1027" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028" t="inlineStr">
+        <is>
+          <t>20230914</t>
+        </is>
+      </c>
+      <c r="B1028" t="n">
+        <v>79</v>
+      </c>
+      <c r="C1028" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D1028" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="E1028" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1028"/>
+  <dimension ref="A1:E1107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -20372,10 +20372,8 @@
       </c>
     </row>
     <row r="950">
-      <c r="A950" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A950" t="n">
+        <v>20230914</v>
       </c>
       <c r="B950" t="n">
         <v>1</v>
@@ -20395,10 +20393,8 @@
       </c>
     </row>
     <row r="951">
-      <c r="A951" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A951" t="n">
+        <v>20230914</v>
       </c>
       <c r="B951" t="n">
         <v>2</v>
@@ -20418,10 +20414,8 @@
       </c>
     </row>
     <row r="952">
-      <c r="A952" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A952" t="n">
+        <v>20230914</v>
       </c>
       <c r="B952" t="n">
         <v>3</v>
@@ -20441,10 +20435,8 @@
       </c>
     </row>
     <row r="953">
-      <c r="A953" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A953" t="n">
+        <v>20230914</v>
       </c>
       <c r="B953" t="n">
         <v>4</v>
@@ -20464,10 +20456,8 @@
       </c>
     </row>
     <row r="954">
-      <c r="A954" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A954" t="n">
+        <v>20230914</v>
       </c>
       <c r="B954" t="n">
         <v>5</v>
@@ -20487,10 +20477,8 @@
       </c>
     </row>
     <row r="955">
-      <c r="A955" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A955" t="n">
+        <v>20230914</v>
       </c>
       <c r="B955" t="n">
         <v>6</v>
@@ -20510,10 +20498,8 @@
       </c>
     </row>
     <row r="956">
-      <c r="A956" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A956" t="n">
+        <v>20230914</v>
       </c>
       <c r="B956" t="n">
         <v>7</v>
@@ -20533,10 +20519,8 @@
       </c>
     </row>
     <row r="957">
-      <c r="A957" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A957" t="n">
+        <v>20230914</v>
       </c>
       <c r="B957" t="n">
         <v>8</v>
@@ -20556,10 +20540,8 @@
       </c>
     </row>
     <row r="958">
-      <c r="A958" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A958" t="n">
+        <v>20230914</v>
       </c>
       <c r="B958" t="n">
         <v>9</v>
@@ -20579,10 +20561,8 @@
       </c>
     </row>
     <row r="959">
-      <c r="A959" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A959" t="n">
+        <v>20230914</v>
       </c>
       <c r="B959" t="n">
         <v>10</v>
@@ -20602,10 +20582,8 @@
       </c>
     </row>
     <row r="960">
-      <c r="A960" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A960" t="n">
+        <v>20230914</v>
       </c>
       <c r="B960" t="n">
         <v>11</v>
@@ -20625,10 +20603,8 @@
       </c>
     </row>
     <row r="961">
-      <c r="A961" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A961" t="n">
+        <v>20230914</v>
       </c>
       <c r="B961" t="n">
         <v>12</v>
@@ -20648,10 +20624,8 @@
       </c>
     </row>
     <row r="962">
-      <c r="A962" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A962" t="n">
+        <v>20230914</v>
       </c>
       <c r="B962" t="n">
         <v>13</v>
@@ -20671,10 +20645,8 @@
       </c>
     </row>
     <row r="963">
-      <c r="A963" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A963" t="n">
+        <v>20230914</v>
       </c>
       <c r="B963" t="n">
         <v>14</v>
@@ -20694,10 +20666,8 @@
       </c>
     </row>
     <row r="964">
-      <c r="A964" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A964" t="n">
+        <v>20230914</v>
       </c>
       <c r="B964" t="n">
         <v>15</v>
@@ -20717,10 +20687,8 @@
       </c>
     </row>
     <row r="965">
-      <c r="A965" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A965" t="n">
+        <v>20230914</v>
       </c>
       <c r="B965" t="n">
         <v>16</v>
@@ -20740,10 +20708,8 @@
       </c>
     </row>
     <row r="966">
-      <c r="A966" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A966" t="n">
+        <v>20230914</v>
       </c>
       <c r="B966" t="n">
         <v>17</v>
@@ -20763,10 +20729,8 @@
       </c>
     </row>
     <row r="967">
-      <c r="A967" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A967" t="n">
+        <v>20230914</v>
       </c>
       <c r="B967" t="n">
         <v>18</v>
@@ -20786,10 +20750,8 @@
       </c>
     </row>
     <row r="968">
-      <c r="A968" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A968" t="n">
+        <v>20230914</v>
       </c>
       <c r="B968" t="n">
         <v>19</v>
@@ -20809,10 +20771,8 @@
       </c>
     </row>
     <row r="969">
-      <c r="A969" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A969" t="n">
+        <v>20230914</v>
       </c>
       <c r="B969" t="n">
         <v>20</v>
@@ -20832,10 +20792,8 @@
       </c>
     </row>
     <row r="970">
-      <c r="A970" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A970" t="n">
+        <v>20230914</v>
       </c>
       <c r="B970" t="n">
         <v>21</v>
@@ -20855,10 +20813,8 @@
       </c>
     </row>
     <row r="971">
-      <c r="A971" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A971" t="n">
+        <v>20230914</v>
       </c>
       <c r="B971" t="n">
         <v>22</v>
@@ -20878,10 +20834,8 @@
       </c>
     </row>
     <row r="972">
-      <c r="A972" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A972" t="n">
+        <v>20230914</v>
       </c>
       <c r="B972" t="n">
         <v>23</v>
@@ -20901,10 +20855,8 @@
       </c>
     </row>
     <row r="973">
-      <c r="A973" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A973" t="n">
+        <v>20230914</v>
       </c>
       <c r="B973" t="n">
         <v>24</v>
@@ -20924,10 +20876,8 @@
       </c>
     </row>
     <row r="974">
-      <c r="A974" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A974" t="n">
+        <v>20230914</v>
       </c>
       <c r="B974" t="n">
         <v>25</v>
@@ -20947,10 +20897,8 @@
       </c>
     </row>
     <row r="975">
-      <c r="A975" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A975" t="n">
+        <v>20230914</v>
       </c>
       <c r="B975" t="n">
         <v>26</v>
@@ -20970,10 +20918,8 @@
       </c>
     </row>
     <row r="976">
-      <c r="A976" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A976" t="n">
+        <v>20230914</v>
       </c>
       <c r="B976" t="n">
         <v>27</v>
@@ -20993,10 +20939,8 @@
       </c>
     </row>
     <row r="977">
-      <c r="A977" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A977" t="n">
+        <v>20230914</v>
       </c>
       <c r="B977" t="n">
         <v>28</v>
@@ -21016,10 +20960,8 @@
       </c>
     </row>
     <row r="978">
-      <c r="A978" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A978" t="n">
+        <v>20230914</v>
       </c>
       <c r="B978" t="n">
         <v>29</v>
@@ -21039,10 +20981,8 @@
       </c>
     </row>
     <row r="979">
-      <c r="A979" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A979" t="n">
+        <v>20230914</v>
       </c>
       <c r="B979" t="n">
         <v>30</v>
@@ -21062,10 +21002,8 @@
       </c>
     </row>
     <row r="980">
-      <c r="A980" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A980" t="n">
+        <v>20230914</v>
       </c>
       <c r="B980" t="n">
         <v>31</v>
@@ -21085,10 +21023,8 @@
       </c>
     </row>
     <row r="981">
-      <c r="A981" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A981" t="n">
+        <v>20230914</v>
       </c>
       <c r="B981" t="n">
         <v>32</v>
@@ -21108,10 +21044,8 @@
       </c>
     </row>
     <row r="982">
-      <c r="A982" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A982" t="n">
+        <v>20230914</v>
       </c>
       <c r="B982" t="n">
         <v>33</v>
@@ -21131,10 +21065,8 @@
       </c>
     </row>
     <row r="983">
-      <c r="A983" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A983" t="n">
+        <v>20230914</v>
       </c>
       <c r="B983" t="n">
         <v>34</v>
@@ -21154,10 +21086,8 @@
       </c>
     </row>
     <row r="984">
-      <c r="A984" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A984" t="n">
+        <v>20230914</v>
       </c>
       <c r="B984" t="n">
         <v>35</v>
@@ -21177,10 +21107,8 @@
       </c>
     </row>
     <row r="985">
-      <c r="A985" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A985" t="n">
+        <v>20230914</v>
       </c>
       <c r="B985" t="n">
         <v>36</v>
@@ -21200,10 +21128,8 @@
       </c>
     </row>
     <row r="986">
-      <c r="A986" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A986" t="n">
+        <v>20230914</v>
       </c>
       <c r="B986" t="n">
         <v>37</v>
@@ -21223,10 +21149,8 @@
       </c>
     </row>
     <row r="987">
-      <c r="A987" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A987" t="n">
+        <v>20230914</v>
       </c>
       <c r="B987" t="n">
         <v>38</v>
@@ -21246,10 +21170,8 @@
       </c>
     </row>
     <row r="988">
-      <c r="A988" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A988" t="n">
+        <v>20230914</v>
       </c>
       <c r="B988" t="n">
         <v>39</v>
@@ -21269,10 +21191,8 @@
       </c>
     </row>
     <row r="989">
-      <c r="A989" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A989" t="n">
+        <v>20230914</v>
       </c>
       <c r="B989" t="n">
         <v>40</v>
@@ -21292,10 +21212,8 @@
       </c>
     </row>
     <row r="990">
-      <c r="A990" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A990" t="n">
+        <v>20230914</v>
       </c>
       <c r="B990" t="n">
         <v>41</v>
@@ -21315,10 +21233,8 @@
       </c>
     </row>
     <row r="991">
-      <c r="A991" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A991" t="n">
+        <v>20230914</v>
       </c>
       <c r="B991" t="n">
         <v>42</v>
@@ -21338,10 +21254,8 @@
       </c>
     </row>
     <row r="992">
-      <c r="A992" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A992" t="n">
+        <v>20230914</v>
       </c>
       <c r="B992" t="n">
         <v>43</v>
@@ -21361,10 +21275,8 @@
       </c>
     </row>
     <row r="993">
-      <c r="A993" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A993" t="n">
+        <v>20230914</v>
       </c>
       <c r="B993" t="n">
         <v>44</v>
@@ -21384,10 +21296,8 @@
       </c>
     </row>
     <row r="994">
-      <c r="A994" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A994" t="n">
+        <v>20230914</v>
       </c>
       <c r="B994" t="n">
         <v>45</v>
@@ -21407,10 +21317,8 @@
       </c>
     </row>
     <row r="995">
-      <c r="A995" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A995" t="n">
+        <v>20230914</v>
       </c>
       <c r="B995" t="n">
         <v>46</v>
@@ -21430,10 +21338,8 @@
       </c>
     </row>
     <row r="996">
-      <c r="A996" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A996" t="n">
+        <v>20230914</v>
       </c>
       <c r="B996" t="n">
         <v>47</v>
@@ -21453,10 +21359,8 @@
       </c>
     </row>
     <row r="997">
-      <c r="A997" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A997" t="n">
+        <v>20230914</v>
       </c>
       <c r="B997" t="n">
         <v>48</v>
@@ -21476,10 +21380,8 @@
       </c>
     </row>
     <row r="998">
-      <c r="A998" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A998" t="n">
+        <v>20230914</v>
       </c>
       <c r="B998" t="n">
         <v>49</v>
@@ -21499,10 +21401,8 @@
       </c>
     </row>
     <row r="999">
-      <c r="A999" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A999" t="n">
+        <v>20230914</v>
       </c>
       <c r="B999" t="n">
         <v>50</v>
@@ -21522,10 +21422,8 @@
       </c>
     </row>
     <row r="1000">
-      <c r="A1000" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1000" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1000" t="n">
         <v>51</v>
@@ -21545,10 +21443,8 @@
       </c>
     </row>
     <row r="1001">
-      <c r="A1001" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1001" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1001" t="n">
         <v>52</v>
@@ -21568,10 +21464,8 @@
       </c>
     </row>
     <row r="1002">
-      <c r="A1002" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1002" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1002" t="n">
         <v>53</v>
@@ -21591,10 +21485,8 @@
       </c>
     </row>
     <row r="1003">
-      <c r="A1003" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1003" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1003" t="n">
         <v>54</v>
@@ -21614,10 +21506,8 @@
       </c>
     </row>
     <row r="1004">
-      <c r="A1004" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1004" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1004" t="n">
         <v>55</v>
@@ -21637,10 +21527,8 @@
       </c>
     </row>
     <row r="1005">
-      <c r="A1005" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1005" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1005" t="n">
         <v>56</v>
@@ -21660,10 +21548,8 @@
       </c>
     </row>
     <row r="1006">
-      <c r="A1006" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1006" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1006" t="n">
         <v>57</v>
@@ -21683,10 +21569,8 @@
       </c>
     </row>
     <row r="1007">
-      <c r="A1007" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1007" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1007" t="n">
         <v>58</v>
@@ -21706,10 +21590,8 @@
       </c>
     </row>
     <row r="1008">
-      <c r="A1008" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1008" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1008" t="n">
         <v>59</v>
@@ -21729,10 +21611,8 @@
       </c>
     </row>
     <row r="1009">
-      <c r="A1009" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1009" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1009" t="n">
         <v>60</v>
@@ -21752,10 +21632,8 @@
       </c>
     </row>
     <row r="1010">
-      <c r="A1010" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1010" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1010" t="n">
         <v>61</v>
@@ -21775,10 +21653,8 @@
       </c>
     </row>
     <row r="1011">
-      <c r="A1011" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1011" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1011" t="n">
         <v>62</v>
@@ -21798,10 +21674,8 @@
       </c>
     </row>
     <row r="1012">
-      <c r="A1012" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1012" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1012" t="n">
         <v>63</v>
@@ -21821,10 +21695,8 @@
       </c>
     </row>
     <row r="1013">
-      <c r="A1013" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1013" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1013" t="n">
         <v>64</v>
@@ -21844,10 +21716,8 @@
       </c>
     </row>
     <row r="1014">
-      <c r="A1014" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1014" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1014" t="n">
         <v>65</v>
@@ -21867,10 +21737,8 @@
       </c>
     </row>
     <row r="1015">
-      <c r="A1015" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1015" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1015" t="n">
         <v>66</v>
@@ -21890,10 +21758,8 @@
       </c>
     </row>
     <row r="1016">
-      <c r="A1016" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1016" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1016" t="n">
         <v>67</v>
@@ -21913,10 +21779,8 @@
       </c>
     </row>
     <row r="1017">
-      <c r="A1017" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1017" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1017" t="n">
         <v>68</v>
@@ -21936,10 +21800,8 @@
       </c>
     </row>
     <row r="1018">
-      <c r="A1018" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1018" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1018" t="n">
         <v>69</v>
@@ -21959,10 +21821,8 @@
       </c>
     </row>
     <row r="1019">
-      <c r="A1019" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1019" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1019" t="n">
         <v>70</v>
@@ -21982,10 +21842,8 @@
       </c>
     </row>
     <row r="1020">
-      <c r="A1020" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1020" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1020" t="n">
         <v>71</v>
@@ -22005,10 +21863,8 @@
       </c>
     </row>
     <row r="1021">
-      <c r="A1021" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1021" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1021" t="n">
         <v>72</v>
@@ -22028,10 +21884,8 @@
       </c>
     </row>
     <row r="1022">
-      <c r="A1022" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1022" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1022" t="n">
         <v>73</v>
@@ -22051,10 +21905,8 @@
       </c>
     </row>
     <row r="1023">
-      <c r="A1023" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1023" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1023" t="n">
         <v>74</v>
@@ -22074,10 +21926,8 @@
       </c>
     </row>
     <row r="1024">
-      <c r="A1024" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1024" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1024" t="n">
         <v>75</v>
@@ -22097,10 +21947,8 @@
       </c>
     </row>
     <row r="1025">
-      <c r="A1025" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1025" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1025" t="n">
         <v>76</v>
@@ -22120,10 +21968,8 @@
       </c>
     </row>
     <row r="1026">
-      <c r="A1026" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1026" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1026" t="n">
         <v>77</v>
@@ -22143,10 +21989,8 @@
       </c>
     </row>
     <row r="1027">
-      <c r="A1027" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1027" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1027" t="n">
         <v>78</v>
@@ -22166,10 +22010,8 @@
       </c>
     </row>
     <row r="1028">
-      <c r="A1028" t="inlineStr">
-        <is>
-          <t>20230914</t>
-        </is>
+      <c r="A1028" t="n">
+        <v>20230914</v>
       </c>
       <c r="B1028" t="n">
         <v>79</v>
@@ -22185,6 +22027,1823 @@
       <c r="E1028" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1029" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1029" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D1029" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="E1029" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1030" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1030" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D1030" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="E1030" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1031" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1031" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D1031" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="E1031" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1032" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1032" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D1032" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E1032" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1033" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1033" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D1033" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E1033" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1034" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1034" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D1034" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1034" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1035" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1035" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D1035" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E1035" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1036" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1036" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D1036" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1036" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1037" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1037" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D1037" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E1037" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1038" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1038" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D1038" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="E1038" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1039" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1039" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D1039" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1039" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1040" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1040" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D1040" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E1040" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1041" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1041" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D1041" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E1041" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1042" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1042" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D1042" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E1042" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1043" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1043" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D1043" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E1043" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1044" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1044" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D1044" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E1044" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1045" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1045" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D1045" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E1045" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1046" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1046" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D1046" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E1046" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1047" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1047" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D1047" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E1047" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1048" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1048" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D1048" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E1048" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1049" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1049" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D1049" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E1049" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1050" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1050" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D1050" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E1050" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1051" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1051" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D1051" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="E1051" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1052" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1052" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D1052" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E1052" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1053" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1053" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D1053" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E1053" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1054" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1054" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D1054" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E1054" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1055" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1055" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D1055" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E1055" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1056" t="n">
+        <v>28</v>
+      </c>
+      <c r="C1056" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D1056" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="E1056" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1057" t="n">
+        <v>29</v>
+      </c>
+      <c r="C1057" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D1057" t="n">
+        <v>-0.19</v>
+      </c>
+      <c r="E1057" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1058" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1058" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D1058" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E1058" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1059" t="n">
+        <v>31</v>
+      </c>
+      <c r="C1059" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D1059" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="E1059" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1060" t="n">
+        <v>32</v>
+      </c>
+      <c r="C1060" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D1060" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="E1060" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1061" t="n">
+        <v>33</v>
+      </c>
+      <c r="C1061" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D1061" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="E1061" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1062" t="n">
+        <v>34</v>
+      </c>
+      <c r="C1062" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D1062" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="E1062" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1063" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1063" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D1063" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="E1063" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1064" t="n">
+        <v>36</v>
+      </c>
+      <c r="C1064" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D1064" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="E1064" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1065" t="n">
+        <v>37</v>
+      </c>
+      <c r="C1065" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D1065" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="E1065" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1066" t="n">
+        <v>38</v>
+      </c>
+      <c r="C1066" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D1066" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="E1066" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1067" t="n">
+        <v>39</v>
+      </c>
+      <c r="C1067" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D1067" t="n">
+        <v>-0.44</v>
+      </c>
+      <c r="E1067" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1068" t="n">
+        <v>40</v>
+      </c>
+      <c r="C1068" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D1068" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E1068" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1069" t="n">
+        <v>41</v>
+      </c>
+      <c r="C1069" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D1069" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="E1069" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1070" t="n">
+        <v>42</v>
+      </c>
+      <c r="C1070" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D1070" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E1070" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1071" t="n">
+        <v>43</v>
+      </c>
+      <c r="C1071" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D1071" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="E1071" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1072" t="n">
+        <v>44</v>
+      </c>
+      <c r="C1072" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D1072" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="E1072" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1073" t="n">
+        <v>45</v>
+      </c>
+      <c r="C1073" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D1073" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E1073" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1074" t="n">
+        <v>46</v>
+      </c>
+      <c r="C1074" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D1074" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="E1074" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1075" t="n">
+        <v>47</v>
+      </c>
+      <c r="C1075" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D1075" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="E1075" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1076" t="n">
+        <v>48</v>
+      </c>
+      <c r="C1076" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D1076" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="E1076" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1077" t="n">
+        <v>49</v>
+      </c>
+      <c r="C1077" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D1077" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="E1077" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1078" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1078" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D1078" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="E1078" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1079" t="n">
+        <v>51</v>
+      </c>
+      <c r="C1079" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D1079" t="n">
+        <v>-0.82</v>
+      </c>
+      <c r="E1079" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1080" t="n">
+        <v>52</v>
+      </c>
+      <c r="C1080" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D1080" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="E1080" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1081" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1081" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D1081" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="E1081" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1082" t="n">
+        <v>54</v>
+      </c>
+      <c r="C1082" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D1082" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="E1082" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1083" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1083" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D1083" t="n">
+        <v>-0.86</v>
+      </c>
+      <c r="E1083" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1084" t="n">
+        <v>56</v>
+      </c>
+      <c r="C1084" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D1084" t="n">
+        <v>-0.95</v>
+      </c>
+      <c r="E1084" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1085" t="n">
+        <v>57</v>
+      </c>
+      <c r="C1085" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D1085" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E1085" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1086" t="n">
+        <v>58</v>
+      </c>
+      <c r="C1086" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D1086" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E1086" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1087" t="n">
+        <v>59</v>
+      </c>
+      <c r="C1087" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D1087" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E1087" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1088" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1088" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D1088" t="n">
+        <v>-1.06</v>
+      </c>
+      <c r="E1088" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1089" t="n">
+        <v>61</v>
+      </c>
+      <c r="C1089" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D1089" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="E1089" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1090" t="n">
+        <v>62</v>
+      </c>
+      <c r="C1090" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D1090" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="E1090" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1091" t="n">
+        <v>63</v>
+      </c>
+      <c r="C1091" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D1091" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="E1091" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1092" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1092" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D1092" t="n">
+        <v>-1.21</v>
+      </c>
+      <c r="E1092" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1093" t="n">
+        <v>65</v>
+      </c>
+      <c r="C1093" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D1093" t="n">
+        <v>-1.27</v>
+      </c>
+      <c r="E1093" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1094" t="n">
+        <v>66</v>
+      </c>
+      <c r="C1094" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D1094" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="E1094" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1095" t="n">
+        <v>67</v>
+      </c>
+      <c r="C1095" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D1095" t="n">
+        <v>-1.47</v>
+      </c>
+      <c r="E1095" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1096" t="n">
+        <v>68</v>
+      </c>
+      <c r="C1096" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D1096" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E1096" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1097" t="n">
+        <v>69</v>
+      </c>
+      <c r="C1097" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D1097" t="n">
+        <v>-1.54</v>
+      </c>
+      <c r="E1097" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1098" t="n">
+        <v>70</v>
+      </c>
+      <c r="C1098" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D1098" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="E1098" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1099" t="n">
+        <v>71</v>
+      </c>
+      <c r="C1099" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D1099" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="E1099" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1100" t="n">
+        <v>72</v>
+      </c>
+      <c r="C1100" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D1100" t="n">
+        <v>-1.71</v>
+      </c>
+      <c r="E1100" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1101" t="n">
+        <v>73</v>
+      </c>
+      <c r="C1101" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D1101" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="E1101" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1102" t="n">
+        <v>74</v>
+      </c>
+      <c r="C1102" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D1102" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="E1102" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1103" t="n">
+        <v>75</v>
+      </c>
+      <c r="C1103" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D1103" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="E1103" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1104" t="n">
+        <v>76</v>
+      </c>
+      <c r="C1104" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D1104" t="n">
+        <v>-2.03</v>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1105" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1105" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D1105" t="n">
+        <v>-2.19</v>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1106" t="n">
+        <v>78</v>
+      </c>
+      <c r="C1106" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D1106" t="n">
+        <v>-2.28</v>
+      </c>
+      <c r="E1106" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107" t="inlineStr">
+        <is>
+          <t>20230919</t>
+        </is>
+      </c>
+      <c r="B1107" t="n">
+        <v>79</v>
+      </c>
+      <c r="C1107" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D1107" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="E1107" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1107"/>
+  <dimension ref="A1:E1186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -22031,10 +22031,8 @@
       </c>
     </row>
     <row r="1029">
-      <c r="A1029" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1029" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1029" t="n">
         <v>1</v>
@@ -22054,10 +22052,8 @@
       </c>
     </row>
     <row r="1030">
-      <c r="A1030" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1030" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1030" t="n">
         <v>2</v>
@@ -22077,10 +22073,8 @@
       </c>
     </row>
     <row r="1031">
-      <c r="A1031" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1031" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1031" t="n">
         <v>3</v>
@@ -22100,10 +22094,8 @@
       </c>
     </row>
     <row r="1032">
-      <c r="A1032" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1032" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1032" t="n">
         <v>4</v>
@@ -22123,10 +22115,8 @@
       </c>
     </row>
     <row r="1033">
-      <c r="A1033" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1033" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1033" t="n">
         <v>5</v>
@@ -22146,10 +22136,8 @@
       </c>
     </row>
     <row r="1034">
-      <c r="A1034" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1034" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1034" t="n">
         <v>6</v>
@@ -22169,10 +22157,8 @@
       </c>
     </row>
     <row r="1035">
-      <c r="A1035" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1035" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1035" t="n">
         <v>7</v>
@@ -22192,10 +22178,8 @@
       </c>
     </row>
     <row r="1036">
-      <c r="A1036" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1036" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1036" t="n">
         <v>8</v>
@@ -22215,10 +22199,8 @@
       </c>
     </row>
     <row r="1037">
-      <c r="A1037" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1037" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1037" t="n">
         <v>9</v>
@@ -22238,10 +22220,8 @@
       </c>
     </row>
     <row r="1038">
-      <c r="A1038" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1038" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1038" t="n">
         <v>10</v>
@@ -22261,10 +22241,8 @@
       </c>
     </row>
     <row r="1039">
-      <c r="A1039" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1039" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1039" t="n">
         <v>11</v>
@@ -22284,10 +22262,8 @@
       </c>
     </row>
     <row r="1040">
-      <c r="A1040" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1040" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1040" t="n">
         <v>12</v>
@@ -22307,10 +22283,8 @@
       </c>
     </row>
     <row r="1041">
-      <c r="A1041" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1041" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1041" t="n">
         <v>13</v>
@@ -22330,10 +22304,8 @@
       </c>
     </row>
     <row r="1042">
-      <c r="A1042" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1042" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1042" t="n">
         <v>14</v>
@@ -22353,10 +22325,8 @@
       </c>
     </row>
     <row r="1043">
-      <c r="A1043" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1043" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1043" t="n">
         <v>15</v>
@@ -22376,10 +22346,8 @@
       </c>
     </row>
     <row r="1044">
-      <c r="A1044" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1044" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1044" t="n">
         <v>16</v>
@@ -22399,10 +22367,8 @@
       </c>
     </row>
     <row r="1045">
-      <c r="A1045" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1045" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1045" t="n">
         <v>17</v>
@@ -22422,10 +22388,8 @@
       </c>
     </row>
     <row r="1046">
-      <c r="A1046" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1046" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1046" t="n">
         <v>18</v>
@@ -22445,10 +22409,8 @@
       </c>
     </row>
     <row r="1047">
-      <c r="A1047" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1047" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1047" t="n">
         <v>19</v>
@@ -22468,10 +22430,8 @@
       </c>
     </row>
     <row r="1048">
-      <c r="A1048" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1048" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1048" t="n">
         <v>20</v>
@@ -22491,10 +22451,8 @@
       </c>
     </row>
     <row r="1049">
-      <c r="A1049" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1049" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1049" t="n">
         <v>21</v>
@@ -22514,10 +22472,8 @@
       </c>
     </row>
     <row r="1050">
-      <c r="A1050" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1050" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1050" t="n">
         <v>22</v>
@@ -22537,10 +22493,8 @@
       </c>
     </row>
     <row r="1051">
-      <c r="A1051" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1051" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1051" t="n">
         <v>23</v>
@@ -22560,10 +22514,8 @@
       </c>
     </row>
     <row r="1052">
-      <c r="A1052" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1052" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1052" t="n">
         <v>24</v>
@@ -22583,10 +22535,8 @@
       </c>
     </row>
     <row r="1053">
-      <c r="A1053" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1053" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1053" t="n">
         <v>25</v>
@@ -22606,10 +22556,8 @@
       </c>
     </row>
     <row r="1054">
-      <c r="A1054" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1054" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1054" t="n">
         <v>26</v>
@@ -22629,10 +22577,8 @@
       </c>
     </row>
     <row r="1055">
-      <c r="A1055" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1055" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1055" t="n">
         <v>27</v>
@@ -22652,10 +22598,8 @@
       </c>
     </row>
     <row r="1056">
-      <c r="A1056" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1056" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1056" t="n">
         <v>28</v>
@@ -22675,10 +22619,8 @@
       </c>
     </row>
     <row r="1057">
-      <c r="A1057" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1057" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1057" t="n">
         <v>29</v>
@@ -22698,10 +22640,8 @@
       </c>
     </row>
     <row r="1058">
-      <c r="A1058" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1058" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1058" t="n">
         <v>30</v>
@@ -22721,10 +22661,8 @@
       </c>
     </row>
     <row r="1059">
-      <c r="A1059" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1059" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1059" t="n">
         <v>31</v>
@@ -22744,10 +22682,8 @@
       </c>
     </row>
     <row r="1060">
-      <c r="A1060" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1060" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1060" t="n">
         <v>32</v>
@@ -22767,10 +22703,8 @@
       </c>
     </row>
     <row r="1061">
-      <c r="A1061" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1061" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1061" t="n">
         <v>33</v>
@@ -22790,10 +22724,8 @@
       </c>
     </row>
     <row r="1062">
-      <c r="A1062" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1062" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1062" t="n">
         <v>34</v>
@@ -22813,10 +22745,8 @@
       </c>
     </row>
     <row r="1063">
-      <c r="A1063" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1063" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1063" t="n">
         <v>35</v>
@@ -22836,10 +22766,8 @@
       </c>
     </row>
     <row r="1064">
-      <c r="A1064" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1064" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1064" t="n">
         <v>36</v>
@@ -22859,10 +22787,8 @@
       </c>
     </row>
     <row r="1065">
-      <c r="A1065" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1065" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1065" t="n">
         <v>37</v>
@@ -22882,10 +22808,8 @@
       </c>
     </row>
     <row r="1066">
-      <c r="A1066" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1066" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1066" t="n">
         <v>38</v>
@@ -22905,10 +22829,8 @@
       </c>
     </row>
     <row r="1067">
-      <c r="A1067" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1067" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1067" t="n">
         <v>39</v>
@@ -22928,10 +22850,8 @@
       </c>
     </row>
     <row r="1068">
-      <c r="A1068" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1068" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1068" t="n">
         <v>40</v>
@@ -22951,10 +22871,8 @@
       </c>
     </row>
     <row r="1069">
-      <c r="A1069" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1069" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1069" t="n">
         <v>41</v>
@@ -22974,10 +22892,8 @@
       </c>
     </row>
     <row r="1070">
-      <c r="A1070" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1070" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1070" t="n">
         <v>42</v>
@@ -22997,10 +22913,8 @@
       </c>
     </row>
     <row r="1071">
-      <c r="A1071" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1071" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1071" t="n">
         <v>43</v>
@@ -23020,10 +22934,8 @@
       </c>
     </row>
     <row r="1072">
-      <c r="A1072" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1072" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1072" t="n">
         <v>44</v>
@@ -23043,10 +22955,8 @@
       </c>
     </row>
     <row r="1073">
-      <c r="A1073" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1073" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1073" t="n">
         <v>45</v>
@@ -23066,10 +22976,8 @@
       </c>
     </row>
     <row r="1074">
-      <c r="A1074" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1074" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1074" t="n">
         <v>46</v>
@@ -23089,10 +22997,8 @@
       </c>
     </row>
     <row r="1075">
-      <c r="A1075" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1075" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1075" t="n">
         <v>47</v>
@@ -23112,10 +23018,8 @@
       </c>
     </row>
     <row r="1076">
-      <c r="A1076" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1076" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1076" t="n">
         <v>48</v>
@@ -23135,10 +23039,8 @@
       </c>
     </row>
     <row r="1077">
-      <c r="A1077" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1077" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1077" t="n">
         <v>49</v>
@@ -23158,10 +23060,8 @@
       </c>
     </row>
     <row r="1078">
-      <c r="A1078" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1078" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1078" t="n">
         <v>50</v>
@@ -23181,10 +23081,8 @@
       </c>
     </row>
     <row r="1079">
-      <c r="A1079" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1079" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1079" t="n">
         <v>51</v>
@@ -23204,10 +23102,8 @@
       </c>
     </row>
     <row r="1080">
-      <c r="A1080" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1080" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1080" t="n">
         <v>52</v>
@@ -23227,10 +23123,8 @@
       </c>
     </row>
     <row r="1081">
-      <c r="A1081" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1081" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1081" t="n">
         <v>53</v>
@@ -23250,10 +23144,8 @@
       </c>
     </row>
     <row r="1082">
-      <c r="A1082" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1082" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1082" t="n">
         <v>54</v>
@@ -23273,10 +23165,8 @@
       </c>
     </row>
     <row r="1083">
-      <c r="A1083" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1083" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1083" t="n">
         <v>55</v>
@@ -23296,10 +23186,8 @@
       </c>
     </row>
     <row r="1084">
-      <c r="A1084" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1084" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1084" t="n">
         <v>56</v>
@@ -23319,10 +23207,8 @@
       </c>
     </row>
     <row r="1085">
-      <c r="A1085" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1085" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1085" t="n">
         <v>57</v>
@@ -23342,10 +23228,8 @@
       </c>
     </row>
     <row r="1086">
-      <c r="A1086" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1086" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1086" t="n">
         <v>58</v>
@@ -23365,10 +23249,8 @@
       </c>
     </row>
     <row r="1087">
-      <c r="A1087" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1087" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1087" t="n">
         <v>59</v>
@@ -23388,10 +23270,8 @@
       </c>
     </row>
     <row r="1088">
-      <c r="A1088" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1088" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1088" t="n">
         <v>60</v>
@@ -23411,10 +23291,8 @@
       </c>
     </row>
     <row r="1089">
-      <c r="A1089" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1089" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1089" t="n">
         <v>61</v>
@@ -23434,10 +23312,8 @@
       </c>
     </row>
     <row r="1090">
-      <c r="A1090" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1090" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1090" t="n">
         <v>62</v>
@@ -23457,10 +23333,8 @@
       </c>
     </row>
     <row r="1091">
-      <c r="A1091" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1091" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1091" t="n">
         <v>63</v>
@@ -23480,10 +23354,8 @@
       </c>
     </row>
     <row r="1092">
-      <c r="A1092" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1092" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1092" t="n">
         <v>64</v>
@@ -23503,10 +23375,8 @@
       </c>
     </row>
     <row r="1093">
-      <c r="A1093" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1093" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1093" t="n">
         <v>65</v>
@@ -23526,10 +23396,8 @@
       </c>
     </row>
     <row r="1094">
-      <c r="A1094" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1094" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1094" t="n">
         <v>66</v>
@@ -23549,10 +23417,8 @@
       </c>
     </row>
     <row r="1095">
-      <c r="A1095" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1095" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1095" t="n">
         <v>67</v>
@@ -23572,10 +23438,8 @@
       </c>
     </row>
     <row r="1096">
-      <c r="A1096" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1096" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1096" t="n">
         <v>68</v>
@@ -23595,10 +23459,8 @@
       </c>
     </row>
     <row r="1097">
-      <c r="A1097" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1097" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1097" t="n">
         <v>69</v>
@@ -23618,10 +23480,8 @@
       </c>
     </row>
     <row r="1098">
-      <c r="A1098" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1098" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1098" t="n">
         <v>70</v>
@@ -23641,10 +23501,8 @@
       </c>
     </row>
     <row r="1099">
-      <c r="A1099" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1099" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1099" t="n">
         <v>71</v>
@@ -23664,10 +23522,8 @@
       </c>
     </row>
     <row r="1100">
-      <c r="A1100" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1100" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1100" t="n">
         <v>72</v>
@@ -23687,10 +23543,8 @@
       </c>
     </row>
     <row r="1101">
-      <c r="A1101" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1101" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1101" t="n">
         <v>73</v>
@@ -23710,10 +23564,8 @@
       </c>
     </row>
     <row r="1102">
-      <c r="A1102" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1102" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1102" t="n">
         <v>74</v>
@@ -23733,10 +23585,8 @@
       </c>
     </row>
     <row r="1103">
-      <c r="A1103" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1103" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1103" t="n">
         <v>75</v>
@@ -23756,10 +23606,8 @@
       </c>
     </row>
     <row r="1104">
-      <c r="A1104" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1104" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1104" t="n">
         <v>76</v>
@@ -23779,10 +23627,8 @@
       </c>
     </row>
     <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1105" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1105" t="n">
         <v>77</v>
@@ -23802,10 +23648,8 @@
       </c>
     </row>
     <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1106" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1106" t="n">
         <v>78</v>
@@ -23825,10 +23669,8 @@
       </c>
     </row>
     <row r="1107">
-      <c r="A1107" t="inlineStr">
-        <is>
-          <t>20230919</t>
-        </is>
+      <c r="A1107" t="n">
+        <v>20230919</v>
       </c>
       <c r="B1107" t="n">
         <v>79</v>
@@ -23844,6 +23686,1823 @@
       <c r="E1107" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1108" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D1108" t="n">
+        <v>28.65</v>
+      </c>
+      <c r="E1108" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1109" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1109" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D1109" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="E1109" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1110" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D1110" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="E1110" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1111" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1111" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D1111" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="E1111" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1112" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1112" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D1112" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="E1112" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1113" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1113" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D1113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E1113" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1114" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1114" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D1114" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="E1114" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1115" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1115" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D1115" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="E1115" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1116" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1116" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D1116" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="E1116" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1117" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1117" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D1117" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E1117" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1118" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1118" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D1118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E1118" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1119" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1119" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D1119" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="E1119" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1120" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1120" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D1120" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="E1120" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1121" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1121" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D1121" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E1121" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1122" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1122" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D1122" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="E1122" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1123" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1123" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D1123" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E1123" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1124" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1124" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D1124" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E1124" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1125" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1125" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D1125" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="E1125" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1126" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1126" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D1126" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1126" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1127" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1127" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D1127" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1127" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1128" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1128" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D1128" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="E1128" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1129" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1129" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D1129" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="E1129" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1130" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1130" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D1130" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1130" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1131" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1131" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D1131" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E1131" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1132" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1132" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D1132" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="E1132" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1133" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1133" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D1133" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E1133" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1134" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1134" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D1134" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E1134" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1135" t="n">
+        <v>28</v>
+      </c>
+      <c r="C1135" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D1135" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E1135" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1136" t="n">
+        <v>29</v>
+      </c>
+      <c r="C1136" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D1136" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="E1136" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1137" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1137" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D1137" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1137" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1138" t="n">
+        <v>31</v>
+      </c>
+      <c r="C1138" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D1138" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="E1138" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1139" t="n">
+        <v>32</v>
+      </c>
+      <c r="C1139" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D1139" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E1139" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1140" t="n">
+        <v>33</v>
+      </c>
+      <c r="C1140" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D1140" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="E1140" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1141" t="n">
+        <v>34</v>
+      </c>
+      <c r="C1141" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D1141" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E1141" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1142" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1142" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D1142" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="E1142" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1143" t="n">
+        <v>36</v>
+      </c>
+      <c r="C1143" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D1143" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E1143" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1144" t="n">
+        <v>37</v>
+      </c>
+      <c r="C1144" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D1144" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E1144" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1145" t="n">
+        <v>38</v>
+      </c>
+      <c r="C1145" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D1145" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E1145" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1146" t="n">
+        <v>39</v>
+      </c>
+      <c r="C1146" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D1146" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E1146" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1147" t="n">
+        <v>40</v>
+      </c>
+      <c r="C1147" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D1147" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1147" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1148" t="n">
+        <v>41</v>
+      </c>
+      <c r="C1148" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D1148" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E1148" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1149" t="n">
+        <v>42</v>
+      </c>
+      <c r="C1149" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D1149" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E1149" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1150" t="n">
+        <v>43</v>
+      </c>
+      <c r="C1150" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D1150" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E1150" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1151" t="n">
+        <v>44</v>
+      </c>
+      <c r="C1151" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D1151" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E1151" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1152" t="n">
+        <v>45</v>
+      </c>
+      <c r="C1152" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D1152" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E1152" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1153" t="n">
+        <v>46</v>
+      </c>
+      <c r="C1153" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D1153" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E1153" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1154" t="n">
+        <v>47</v>
+      </c>
+      <c r="C1154" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D1154" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E1154" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1155" t="n">
+        <v>48</v>
+      </c>
+      <c r="C1155" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D1155" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E1155" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1156" t="n">
+        <v>49</v>
+      </c>
+      <c r="C1156" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D1156" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="E1156" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1157" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1157" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D1157" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E1157" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1158" t="n">
+        <v>51</v>
+      </c>
+      <c r="C1158" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D1158" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E1158" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1159" t="n">
+        <v>52</v>
+      </c>
+      <c r="C1159" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D1159" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="E1159" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1160" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1160" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D1160" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="E1160" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1161" t="n">
+        <v>54</v>
+      </c>
+      <c r="C1161" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D1161" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E1161" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1162" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1162" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D1162" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E1162" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1163" t="n">
+        <v>56</v>
+      </c>
+      <c r="C1163" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D1163" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E1163" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1164" t="n">
+        <v>57</v>
+      </c>
+      <c r="C1164" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D1164" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E1164" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1165" t="n">
+        <v>58</v>
+      </c>
+      <c r="C1165" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D1165" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="E1165" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1166" t="n">
+        <v>59</v>
+      </c>
+      <c r="C1166" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D1166" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E1166" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1167" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1167" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D1167" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="E1167" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1168" t="n">
+        <v>61</v>
+      </c>
+      <c r="C1168" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D1168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1168" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1169" t="n">
+        <v>62</v>
+      </c>
+      <c r="C1169" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D1169" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E1169" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1170" t="n">
+        <v>63</v>
+      </c>
+      <c r="C1170" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D1170" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E1170" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1171" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1171" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D1171" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E1171" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1172" t="n">
+        <v>65</v>
+      </c>
+      <c r="C1172" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D1172" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E1172" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1173" t="n">
+        <v>66</v>
+      </c>
+      <c r="C1173" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D1173" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E1173" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1174" t="n">
+        <v>67</v>
+      </c>
+      <c r="C1174" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D1174" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="E1174" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1175" t="n">
+        <v>68</v>
+      </c>
+      <c r="C1175" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D1175" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E1175" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1176" t="n">
+        <v>69</v>
+      </c>
+      <c r="C1176" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D1176" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="E1176" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1177" t="n">
+        <v>70</v>
+      </c>
+      <c r="C1177" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D1177" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E1177" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1178" t="n">
+        <v>71</v>
+      </c>
+      <c r="C1178" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D1178" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="E1178" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1179" t="n">
+        <v>72</v>
+      </c>
+      <c r="C1179" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D1179" t="n">
+        <v>-0.42</v>
+      </c>
+      <c r="E1179" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1180" t="n">
+        <v>73</v>
+      </c>
+      <c r="C1180" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D1180" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="E1180" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1181" t="n">
+        <v>74</v>
+      </c>
+      <c r="C1181" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D1181" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="E1181" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1182" t="n">
+        <v>75</v>
+      </c>
+      <c r="C1182" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D1182" t="n">
+        <v>-0.84</v>
+      </c>
+      <c r="E1182" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1183" t="n">
+        <v>76</v>
+      </c>
+      <c r="C1183" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D1183" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="E1183" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1184" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1184" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D1184" t="n">
+        <v>-1.42</v>
+      </c>
+      <c r="E1184" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1185" t="n">
+        <v>78</v>
+      </c>
+      <c r="C1185" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D1185" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="E1185" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186" t="inlineStr">
+        <is>
+          <t>20230929</t>
+        </is>
+      </c>
+      <c r="B1186" t="n">
+        <v>79</v>
+      </c>
+      <c r="C1186" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D1186" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="E1186" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1186"/>
+  <dimension ref="A1:E1265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -23690,10 +23690,8 @@
       </c>
     </row>
     <row r="1108">
-      <c r="A1108" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1108" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1108" t="n">
         <v>1</v>
@@ -23713,10 +23711,8 @@
       </c>
     </row>
     <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1109" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1109" t="n">
         <v>2</v>
@@ -23736,10 +23732,8 @@
       </c>
     </row>
     <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1110" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1110" t="n">
         <v>3</v>
@@ -23759,10 +23753,8 @@
       </c>
     </row>
     <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1111" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1111" t="n">
         <v>4</v>
@@ -23782,10 +23774,8 @@
       </c>
     </row>
     <row r="1112">
-      <c r="A1112" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1112" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1112" t="n">
         <v>5</v>
@@ -23805,10 +23795,8 @@
       </c>
     </row>
     <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1113" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1113" t="n">
         <v>6</v>
@@ -23828,10 +23816,8 @@
       </c>
     </row>
     <row r="1114">
-      <c r="A1114" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1114" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1114" t="n">
         <v>7</v>
@@ -23851,10 +23837,8 @@
       </c>
     </row>
     <row r="1115">
-      <c r="A1115" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1115" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1115" t="n">
         <v>8</v>
@@ -23874,10 +23858,8 @@
       </c>
     </row>
     <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1116" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1116" t="n">
         <v>9</v>
@@ -23897,10 +23879,8 @@
       </c>
     </row>
     <row r="1117">
-      <c r="A1117" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1117" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1117" t="n">
         <v>10</v>
@@ -23920,10 +23900,8 @@
       </c>
     </row>
     <row r="1118">
-      <c r="A1118" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1118" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1118" t="n">
         <v>11</v>
@@ -23943,10 +23921,8 @@
       </c>
     </row>
     <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1119" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1119" t="n">
         <v>12</v>
@@ -23966,10 +23942,8 @@
       </c>
     </row>
     <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1120" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1120" t="n">
         <v>13</v>
@@ -23989,10 +23963,8 @@
       </c>
     </row>
     <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1121" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1121" t="n">
         <v>14</v>
@@ -24012,10 +23984,8 @@
       </c>
     </row>
     <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1122" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1122" t="n">
         <v>15</v>
@@ -24035,10 +24005,8 @@
       </c>
     </row>
     <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1123" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1123" t="n">
         <v>16</v>
@@ -24058,10 +24026,8 @@
       </c>
     </row>
     <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1124" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1124" t="n">
         <v>17</v>
@@ -24081,10 +24047,8 @@
       </c>
     </row>
     <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1125" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1125" t="n">
         <v>18</v>
@@ -24104,10 +24068,8 @@
       </c>
     </row>
     <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1126" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1126" t="n">
         <v>19</v>
@@ -24127,10 +24089,8 @@
       </c>
     </row>
     <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1127" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1127" t="n">
         <v>20</v>
@@ -24150,10 +24110,8 @@
       </c>
     </row>
     <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1128" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1128" t="n">
         <v>21</v>
@@ -24173,10 +24131,8 @@
       </c>
     </row>
     <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1129" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1129" t="n">
         <v>22</v>
@@ -24196,10 +24152,8 @@
       </c>
     </row>
     <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1130" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1130" t="n">
         <v>23</v>
@@ -24219,10 +24173,8 @@
       </c>
     </row>
     <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1131" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1131" t="n">
         <v>24</v>
@@ -24242,10 +24194,8 @@
       </c>
     </row>
     <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1132" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1132" t="n">
         <v>25</v>
@@ -24265,10 +24215,8 @@
       </c>
     </row>
     <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1133" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1133" t="n">
         <v>26</v>
@@ -24288,10 +24236,8 @@
       </c>
     </row>
     <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1134" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1134" t="n">
         <v>27</v>
@@ -24311,10 +24257,8 @@
       </c>
     </row>
     <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1135" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1135" t="n">
         <v>28</v>
@@ -24334,10 +24278,8 @@
       </c>
     </row>
     <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1136" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1136" t="n">
         <v>29</v>
@@ -24357,10 +24299,8 @@
       </c>
     </row>
     <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1137" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1137" t="n">
         <v>30</v>
@@ -24380,10 +24320,8 @@
       </c>
     </row>
     <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1138" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1138" t="n">
         <v>31</v>
@@ -24403,10 +24341,8 @@
       </c>
     </row>
     <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1139" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1139" t="n">
         <v>32</v>
@@ -24426,10 +24362,8 @@
       </c>
     </row>
     <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1140" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1140" t="n">
         <v>33</v>
@@ -24449,10 +24383,8 @@
       </c>
     </row>
     <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1141" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1141" t="n">
         <v>34</v>
@@ -24472,10 +24404,8 @@
       </c>
     </row>
     <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1142" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1142" t="n">
         <v>35</v>
@@ -24495,10 +24425,8 @@
       </c>
     </row>
     <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1143" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1143" t="n">
         <v>36</v>
@@ -24518,10 +24446,8 @@
       </c>
     </row>
     <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1144" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1144" t="n">
         <v>37</v>
@@ -24541,10 +24467,8 @@
       </c>
     </row>
     <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1145" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1145" t="n">
         <v>38</v>
@@ -24564,10 +24488,8 @@
       </c>
     </row>
     <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1146" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1146" t="n">
         <v>39</v>
@@ -24587,10 +24509,8 @@
       </c>
     </row>
     <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1147" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1147" t="n">
         <v>40</v>
@@ -24610,10 +24530,8 @@
       </c>
     </row>
     <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1148" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1148" t="n">
         <v>41</v>
@@ -24633,10 +24551,8 @@
       </c>
     </row>
     <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1149" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1149" t="n">
         <v>42</v>
@@ -24656,10 +24572,8 @@
       </c>
     </row>
     <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1150" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1150" t="n">
         <v>43</v>
@@ -24679,10 +24593,8 @@
       </c>
     </row>
     <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1151" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1151" t="n">
         <v>44</v>
@@ -24702,10 +24614,8 @@
       </c>
     </row>
     <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1152" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1152" t="n">
         <v>45</v>
@@ -24725,10 +24635,8 @@
       </c>
     </row>
     <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1153" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1153" t="n">
         <v>46</v>
@@ -24748,10 +24656,8 @@
       </c>
     </row>
     <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1154" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1154" t="n">
         <v>47</v>
@@ -24771,10 +24677,8 @@
       </c>
     </row>
     <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1155" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1155" t="n">
         <v>48</v>
@@ -24794,10 +24698,8 @@
       </c>
     </row>
     <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1156" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1156" t="n">
         <v>49</v>
@@ -24817,10 +24719,8 @@
       </c>
     </row>
     <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1157" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1157" t="n">
         <v>50</v>
@@ -24840,10 +24740,8 @@
       </c>
     </row>
     <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1158" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1158" t="n">
         <v>51</v>
@@ -24863,10 +24761,8 @@
       </c>
     </row>
     <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1159" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1159" t="n">
         <v>52</v>
@@ -24886,10 +24782,8 @@
       </c>
     </row>
     <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1160" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1160" t="n">
         <v>53</v>
@@ -24909,10 +24803,8 @@
       </c>
     </row>
     <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1161" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1161" t="n">
         <v>54</v>
@@ -24932,10 +24824,8 @@
       </c>
     </row>
     <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1162" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1162" t="n">
         <v>55</v>
@@ -24955,10 +24845,8 @@
       </c>
     </row>
     <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1163" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1163" t="n">
         <v>56</v>
@@ -24978,10 +24866,8 @@
       </c>
     </row>
     <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1164" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1164" t="n">
         <v>57</v>
@@ -25001,10 +24887,8 @@
       </c>
     </row>
     <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1165" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1165" t="n">
         <v>58</v>
@@ -25024,10 +24908,8 @@
       </c>
     </row>
     <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1166" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1166" t="n">
         <v>59</v>
@@ -25047,10 +24929,8 @@
       </c>
     </row>
     <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1167" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1167" t="n">
         <v>60</v>
@@ -25070,10 +24950,8 @@
       </c>
     </row>
     <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1168" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1168" t="n">
         <v>61</v>
@@ -25093,10 +24971,8 @@
       </c>
     </row>
     <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1169" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1169" t="n">
         <v>62</v>
@@ -25116,10 +24992,8 @@
       </c>
     </row>
     <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1170" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1170" t="n">
         <v>63</v>
@@ -25139,10 +25013,8 @@
       </c>
     </row>
     <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1171" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1171" t="n">
         <v>64</v>
@@ -25162,10 +25034,8 @@
       </c>
     </row>
     <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1172" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1172" t="n">
         <v>65</v>
@@ -25185,10 +25055,8 @@
       </c>
     </row>
     <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1173" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1173" t="n">
         <v>66</v>
@@ -25208,10 +25076,8 @@
       </c>
     </row>
     <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1174" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1174" t="n">
         <v>67</v>
@@ -25231,10 +25097,8 @@
       </c>
     </row>
     <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1175" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1175" t="n">
         <v>68</v>
@@ -25254,10 +25118,8 @@
       </c>
     </row>
     <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1176" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1176" t="n">
         <v>69</v>
@@ -25277,10 +25139,8 @@
       </c>
     </row>
     <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1177" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1177" t="n">
         <v>70</v>
@@ -25300,10 +25160,8 @@
       </c>
     </row>
     <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1178" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1178" t="n">
         <v>71</v>
@@ -25323,10 +25181,8 @@
       </c>
     </row>
     <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1179" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1179" t="n">
         <v>72</v>
@@ -25346,10 +25202,8 @@
       </c>
     </row>
     <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1180" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1180" t="n">
         <v>73</v>
@@ -25369,10 +25223,8 @@
       </c>
     </row>
     <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1181" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1181" t="n">
         <v>74</v>
@@ -25392,10 +25244,8 @@
       </c>
     </row>
     <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1182" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1182" t="n">
         <v>75</v>
@@ -25415,10 +25265,8 @@
       </c>
     </row>
     <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1183" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1183" t="n">
         <v>76</v>
@@ -25438,10 +25286,8 @@
       </c>
     </row>
     <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1184" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1184" t="n">
         <v>77</v>
@@ -25461,10 +25307,8 @@
       </c>
     </row>
     <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1185" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1185" t="n">
         <v>78</v>
@@ -25484,10 +25328,8 @@
       </c>
     </row>
     <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>20230929</t>
-        </is>
+      <c r="A1186" t="n">
+        <v>20230929</v>
       </c>
       <c r="B1186" t="n">
         <v>79</v>
@@ -25503,6 +25345,1823 @@
       <c r="E1186" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1187" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D1187" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="E1187" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1188" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1188" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D1188" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="E1188" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D1189" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="E1189" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1190" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D1190" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="E1190" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1191" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D1191" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1191" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1192" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D1192" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E1192" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1193" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D1193" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="E1193" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1194" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D1194" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="E1194" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1195" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D1195" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1195" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1196" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D1196" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="E1196" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1197" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D1197" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E1197" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1198" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D1198" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="E1198" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1199" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D1199" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="E1199" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1200" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D1200" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E1200" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
+        </is>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1201" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D1201" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E1201" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1202" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D1202" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="E1202" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1203" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D1203" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E1203" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1204" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D1204" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E1204" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1205" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D1205" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E1205" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1206" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D1206" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1206" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1207" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D1207" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1207" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1208" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D1208" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E1208" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1209" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D1209" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="E1209" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1210" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D1210" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="E1210" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1211" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D1211" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="E1211" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1212" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D1212" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="E1212" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1213" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1213" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D1213" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="E1213" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1214" t="n">
+        <v>28</v>
+      </c>
+      <c r="C1214" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D1214" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="E1214" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1215" t="n">
+        <v>29</v>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D1215" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="E1215" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1216" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D1216" t="n">
+        <v>-0.55</v>
+      </c>
+      <c r="E1216" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1217" t="n">
+        <v>31</v>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D1217" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="E1217" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1218" t="n">
+        <v>32</v>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D1218" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="E1218" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1219" t="n">
+        <v>33</v>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D1219" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="E1219" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1220" t="n">
+        <v>34</v>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D1220" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="E1220" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1221" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D1221" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="E1221" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1222" t="n">
+        <v>36</v>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D1222" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="E1222" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1223" t="n">
+        <v>37</v>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D1223" t="n">
+        <v>-0.78</v>
+      </c>
+      <c r="E1223" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1224" t="n">
+        <v>38</v>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D1224" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="E1224" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1225" t="n">
+        <v>39</v>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D1225" t="n">
+        <v>-0.83</v>
+      </c>
+      <c r="E1225" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1226" t="n">
+        <v>40</v>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D1226" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="E1226" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1227" t="n">
+        <v>41</v>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D1227" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E1227" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1228" t="n">
+        <v>42</v>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D1228" t="n">
+        <v>-1.14</v>
+      </c>
+      <c r="E1228" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1229" t="n">
+        <v>43</v>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D1229" t="n">
+        <v>-1.15</v>
+      </c>
+      <c r="E1229" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1230" t="n">
+        <v>44</v>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D1230" t="n">
+        <v>-1.19</v>
+      </c>
+      <c r="E1230" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1231" t="n">
+        <v>45</v>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D1231" t="n">
+        <v>-1.22</v>
+      </c>
+      <c r="E1231" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1232" t="n">
+        <v>46</v>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D1232" t="n">
+        <v>-1.23</v>
+      </c>
+      <c r="E1232" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1233" t="n">
+        <v>47</v>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D1233" t="n">
+        <v>-1.25</v>
+      </c>
+      <c r="E1233" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1234" t="n">
+        <v>48</v>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D1234" t="n">
+        <v>-1.35</v>
+      </c>
+      <c r="E1234" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1235" t="n">
+        <v>49</v>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D1235" t="n">
+        <v>-1.37</v>
+      </c>
+      <c r="E1235" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1236" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D1236" t="n">
+        <v>-1.39</v>
+      </c>
+      <c r="E1236" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1237" t="n">
+        <v>51</v>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D1237" t="n">
+        <v>-1.44</v>
+      </c>
+      <c r="E1237" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1238" t="n">
+        <v>52</v>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D1238" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="E1238" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1239" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D1239" t="n">
+        <v>-1.59</v>
+      </c>
+      <c r="E1239" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1240" t="n">
+        <v>54</v>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D1240" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="E1240" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1241" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D1241" t="n">
+        <v>-1.62</v>
+      </c>
+      <c r="E1241" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1242" t="n">
+        <v>56</v>
+      </c>
+      <c r="C1242" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D1242" t="n">
+        <v>-1.72</v>
+      </c>
+      <c r="E1242" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="1243">
+      <c r="A1243" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1243" t="n">
+        <v>57</v>
+      </c>
+      <c r="C1243" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D1243" t="n">
+        <v>-1.73</v>
+      </c>
+      <c r="E1243" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="1244">
+      <c r="A1244" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1244" t="n">
+        <v>58</v>
+      </c>
+      <c r="C1244" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D1244" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="E1244" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1245" t="n">
+        <v>59</v>
+      </c>
+      <c r="C1245" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D1245" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="E1245" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1246" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1246" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D1246" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="E1246" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1247" t="n">
+        <v>61</v>
+      </c>
+      <c r="C1247" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D1247" t="n">
+        <v>-2.02</v>
+      </c>
+      <c r="E1247" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1248" t="n">
+        <v>62</v>
+      </c>
+      <c r="C1248" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D1248" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="E1248" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1249" t="n">
+        <v>63</v>
+      </c>
+      <c r="C1249" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D1249" t="n">
+        <v>-2.18</v>
+      </c>
+      <c r="E1249" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1250" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1250" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D1250" t="n">
+        <v>-2.22</v>
+      </c>
+      <c r="E1250" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1251" t="n">
+        <v>65</v>
+      </c>
+      <c r="C1251" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D1251" t="n">
+        <v>-2.24</v>
+      </c>
+      <c r="E1251" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1252" t="n">
+        <v>66</v>
+      </c>
+      <c r="C1252" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D1252" t="n">
+        <v>-2.25</v>
+      </c>
+      <c r="E1252" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1253" t="n">
+        <v>67</v>
+      </c>
+      <c r="C1253" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D1253" t="n">
+        <v>-2.26</v>
+      </c>
+      <c r="E1253" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1254" t="n">
+        <v>68</v>
+      </c>
+      <c r="C1254" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D1254" t="n">
+        <v>-2.29</v>
+      </c>
+      <c r="E1254" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1255" t="n">
+        <v>69</v>
+      </c>
+      <c r="C1255" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D1255" t="n">
+        <v>-2.34</v>
+      </c>
+      <c r="E1255" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1256" t="n">
+        <v>70</v>
+      </c>
+      <c r="C1256" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D1256" t="n">
+        <v>-2.36</v>
+      </c>
+      <c r="E1256" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1257" t="n">
+        <v>71</v>
+      </c>
+      <c r="C1257" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D1257" t="n">
+        <v>-2.73</v>
+      </c>
+      <c r="E1257" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1258" t="n">
+        <v>72</v>
+      </c>
+      <c r="C1258" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D1258" t="n">
+        <v>-2.77</v>
+      </c>
+      <c r="E1258" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1259" t="n">
+        <v>73</v>
+      </c>
+      <c r="C1259" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D1259" t="n">
+        <v>-2.83</v>
+      </c>
+      <c r="E1259" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1260" t="n">
+        <v>74</v>
+      </c>
+      <c r="C1260" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D1260" t="n">
+        <v>-2.84</v>
+      </c>
+      <c r="E1260" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1261" t="n">
+        <v>75</v>
+      </c>
+      <c r="C1261" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D1261" t="n">
+        <v>-2.98</v>
+      </c>
+      <c r="E1261" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1262" t="n">
+        <v>76</v>
+      </c>
+      <c r="C1262" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D1262" t="n">
+        <v>-3.18</v>
+      </c>
+      <c r="E1262" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1263" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1263" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D1263" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="E1263" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1264" t="n">
+        <v>78</v>
+      </c>
+      <c r="C1264" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D1264" t="n">
+        <v>-3.99</v>
+      </c>
+      <c r="E1264" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265" t="inlineStr">
+        <is>
+          <t>20231016</t>
+        </is>
+      </c>
+      <c r="B1265" t="n">
+        <v>79</v>
+      </c>
+      <c r="C1265" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D1265" t="n">
+        <v>-4.21</v>
+      </c>
+      <c r="E1265" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
         </is>
       </c>
     </row>

--- a/Data/업종별_등락순위.xlsx
+++ b/Data/업종별_등락순위.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1265"/>
+  <dimension ref="A1:E1344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -25349,10 +25349,8 @@
       </c>
     </row>
     <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1187" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1187" t="n">
         <v>1</v>
@@ -25372,10 +25370,8 @@
       </c>
     </row>
     <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1188" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1188" t="n">
         <v>2</v>
@@ -25395,10 +25391,8 @@
       </c>
     </row>
     <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1189" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1189" t="n">
         <v>3</v>
@@ -25418,10 +25412,8 @@
       </c>
     </row>
     <row r="1190">
-      <c r="A1190" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1190" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1190" t="n">
         <v>4</v>
@@ -25441,10 +25433,8 @@
       </c>
     </row>
     <row r="1191">
-      <c r="A1191" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1191" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1191" t="n">
         <v>5</v>
@@ -25464,10 +25454,8 @@
       </c>
     </row>
     <row r="1192">
-      <c r="A1192" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1192" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1192" t="n">
         <v>6</v>
@@ -25487,10 +25475,8 @@
       </c>
     </row>
     <row r="1193">
-      <c r="A1193" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1193" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1193" t="n">
         <v>7</v>
@@ -25510,10 +25496,8 @@
       </c>
     </row>
     <row r="1194">
-      <c r="A1194" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1194" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1194" t="n">
         <v>8</v>
@@ -25533,10 +25517,8 @@
       </c>
     </row>
     <row r="1195">
-      <c r="A1195" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1195" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1195" t="n">
         <v>9</v>
@@ -25556,10 +25538,8 @@
       </c>
     </row>
     <row r="1196">
-      <c r="A1196" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1196" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1196" t="n">
         <v>10</v>
@@ -25579,10 +25559,8 @@
       </c>
     </row>
     <row r="1197">
-      <c r="A1197" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1197" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1197" t="n">
         <v>11</v>
@@ -25602,10 +25580,8 @@
       </c>
     </row>
     <row r="1198">
-      <c r="A1198" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1198" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1198" t="n">
         <v>12</v>
@@ -25625,10 +25601,8 @@
       </c>
     </row>
     <row r="1199">
-      <c r="A1199" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1199" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1199" t="n">
         <v>13</v>
@@ -25648,10 +25622,8 @@
       </c>
     </row>
     <row r="1200">
-      <c r="A1200" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1200" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1200" t="n">
         <v>14</v>
@@ -25671,10 +25643,8 @@
       </c>
     </row>
     <row r="1201">
-      <c r="A1201" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1201" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1201" t="n">
         <v>15</v>
@@ -25694,10 +25664,8 @@
       </c>
     </row>
     <row r="1202">
-      <c r="A1202" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1202" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1202" t="n">
         <v>16</v>
@@ -25717,10 +25685,8 @@
       </c>
     </row>
     <row r="1203">
-      <c r="A1203" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1203" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1203" t="n">
         <v>17</v>
@@ -25740,10 +25706,8 @@
       </c>
     </row>
     <row r="1204">
-      <c r="A1204" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1204" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1204" t="n">
         <v>18</v>
@@ -25763,10 +25727,8 @@
       </c>
     </row>
     <row r="1205">
-      <c r="A1205" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1205" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1205" t="n">
         <v>19</v>
@@ -25786,10 +25748,8 @@
       </c>
     </row>
     <row r="1206">
-      <c r="A1206" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1206" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1206" t="n">
         <v>20</v>
@@ -25809,10 +25769,8 @@
       </c>
     </row>
     <row r="1207">
-      <c r="A1207" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1207" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1207" t="n">
         <v>21</v>
@@ -25832,10 +25790,8 @@
       </c>
     </row>
     <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1208" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1208" t="n">
         <v>22</v>
@@ -25855,10 +25811,8 @@
       </c>
     </row>
     <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1209" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1209" t="n">
         <v>23</v>
@@ -25878,10 +25832,8 @@
       </c>
     </row>
     <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1210" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1210" t="n">
         <v>24</v>
@@ -25901,10 +25853,8 @@
       </c>
     </row>
     <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1211" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1211" t="n">
         <v>25</v>
@@ -25924,10 +25874,8 @@
       </c>
     </row>
     <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1212" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1212" t="n">
         <v>26</v>
@@ -25947,10 +25895,8 @@
       </c>
     </row>
     <row r="1213">
-      <c r="A1213" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1213" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1213" t="n">
         <v>27</v>
@@ -25970,10 +25916,8 @@
       </c>
     </row>
     <row r="1214">
-      <c r="A1214" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1214" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1214" t="n">
         <v>28</v>
@@ -25993,10 +25937,8 @@
       </c>
     </row>
     <row r="1215">
-      <c r="A1215" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1215" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1215" t="n">
         <v>29</v>
@@ -26016,10 +25958,8 @@
       </c>
     </row>
     <row r="1216">
-      <c r="A1216" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1216" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1216" t="n">
         <v>30</v>
@@ -26039,10 +25979,8 @@
       </c>
     </row>
     <row r="1217">
-      <c r="A1217" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1217" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1217" t="n">
         <v>31</v>
@@ -26062,10 +26000,8 @@
       </c>
     </row>
     <row r="1218">
-      <c r="A1218" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1218" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1218" t="n">
         <v>32</v>
@@ -26085,10 +26021,8 @@
       </c>
     </row>
     <row r="1219">
-      <c r="A1219" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1219" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1219" t="n">
         <v>33</v>
@@ -26108,10 +26042,8 @@
       </c>
     </row>
     <row r="1220">
-      <c r="A1220" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1220" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1220" t="n">
         <v>34</v>
@@ -26131,10 +26063,8 @@
       </c>
     </row>
     <row r="1221">
-      <c r="A1221" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1221" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1221" t="n">
         <v>35</v>
@@ -26154,10 +26084,8 @@
       </c>
     </row>
     <row r="1222">
-      <c r="A1222" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1222" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1222" t="n">
         <v>36</v>
@@ -26177,10 +26105,8 @@
       </c>
     </row>
     <row r="1223">
-      <c r="A1223" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1223" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1223" t="n">
         <v>37</v>
@@ -26200,10 +26126,8 @@
       </c>
     </row>
     <row r="1224">
-      <c r="A1224" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1224" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1224" t="n">
         <v>38</v>
@@ -26223,10 +26147,8 @@
       </c>
     </row>
     <row r="1225">
-      <c r="A1225" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1225" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1225" t="n">
         <v>39</v>
@@ -26246,10 +26168,8 @@
       </c>
     </row>
     <row r="1226">
-      <c r="A1226" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1226" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1226" t="n">
         <v>40</v>
@@ -26269,10 +26189,8 @@
       </c>
     </row>
     <row r="1227">
-      <c r="A1227" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1227" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1227" t="n">
         <v>41</v>
@@ -26292,10 +26210,8 @@
       </c>
     </row>
     <row r="1228">
-      <c r="A1228" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1228" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1228" t="n">
         <v>42</v>
@@ -26315,10 +26231,8 @@
       </c>
     </row>
     <row r="1229">
-      <c r="A1229" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1229" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1229" t="n">
         <v>43</v>
@@ -26338,10 +26252,8 @@
       </c>
     </row>
     <row r="1230">
-      <c r="A1230" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1230" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1230" t="n">
         <v>44</v>
@@ -26361,10 +26273,8 @@
       </c>
     </row>
     <row r="1231">
-      <c r="A1231" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1231" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1231" t="n">
         <v>45</v>
@@ -26384,10 +26294,8 @@
       </c>
     </row>
     <row r="1232">
-      <c r="A1232" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1232" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1232" t="n">
         <v>46</v>
@@ -26407,10 +26315,8 @@
       </c>
     </row>
     <row r="1233">
-      <c r="A1233" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1233" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1233" t="n">
         <v>47</v>
@@ -26430,10 +26336,8 @@
       </c>
     </row>
     <row r="1234">
-      <c r="A1234" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1234" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1234" t="n">
         <v>48</v>
@@ -26453,10 +26357,8 @@
       </c>
     </row>
     <row r="1235">
-      <c r="A1235" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1235" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1235" t="n">
         <v>49</v>
@@ -26476,10 +26378,8 @@
       </c>
     </row>
     <row r="1236">
-      <c r="A1236" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1236" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1236" t="n">
         <v>50</v>
@@ -26499,10 +26399,8 @@
       </c>
     </row>
     <row r="1237">
-      <c r="A1237" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1237" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1237" t="n">
         <v>51</v>
@@ -26522,10 +26420,8 @@
       </c>
     </row>
     <row r="1238">
-      <c r="A1238" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1238" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1238" t="n">
         <v>52</v>
@@ -26545,10 +26441,8 @@
       </c>
     </row>
     <row r="1239">
-      <c r="A1239" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1239" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1239" t="n">
         <v>53</v>
@@ -26568,10 +26462,8 @@
       </c>
     </row>
     <row r="1240">
-      <c r="A1240" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1240" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1240" t="n">
         <v>54</v>
@@ -26591,10 +26483,8 @@
       </c>
     </row>
     <row r="1241">
-      <c r="A1241" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1241" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1241" t="n">
         <v>55</v>
@@ -26614,10 +26504,8 @@
       </c>
     </row>
     <row r="1242">
-      <c r="A1242" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1242" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1242" t="n">
         <v>56</v>
@@ -26637,10 +26525,8 @@
       </c>
     </row>
     <row r="1243">
-      <c r="A1243" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1243" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1243" t="n">
         <v>57</v>
@@ -26660,10 +26546,8 @@
       </c>
     </row>
     <row r="1244">
-      <c r="A1244" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1244" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1244" t="n">
         <v>58</v>
@@ -26683,10 +26567,8 @@
       </c>
     </row>
     <row r="1245">
-      <c r="A1245" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1245" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1245" t="n">
         <v>59</v>
@@ -26706,10 +26588,8 @@
       </c>
     </row>
     <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1246" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1246" t="n">
         <v>60</v>
@@ -26729,10 +26609,8 @@
       </c>
     </row>
     <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1247" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1247" t="n">
         <v>61</v>
@@ -26752,10 +26630,8 @@
       </c>
     </row>
     <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1248" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1248" t="n">
         <v>62</v>
@@ -26775,10 +26651,8 @@
       </c>
     </row>
     <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1249" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1249" t="n">
         <v>63</v>
@@ -26798,10 +26672,8 @@
       </c>
     </row>
     <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1250" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1250" t="n">
         <v>64</v>
@@ -26821,10 +26693,8 @@
       </c>
     </row>
     <row r="1251">
-      <c r="A1251" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1251" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1251" t="n">
         <v>65</v>
@@ -26844,10 +26714,8 @@
       </c>
     </row>
     <row r="1252">
-      <c r="A1252" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1252" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1252" t="n">
         <v>66</v>
@@ -26867,10 +26735,8 @@
       </c>
     </row>
     <row r="1253">
-      <c r="A1253" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1253" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1253" t="n">
         <v>67</v>
@@ -26890,10 +26756,8 @@
       </c>
     </row>
     <row r="1254">
-      <c r="A1254" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1254" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1254" t="n">
         <v>68</v>
@@ -26913,10 +26777,8 @@
       </c>
     </row>
     <row r="1255">
-      <c r="A1255" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1255" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1255" t="n">
         <v>69</v>
@@ -26936,10 +26798,8 @@
       </c>
     </row>
     <row r="1256">
-      <c r="A1256" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1256" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1256" t="n">
         <v>70</v>
@@ -26959,10 +26819,8 @@
       </c>
     </row>
     <row r="1257">
-      <c r="A1257" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1257" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1257" t="n">
         <v>71</v>
@@ -26982,10 +26840,8 @@
       </c>
     </row>
     <row r="1258">
-      <c r="A1258" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1258" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1258" t="n">
         <v>72</v>
@@ -27005,10 +26861,8 @@
       </c>
     </row>
     <row r="1259">
-      <c r="A1259" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1259" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1259" t="n">
         <v>73</v>
@@ -27028,10 +26882,8 @@
       </c>
     </row>
     <row r="1260">
-      <c r="A1260" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1260" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1260" t="n">
         <v>74</v>
@@ -27051,10 +26903,8 @@
       </c>
     </row>
     <row r="1261">
-      <c r="A1261" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1261" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1261" t="n">
         <v>75</v>
@@ -27074,10 +26924,8 @@
       </c>
     </row>
     <row r="1262">
-      <c r="A1262" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1262" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1262" t="n">
         <v>76</v>
@@ -27097,10 +26945,8 @@
       </c>
     </row>
     <row r="1263">
-      <c r="A1263" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1263" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1263" t="n">
         <v>77</v>
@@ -27120,10 +26966,8 @@
       </c>
     </row>
     <row r="1264">
-      <c r="A1264" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1264" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1264" t="n">
         <v>78</v>
@@ -27143,10 +26987,8 @@
       </c>
     </row>
     <row r="1265">
-      <c r="A1265" t="inlineStr">
-        <is>
-          <t>20231016</t>
-        </is>
+      <c r="A1265" t="n">
+        <v>20231016</v>
       </c>
       <c r="B1265" t="n">
         <v>79</v>
@@ -27162,6 +27004,1823 @@
       <c r="E1265" t="inlineStr">
         <is>
           <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1266" t="inlineStr">
+        <is>
+          <t>우주항공과국방</t>
+        </is>
+      </c>
+      <c r="D1266" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="E1266" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=284</t>
+        </is>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1267" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1267" t="inlineStr">
+        <is>
+          <t>비철금속</t>
+        </is>
+      </c>
+      <c r="D1267" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="E1267" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=322</t>
+        </is>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1268" t="n">
+        <v>3</v>
+      </c>
+      <c r="C1268" t="inlineStr">
+        <is>
+          <t>화학</t>
+        </is>
+      </c>
+      <c r="D1268" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="E1268" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=272</t>
+        </is>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1269" t="n">
+        <v>4</v>
+      </c>
+      <c r="C1269" t="inlineStr">
+        <is>
+          <t>섬유,의류,신발,호화품</t>
+        </is>
+      </c>
+      <c r="D1269" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E1269" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=274</t>
+        </is>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1270" t="n">
+        <v>5</v>
+      </c>
+      <c r="C1270" t="inlineStr">
+        <is>
+          <t>IT서비스</t>
+        </is>
+      </c>
+      <c r="D1270" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="E1270" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=267</t>
+        </is>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1271" t="n">
+        <v>6</v>
+      </c>
+      <c r="C1271" t="inlineStr">
+        <is>
+          <t>가정용기기와용품</t>
+        </is>
+      </c>
+      <c r="D1271" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="E1271" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=298</t>
+        </is>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1272" t="n">
+        <v>7</v>
+      </c>
+      <c r="C1272" t="inlineStr">
+        <is>
+          <t>가스유틸리티</t>
+        </is>
+      </c>
+      <c r="D1272" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="E1272" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=312</t>
+        </is>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1273" t="n">
+        <v>8</v>
+      </c>
+      <c r="C1273" t="inlineStr">
+        <is>
+          <t>항공사</t>
+        </is>
+      </c>
+      <c r="D1273" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E1273" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=305</t>
+        </is>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1274" t="n">
+        <v>9</v>
+      </c>
+      <c r="C1274" t="inlineStr">
+        <is>
+          <t>기타금융</t>
+        </is>
+      </c>
+      <c r="D1274" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="E1274" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=319</t>
+        </is>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1275" t="n">
+        <v>10</v>
+      </c>
+      <c r="C1275" t="inlineStr">
+        <is>
+          <t>기계</t>
+        </is>
+      </c>
+      <c r="D1275" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E1275" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=299</t>
+        </is>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1276" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1276" t="inlineStr">
+        <is>
+          <t>컴퓨터와주변기기</t>
+        </is>
+      </c>
+      <c r="D1276" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E1276" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=293</t>
+        </is>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1277" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1277" t="inlineStr">
+        <is>
+          <t>방송과엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D1277" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E1277" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=285</t>
+        </is>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1278" t="n">
+        <v>13</v>
+      </c>
+      <c r="C1278" t="inlineStr">
+        <is>
+          <t>전기제품</t>
+        </is>
+      </c>
+      <c r="D1278" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="E1278" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=283</t>
+        </is>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1279" t="n">
+        <v>14</v>
+      </c>
+      <c r="C1279" t="inlineStr">
+        <is>
+          <t>생물공학</t>
+        </is>
+      </c>
+      <c r="D1279" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="E1279" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=286</t>
+        </is>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1280" t="n">
+        <v>15</v>
+      </c>
+      <c r="C1280" t="inlineStr">
+        <is>
+          <t>복합기업</t>
+        </is>
+      </c>
+      <c r="D1280" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E1280" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=276</t>
+        </is>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1281" t="n">
+        <v>16</v>
+      </c>
+      <c r="C1281" t="inlineStr">
+        <is>
+          <t>전자제품</t>
+        </is>
+      </c>
+      <c r="D1281" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="E1281" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=307</t>
+        </is>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1282" t="n">
+        <v>17</v>
+      </c>
+      <c r="C1282" t="inlineStr">
+        <is>
+          <t>전기유틸리티</t>
+        </is>
+      </c>
+      <c r="D1282" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E1282" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=325</t>
+        </is>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1283" t="n">
+        <v>18</v>
+      </c>
+      <c r="C1283" t="inlineStr">
+        <is>
+          <t>석유와가스</t>
+        </is>
+      </c>
+      <c r="D1283" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="E1283" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=313</t>
+        </is>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1284" t="n">
+        <v>19</v>
+      </c>
+      <c r="C1284" t="inlineStr">
+        <is>
+          <t>철강</t>
+        </is>
+      </c>
+      <c r="D1284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E1284" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=304</t>
+        </is>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1285" t="n">
+        <v>20</v>
+      </c>
+      <c r="C1285" t="inlineStr">
+        <is>
+          <t>건강관리장비와용품</t>
+        </is>
+      </c>
+      <c r="D1285" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="E1285" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=281</t>
+        </is>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1286" t="n">
+        <v>21</v>
+      </c>
+      <c r="C1286" t="inlineStr">
+        <is>
+          <t>핸드셋</t>
+        </is>
+      </c>
+      <c r="D1286" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E1286" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=292</t>
+        </is>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1287" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1287" t="inlineStr">
+        <is>
+          <t>통신장비</t>
+        </is>
+      </c>
+      <c r="D1287" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E1287" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=294</t>
+        </is>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1288" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1288" t="inlineStr">
+        <is>
+          <t>광고</t>
+        </is>
+      </c>
+      <c r="D1288" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1288" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=310</t>
+        </is>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1289" t="n">
+        <v>24</v>
+      </c>
+      <c r="C1289" t="inlineStr">
+        <is>
+          <t>해운사</t>
+        </is>
+      </c>
+      <c r="D1289" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="E1289" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=323</t>
+        </is>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1290" t="n">
+        <v>25</v>
+      </c>
+      <c r="C1290" t="inlineStr">
+        <is>
+          <t>전자장비와기기</t>
+        </is>
+      </c>
+      <c r="D1290" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="E1290" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=282</t>
+        </is>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1291" t="n">
+        <v>26</v>
+      </c>
+      <c r="C1291" t="inlineStr">
+        <is>
+          <t>소프트웨어</t>
+        </is>
+      </c>
+      <c r="D1291" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="E1291" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=287</t>
+        </is>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1292" t="n">
+        <v>27</v>
+      </c>
+      <c r="C1292" t="inlineStr">
+        <is>
+          <t>에너지장비및서비스</t>
+        </is>
+      </c>
+      <c r="D1292" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="E1292" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=295</t>
+        </is>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1293" t="n">
+        <v>28</v>
+      </c>
+      <c r="C1293" t="inlineStr">
+        <is>
+          <t>건축자재</t>
+        </is>
+      </c>
+      <c r="D1293" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1293" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=289</t>
+        </is>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1294" t="n">
+        <v>29</v>
+      </c>
+      <c r="C1294" t="inlineStr">
+        <is>
+          <t>디스플레이패널</t>
+        </is>
+      </c>
+      <c r="D1294" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E1294" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=327</t>
+        </is>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1295" t="n">
+        <v>30</v>
+      </c>
+      <c r="C1295" t="inlineStr">
+        <is>
+          <t>무역회사와판매업체</t>
+        </is>
+      </c>
+      <c r="D1295" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="E1295" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=334</t>
+        </is>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1296" t="n">
+        <v>31</v>
+      </c>
+      <c r="C1296" t="inlineStr">
+        <is>
+          <t>식품과기본식료품소매</t>
+        </is>
+      </c>
+      <c r="D1296" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E1296" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=302</t>
+        </is>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1297" t="n">
+        <v>32</v>
+      </c>
+      <c r="C1297" t="inlineStr">
+        <is>
+          <t>전문소매</t>
+        </is>
+      </c>
+      <c r="D1297" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E1297" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=328</t>
+        </is>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1298" t="n">
+        <v>33</v>
+      </c>
+      <c r="C1298" t="inlineStr">
+        <is>
+          <t>운송인프라</t>
+        </is>
+      </c>
+      <c r="D1298" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E1298" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=296</t>
+        </is>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1299" t="n">
+        <v>34</v>
+      </c>
+      <c r="C1299" t="inlineStr">
+        <is>
+          <t>창업투자</t>
+        </is>
+      </c>
+      <c r="D1299" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E1299" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=277</t>
+        </is>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1300" t="n">
+        <v>35</v>
+      </c>
+      <c r="C1300" t="inlineStr">
+        <is>
+          <t>손해보험</t>
+        </is>
+      </c>
+      <c r="D1300" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E1300" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=315</t>
+        </is>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1301" t="n">
+        <v>36</v>
+      </c>
+      <c r="C1301" t="inlineStr">
+        <is>
+          <t>생명과학도구및서비스</t>
+        </is>
+      </c>
+      <c r="D1301" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E1301" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=262</t>
+        </is>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1302" t="n">
+        <v>37</v>
+      </c>
+      <c r="C1302" t="inlineStr">
+        <is>
+          <t>전기장비</t>
+        </is>
+      </c>
+      <c r="D1302" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E1302" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=306</t>
+        </is>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1303" t="n">
+        <v>38</v>
+      </c>
+      <c r="C1303" t="inlineStr">
+        <is>
+          <t>게임엔터테인먼트</t>
+        </is>
+      </c>
+      <c r="D1303" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="E1303" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=263</t>
+        </is>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1304" t="n">
+        <v>39</v>
+      </c>
+      <c r="C1304" t="inlineStr">
+        <is>
+          <t>다각화된통신서비스</t>
+        </is>
+      </c>
+      <c r="D1304" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="E1304" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=336</t>
+        </is>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1305" t="n">
+        <v>40</v>
+      </c>
+      <c r="C1305" t="inlineStr">
+        <is>
+          <t>디스플레이장비및부품</t>
+        </is>
+      </c>
+      <c r="D1305" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="E1305" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=269</t>
+        </is>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1306" t="n">
+        <v>41</v>
+      </c>
+      <c r="C1306" t="inlineStr">
+        <is>
+          <t>출판</t>
+        </is>
+      </c>
+      <c r="D1306" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E1306" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=314</t>
+        </is>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1307" t="n">
+        <v>42</v>
+      </c>
+      <c r="C1307" t="inlineStr">
+        <is>
+          <t>양방향미디어와서비스</t>
+        </is>
+      </c>
+      <c r="D1307" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E1307" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=300</t>
+        </is>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1308" t="n">
+        <v>43</v>
+      </c>
+      <c r="C1308" t="inlineStr">
+        <is>
+          <t>증권</t>
+        </is>
+      </c>
+      <c r="D1308" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="E1308" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=321</t>
+        </is>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1309" t="n">
+        <v>44</v>
+      </c>
+      <c r="C1309" t="inlineStr">
+        <is>
+          <t>식품</t>
+        </is>
+      </c>
+      <c r="D1309" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="E1309" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=268</t>
+        </is>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1310" t="n">
+        <v>45</v>
+      </c>
+      <c r="C1310" t="inlineStr">
+        <is>
+          <t>가구</t>
+        </is>
+      </c>
+      <c r="D1310" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E1310" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=303</t>
+        </is>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1311" t="n">
+        <v>46</v>
+      </c>
+      <c r="C1311" t="inlineStr">
+        <is>
+          <t>제약</t>
+        </is>
+      </c>
+      <c r="D1311" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E1311" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=261</t>
+        </is>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1312" t="n">
+        <v>47</v>
+      </c>
+      <c r="C1312" t="inlineStr">
+        <is>
+          <t>반도체와반도체장비</t>
+        </is>
+      </c>
+      <c r="D1312" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="E1312" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=278</t>
+        </is>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1313" t="n">
+        <v>48</v>
+      </c>
+      <c r="C1313" t="inlineStr">
+        <is>
+          <t>가정용품</t>
+        </is>
+      </c>
+      <c r="D1313" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="E1313" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=297</t>
+        </is>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1314" t="n">
+        <v>49</v>
+      </c>
+      <c r="C1314" t="inlineStr">
+        <is>
+          <t>인터넷과카탈로그소매</t>
+        </is>
+      </c>
+      <c r="D1314" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E1314" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=308</t>
+        </is>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1315" t="n">
+        <v>50</v>
+      </c>
+      <c r="C1315" t="inlineStr">
+        <is>
+          <t>레저용장비와제품</t>
+        </is>
+      </c>
+      <c r="D1315" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E1315" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=271</t>
+        </is>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1316" t="n">
+        <v>51</v>
+      </c>
+      <c r="C1316" t="inlineStr">
+        <is>
+          <t>카드</t>
+        </is>
+      </c>
+      <c r="D1316" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E1316" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=337</t>
+        </is>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1317" t="n">
+        <v>52</v>
+      </c>
+      <c r="C1317" t="inlineStr">
+        <is>
+          <t>생명보험</t>
+        </is>
+      </c>
+      <c r="D1317" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E1317" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=330</t>
+        </is>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1318" t="n">
+        <v>53</v>
+      </c>
+      <c r="C1318" t="inlineStr">
+        <is>
+          <t>무선통신서비스</t>
+        </is>
+      </c>
+      <c r="D1318" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E1318" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=333</t>
+        </is>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1319" t="n">
+        <v>54</v>
+      </c>
+      <c r="C1319" t="inlineStr">
+        <is>
+          <t>항공화물운송과물류</t>
+        </is>
+      </c>
+      <c r="D1319" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E1319" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=326</t>
+        </is>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1320" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1320" t="inlineStr">
+        <is>
+          <t>호텔,레스토랑,레저</t>
+        </is>
+      </c>
+      <c r="D1320" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E1320" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=317</t>
+        </is>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1321" t="n">
+        <v>56</v>
+      </c>
+      <c r="C1321" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+      <c r="D1321" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="E1321" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=25</t>
+        </is>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1322" t="n">
+        <v>57</v>
+      </c>
+      <c r="C1322" t="inlineStr">
+        <is>
+          <t>음료</t>
+        </is>
+      </c>
+      <c r="D1322" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E1322" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=309</t>
+        </is>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1323" t="n">
+        <v>58</v>
+      </c>
+      <c r="C1323" t="inlineStr">
+        <is>
+          <t>사무용전자제품</t>
+        </is>
+      </c>
+      <c r="D1323" t="n">
+        <v>0</v>
+      </c>
+      <c r="E1323" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=338</t>
+        </is>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1324" t="n">
+        <v>59</v>
+      </c>
+      <c r="C1324" t="inlineStr">
+        <is>
+          <t>부동산</t>
+        </is>
+      </c>
+      <c r="D1324" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="E1324" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=280</t>
+        </is>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1325" t="n">
+        <v>60</v>
+      </c>
+      <c r="C1325" t="inlineStr">
+        <is>
+          <t>상업서비스와공급품</t>
+        </is>
+      </c>
+      <c r="D1325" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="E1325" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=324</t>
+        </is>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1326" t="n">
+        <v>61</v>
+      </c>
+      <c r="C1326" t="inlineStr">
+        <is>
+          <t>포장재</t>
+        </is>
+      </c>
+      <c r="D1326" t="n">
+        <v>-0.11</v>
+      </c>
+      <c r="E1326" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=311</t>
+        </is>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1327" t="n">
+        <v>62</v>
+      </c>
+      <c r="C1327" t="inlineStr">
+        <is>
+          <t>건강관리업체및서비스</t>
+        </is>
+      </c>
+      <c r="D1327" t="n">
+        <v>-0.13</v>
+      </c>
+      <c r="E1327" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=316</t>
+        </is>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1328" t="n">
+        <v>63</v>
+      </c>
+      <c r="C1328" t="inlineStr">
+        <is>
+          <t>복합유틸리티</t>
+        </is>
+      </c>
+      <c r="D1328" t="n">
+        <v>-0.21</v>
+      </c>
+      <c r="E1328" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=331</t>
+        </is>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1329" t="n">
+        <v>64</v>
+      </c>
+      <c r="C1329" t="inlineStr">
+        <is>
+          <t>건축제품</t>
+        </is>
+      </c>
+      <c r="D1329" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="E1329" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=320</t>
+        </is>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1330" t="n">
+        <v>65</v>
+      </c>
+      <c r="C1330" t="inlineStr">
+        <is>
+          <t>다각화된소비자서비스</t>
+        </is>
+      </c>
+      <c r="D1330" t="n">
+        <v>-0.38</v>
+      </c>
+      <c r="E1330" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=339</t>
+        </is>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1331" t="n">
+        <v>66</v>
+      </c>
+      <c r="C1331" t="inlineStr">
+        <is>
+          <t>화장품</t>
+        </is>
+      </c>
+      <c r="D1331" t="n">
+        <v>-0.45</v>
+      </c>
+      <c r="E1331" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=266</t>
+        </is>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1332" t="n">
+        <v>67</v>
+      </c>
+      <c r="C1332" t="inlineStr">
+        <is>
+          <t>조선</t>
+        </is>
+      </c>
+      <c r="D1332" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="E1332" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=291</t>
+        </is>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1333" t="n">
+        <v>68</v>
+      </c>
+      <c r="C1333" t="inlineStr">
+        <is>
+          <t>교육서비스</t>
+        </is>
+      </c>
+      <c r="D1333" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="E1333" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=290</t>
+        </is>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1334" t="n">
+        <v>69</v>
+      </c>
+      <c r="C1334" t="inlineStr">
+        <is>
+          <t>도로와철도운송</t>
+        </is>
+      </c>
+      <c r="D1334" t="n">
+        <v>-1.02</v>
+      </c>
+      <c r="E1334" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=329</t>
+        </is>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1335" t="n">
+        <v>70</v>
+      </c>
+      <c r="C1335" t="inlineStr">
+        <is>
+          <t>건강관리기술</t>
+        </is>
+      </c>
+      <c r="D1335" t="n">
+        <v>-1.04</v>
+      </c>
+      <c r="E1335" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=288</t>
+        </is>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1336" t="n">
+        <v>71</v>
+      </c>
+      <c r="C1336" t="inlineStr">
+        <is>
+          <t>담배</t>
+        </is>
+      </c>
+      <c r="D1336" t="n">
+        <v>-1.16</v>
+      </c>
+      <c r="E1336" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=275</t>
+        </is>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1337" t="n">
+        <v>72</v>
+      </c>
+      <c r="C1337" t="inlineStr">
+        <is>
+          <t>판매업체</t>
+        </is>
+      </c>
+      <c r="D1337" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="E1337" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=265</t>
+        </is>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1338" t="n">
+        <v>73</v>
+      </c>
+      <c r="C1338" t="inlineStr">
+        <is>
+          <t>백화점과일반상점</t>
+        </is>
+      </c>
+      <c r="D1338" t="n">
+        <v>-1.61</v>
+      </c>
+      <c r="E1338" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=264</t>
+        </is>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1339" t="n">
+        <v>74</v>
+      </c>
+      <c r="C1339" t="inlineStr">
+        <is>
+          <t>건설</t>
+        </is>
+      </c>
+      <c r="D1339" t="n">
+        <v>-1.93</v>
+      </c>
+      <c r="E1339" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=279</t>
+        </is>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1340" t="n">
+        <v>75</v>
+      </c>
+      <c r="C1340" t="inlineStr">
+        <is>
+          <t>자동차</t>
+        </is>
+      </c>
+      <c r="D1340" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="E1340" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=273</t>
+        </is>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1341" t="n">
+        <v>76</v>
+      </c>
+      <c r="C1341" t="inlineStr">
+        <is>
+          <t>자동차부품</t>
+        </is>
+      </c>
+      <c r="D1341" t="n">
+        <v>-2.04</v>
+      </c>
+      <c r="E1341" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=270</t>
+        </is>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1342" t="n">
+        <v>77</v>
+      </c>
+      <c r="C1342" t="inlineStr">
+        <is>
+          <t>은행</t>
+        </is>
+      </c>
+      <c r="D1342" t="n">
+        <v>-2.86</v>
+      </c>
+      <c r="E1342" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=301</t>
+        </is>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1343" t="n">
+        <v>78</v>
+      </c>
+      <c r="C1343" t="inlineStr">
+        <is>
+          <t>문구류</t>
+        </is>
+      </c>
+      <c r="D1343" t="n">
+        <v>-5.08</v>
+      </c>
+      <c r="E1343" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=332</t>
+        </is>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344" t="inlineStr">
+        <is>
+          <t>20231030</t>
+        </is>
+      </c>
+      <c r="B1344" t="n">
+        <v>79</v>
+      </c>
+      <c r="C1344" t="inlineStr">
+        <is>
+          <t>종이와목재</t>
+        </is>
+      </c>
+      <c r="D1344" t="n">
+        <v>-8.24</v>
+      </c>
+      <c r="E1344" t="inlineStr">
+        <is>
+          <t>https://finance.naver.com//sise/sise_group_detail.naver?type=upjong&amp;no=318</t>
         </is>
       </c>
     </row>
